--- a/Amsterdam_miejsca_odnosniki.xlsx
+++ b/Amsterdam_miejsca_odnosniki.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B79C4D-3E96-4DD8-A402-1F256C2803C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="278">
   <si>
     <t>Miejsce</t>
   </si>
@@ -58,6 +52,9 @@
     <t>info</t>
   </si>
   <si>
+    <t>summ</t>
+  </si>
+  <si>
     <t>National History Museum</t>
   </si>
   <si>
@@ -502,73 +499,230 @@
     <t>Sklep z kawą</t>
   </si>
   <si>
-    <t>XIX-wieczny budynek: malowidła z epoki Złotego wieku Holandii i obszerna kolekcja europejskich dzieł sztuki.</t>
-  </si>
-  <si>
-    <t>Muzeum z największą na świecie kolekcją obrazów, rysunków i listów Van Gogha.</t>
-  </si>
-  <si>
-    <t>Muzeum w domu z oficyną, w której Anna Frank z rodziną ukrywali się przed nazistami podczas II wojny.</t>
-  </si>
-  <si>
-    <t>Rozległy XIX-wieczny park miejski z placem zabaw, stawami i teatrem na świeżym powietrzu.</t>
-  </si>
-  <si>
-    <t>Założony w XIX wieku ogród zoologiczny z szympansami, zebrami, słoniami, akwarium i planetarium.</t>
-  </si>
-  <si>
-    <t>Należące do sieci muzeów tematyczne galerie pełne naturalnej wielkości figur woskowych sławnych ludzi i postaci historycznych.</t>
-  </si>
-  <si>
-    <t>Pokaz świateł podczas wjazdu windą na dach 20-piętrowego budynku z restauracją, barem i huśtawką Over The Edge.</t>
-  </si>
-  <si>
-    <t>Rezydencja królewska od 1808 r. Gdy nie pełni głównej funkcji, otwarta dla zwiedzających i miejsce wystaw.</t>
-  </si>
-  <si>
-    <t>Stylowa, rozległa hala ze stoiskami serwującymi potrawy z całego świata – od burgerów i hot dogów po pierogi i tacos.</t>
-  </si>
-  <si>
-    <t>Odrestaurowany XVII-wieczny dom zdobiony akwafortami Rembrandta, który żył i tworzył tu przez 20 lat.</t>
-  </si>
-  <si>
-    <t>Słynąca z szarlotki kawiarnia z barem serwująca sycące europejskie dania, lunche i kolacje.</t>
-  </si>
-  <si>
-    <t>Wirtualne podróże morskie w interaktywnym muzeum w dawnym magazynie. Można tu też zobaczyć replikę statku towarowego z XVIII wieku.</t>
-  </si>
-  <si>
-    <t>XIV-wieczny, obecnie protestancki kościół – miejsce wydarzeń religijnych i kulturalnych, w tym koncertów.</t>
-  </si>
-  <si>
-    <t>Historia słynnej marki browarniczej przedstawiona w formie interaktywnej w byłym browarze oraz degustacja.</t>
-  </si>
-  <si>
-    <t>Olbrzymie zbiory niderlandzkich i zagranicznych filmów oraz plakatów w nowoczesnym centrum kultury nad wodą.</t>
-  </si>
-  <si>
-    <t>Symulator lotu 5D z efektami wodnymi i wietrznymi zabierający uczestników na wycieczkę po słynnych miejscach w Holandii.</t>
-  </si>
-  <si>
-    <t>Działająca w dawnym magazynie nad kanałem dwupoziomowa restauracja serwująca obfite naleśniki na słodko i wytrawnie.</t>
-  </si>
-  <si>
-    <t>Położony przy wiatraku nowoczesny browar produkujący organiczne piwa jasne i ciemne. Organizowane jest krótkie zwiedzanie obiektu.</t>
-  </si>
-  <si>
-    <t>Unikalne, nowoczesne muzeum z interaktywnymi wystawami edukacyjnymi poświęconymi środowisku mikroorganizmów.</t>
-  </si>
-  <si>
-    <t>Pokryty trawertynem biały pomnik z płaskorzeźbami – miejsce upamiętniające ofiary II wojny światowej.</t>
-  </si>
-  <si>
-    <t>Lokal o swobodnej atmosferze serwujący smażone ziemniaki i krokiety oraz domowe dodatki przygotowane z lokalnych składników.</t>
-  </si>
-  <si>
-    <t>Średniowieczny kościół, w którym odbywają się królewskie śluby i ceremonie, wystawy oraz recitale organowe.</t>
-  </si>
-  <si>
-    <t>Porośnięta bluszczem nietuzinkowa restauracja z tarasem inspirowana tropikami serwująca koktajle i dania na wspólnych talerzach.</t>
+    <t>XIX-wieczny budynek: malowidła z epoki Złotego wieku Holandii i obszerna kolekcja europejskich dzieł sztuki.The Rijksmuseum, located in Amsterdam, Netherlands, is one of the most renowned art museums in the world. It is situated at the address Museumstraat 1, 1071 XX Amsterdam, and the geographical coordinates provided (52.3599976, 4.8852188) place it in the vicinity of the Museumplein (Museum Square) in the heart of Amsterdam.
+This museum is especially famous for its collection of Dutch Golden Age paintings. The masterpieces by Rembrandt, including "The Night Watch," and works by Vermeer, Frans Hals, and Jan Steen are highlights of the collection. The total collection spans from the year 1200 to the present, including more than 1 million objects, of which around 8,000 are on display in the museum.
+The building that houses the museum is a masterpiece in itself, designed by Pierre Cuypers and completed in 1885. It is notable for its mix of Gothic and Renaissance design elements. The museum underwent a major renovation which started in 2003 and was completed in 2013, enhancing its facilities and the visitor experience.
+The Rijksmuseum also offers a substantial collection of Asian art and an extensive assortment of European art, including sculpture, decorative arts, prints, and drawings. Additionally, the museum frequently holds temporary exhibitions that complement its permanent collection.
+The museum serves an educational purpose as well, providing various programs and resources for students, scholars, and art enthusiasts. The Rijksmuseum is not only a hub for the preservation of art and cultural heritage but also plays a key role in conducting research and scholarly activities in the art domain.
+Overall, the Rijksmuseum is a pivotal cultural institution in the Netherlands and a must-visit for anyone interested in art and history.</t>
+  </si>
+  <si>
+    <t>Muzeum z największą na świecie kolekcją obrazów, rysunków i listów Van Gogha.The Van Gogh Museum (Muzeum Vincenta van Gogha) in Amsterdam is dedicated to the works of the Dutch painter Vincent van Gogh and his contemporaries. It is located at Museumplein 6, Amsterdam, with the coordinates 52.3580757 latitude and 4.8812053 longitude.
+The museum was founded in 1973 and houses the largest collection of Van Gogh's paintings and drawings in the world. The collection includes over 200 paintings, 500 drawings, and 750 written documents. Some of the most famous paintings housed here include "The Potato Eaters," "Sunflowers," "Almond Blossoms," and "The Bedroom."
+The museum also holds works by some of Van Gogh’s contemporaries, providing additional context to his life and work. These include artists like Paul Gauguin and Henri de Toulouse-Lautrec.
+The Van Gogh Museum is not only a center for art but also for research into Vincent van Gogh, offering insights into his techniques, the history of his work, and his influence on art. It attracts millions of visitors each year, making it one of the most visited museums in the Netherlands.
+The building itself consists of two parts: the original structure designed by Gerrit Rietveld which opened in 1973, and a newer wing designed by Kisho Kurokawa, added in 1999. The museum's architecture is noted for its modernist styles and use of natural light.
+The museum also offers various educational programs and has a robust digital presence, offering virtual tours and extensive online resources for those interested in the life and work of Vincent van Gogh.</t>
+  </si>
+  <si>
+    <t>Muzeum w domu z oficyną, w której Anna Frank z rodziną ukrywali się przed nazistami podczas II wojny.The Anne Frank House (Dutch: Anne Frank Huis) is a museum dedicated to Jewish wartime diarist Anne Frank, located on the Prinsengracht canal in Amsterdam, the Netherlands. The museum is housed in a 17th-century canal house known as the Secret Annex (Dutch: Achterhuis), where Anne Frank, her family, and four other Jews hid from Nazi persecution during World War II.
+Anne Frank's father, Otto Frank, was the only member of the family to survive the Holocaust. After the war, he returned to Amsterdam and found that Anne’s diary had been saved. The diary was published in 1947 under the title "The Diary of a Young Girl," and it became one of the world's most widely known books, translated into numerous languages.
+The building was saved from demolition in 1957 due to efforts by the Anne Frank Foundation, which was established to protect the property from developers who wanted to demolish the block. It opened as a museum on May 3, 1960, with the aim of preserving the hiding place, sharing the story of Anne Frank, and promoting awareness of the dangers of antisemitism, racism, and discrimination.
+Visitors to the Anne Frank House can see the hidden rooms where the families lived during the war, preserved in their authentic state. They also have the opportunity to learn about the history of the Jews in World War II, and view exhibitions that relate to themes of persecution, human rights, and more.
+The museum also features a bookstore where visitors can buy Anne Frank's diary, biographies, and related materials. Additionally, the Anne Frank House offers educational programs and resources to promote tolerance and understanding among young people.
+Due to its historical significance and the poignant story of Anne Frank, the museum attracts over a million visitors a year, making it one of Amsterdam's most popular tourist destinations. Advanced ticket purchase online is often required due to the high demand and limited capacity of the historic site.</t>
+  </si>
+  <si>
+    <t>Rozległy XIX-wieczny park miejski z placem zabaw, stawami i teatrem na świeżym powietrzu.Vondelpark is the largest and most famous park in Amsterdam, Netherlands. It is situated in the borough of Amsterdam-Zuid and stretches from the Stadhouderskade to the Amstelveenseweg. Named after the 17th-century playwright Joost van den Vondel, the park opened its gates in 1865 and originally was named "Nieuwe Park," but later changed to Vondelpark after a statue of Joost van den Vondel was erected in the park in 1867.
+Spanning approximately 120 acres, Vondelpark welcomes about 10 million visitors each year. It is a popular site for locals and tourists alike, providing a scenic landscape for jogging, picnicking, roller-skating, and other leisure activities. The park features a variety of plant species, ponds, and lawns, and is home to many birds and small mammals.
+Vondelpark also contains several cafés and restaurants, a rose garden with over 70 types of roses, and an open-air theatre which hosts a programme of music, dance, theatre, and children's activities from May through September. The park has historical elements such as the Music Pavilion (1885) and the Groot Melkhuis, which now serves as a café but was originally designed as a refreshment stand.
+The park is not only a cultural hub but also holds historical significance in Amsterdam’s city life, acting as a symbol of relaxation and recreation in the bustling city. It's managed by the city of Amsterdam and remains one of the most beloved public spaces in the Dutch capital.</t>
+  </si>
+  <si>
+    <t>Założony w XIX wieku ogród zoologiczny z szympansami, zebrami, słoniami, akwarium i planetarium.Natura Artis Magistra, commonly known as Artis, is a zoo located in the center of Amsterdam, Netherlands. It was founded in 1838, making it the oldest zoo in the Netherlands and one of the oldest zoos in Europe. The zoo is situated in the Plantage neighborhood of Amsterdam, at the coordinates you provided, 52.3660003 latitude and 4.9165321 longitude.
+Artis encompasses an area of approximately 14 hectares and is home to a wide variety of animal species, ranging from mammals and birds to reptiles and insects. The zoo focuses on providing naturalistic habitats for its animals. It includes an aquarium, a planetarium, a zoological museum, and an arboretum, enhancing the educational aspect of visitor experiences.
+The Artis zoo is also involved in various conservation efforts, participating in international breeding programs for endangered species. It is recognized for its cultural heritage as well; some of its historical buildings are protected as national monuments.
+Artis is not just a place for viewing animals but also offers educational programs, exhibitions, and other activities that align with its mission to foster respect for nature and wildlife. The zoo is a popular destination for both locals and tourists, known for its pleasant landscape, historical buildings, and commitment to the well-being of its animals.</t>
+  </si>
+  <si>
+    <t>Należące do sieci muzeów tematyczne galerie pełne naturalnej wielkości figur woskowych sławnych ludzi i postaci historycznych.Madame Tussauds Amsterdam is a renowned wax museum located in the heart of Amsterdam, the Netherlands. Situated on the central square known as Dam Square, it is part of the famous Madame Tussauds chain, which originated in London in the late 18th century and has since expanded to several cities worldwide.
+The museum features a collection of wax figures of famous celebrities, historical figures, sports stars, and icons from the arts and sciences. Each figure is crafted with meticulous attention to detail, aiming to achieve lifelike accuracy. Visitors to the museum can see figures of international celebrities as well as Dutch icons, providing an engaging experience for both local and international tourists.
+Madame Tussauds Amsterdam is not only a place to see the wax figures but also offers interactive exhibits. Guests can enjoy posing with the figures for photos, experiencing immersive settings, and engaging in activities that bring them closer to the lives of the featured personalities.
+The museum is popular among tourists and is located in an area that is easily accessible by public transport and close to other tourist attractions in Amsterdam. It offers a unique experience that blends art, history, and entertainment, making it a must-visit destination for those traveling to the city.</t>
+  </si>
+  <si>
+    <t>Pokaz świateł podczas wjazdu windą na dach 20-piętrowego budynku z restauracją, barem i huśtawką Over The Edge.A'DAM Lookout is an observation deck in Amsterdam, Netherlands, known for offering panoramic views of the city. Located at the top of the A'DAM Tower in Amsterdam Noord, right across the IJ River from the Central Station, it provides a unique vantage point from which to view Amsterdam’s historical center, its pulsating port, the unique Dutch polder landscape, and the famous canals that belong to the UNESCO world heritage list.
+Opened in 2016, A'DAM Lookout features an interactive exhibition about Amsterdam’s history and culture, providing visitors with insights into the city’s heritage. One of the highlights of the Lookout is the 'Over the Edge' swing, which claims to be Europe’s highest swing. This swing allows visitors to swing back and forth over the edge of the tower, approximately 100 meters above the ground, offering both a thrilling experience and spectacular views.
+The A'DAM Tower itself is not just home to the Lookout but also houses a mix of offices, cafés, restaurants, a hotel, and a nightclub, making it a vibrant hub of activity. The tower is an essential part of Amsterdam's modern architectural landscape and is especially notable for its revolving rooftop restaurant, which allows for dining with continually changing views.
+Visitors to A'DAM Lookout can reach it via a free ferry service from Amsterdam Central Station, which adds to the experience of exploring Amsterdam Noord, a less touristy part of the city known for its modern urban culture and arts scene.</t>
+  </si>
+  <si>
+    <t>Rezydencja królewska od 1808 r. Gdy nie pełni głównej funkcji, otwarta dla zwiedzających i miejsce wystaw.The Royal Palace of Amsterdam, known in Dutch as the Koninklijk Paleis Amsterdam or Paleis op de Dam, is one of three palaces in the Netherlands which are at the disposal of the monarch by Act of Parliament. It is situated on the west side of Dam Square in the center of Amsterdam, opposite the War Memorial and next to the Nieuwe Kerk.
+The palace was originally built as the city hall for the magistrates of Amsterdam. Construction began in 1648 and was completed in 1665. The architect responsible for the project was Jacob van Campen. The building is constructed in the classicist style, using sandstone to create a resemblance to classical facades with its strict symmetry. Its design reflects the ideals of the then-dutch republic - featuring a large hall and marbled floors, depicting maps of the world and the heavens, which underline the power and influence of Amsterdam during the 17th century, also known as the Dutch Golden Age.
+In 1808, the building was converted into a royal palace by Louis Bonaparte, brother of Napoleon Bonaparte, who was made King of Holland. After the fall of Napoleon, it returned briefly to city hall use, but in 1813, it became a royal palace once again, this time for the House of Orange-Nassau, which was reinstated after the defeat of the French.
+Inside the palace, there is an impressive collection of Empire-style furniture, chandeliers, and other decorative arts from the 19th century. The interior also features significant artworks, including sculptures and paintings.
+Today, the palace is used primarily for royal events such as official receptions, state visits, and other official functions. It is also open to the public for tours, allowing visitors to explore its grand rooms and rich history. However, access may be restricted during royal events.</t>
+  </si>
+  <si>
+    <t>Stylowa, rozległa hala ze stoiskami serwującymi potrawy z całego świata – od burgerów i hot dogów po pierogi i tacos.Foodhallen is a popular food court located in Amsterdam, Netherlands. It's situated in the vibrant Oud-West part of the city, specifically within the De Hallen Amsterdam complex, a renovated tram depot that also houses a cinema, boutique shops, and other cultural venues.
+Foodhallen is known for its diverse selection of food offerings, featuring various food vendors and stalls that provide a wide range of culinary options. It's a place where visitors can enjoy dishes from around the world, including local Dutch specialties, Asian cuisines, gourmet street food, and much more. The atmosphere is lively and bustling, making it a popular spot for both locals and tourists.
+The concept is similar to other food market halls found in cities around the world, focusing on high-quality, diverse, and artisanal food options. In addition to food, Foodhallen also features bars where visitors can enjoy craft beers, cocktails, and other beverages.
+Its location within the De Hallen complex adds to its appeal, as visitors can combine a meal with other activities like shopping or watching a movie. The area has a modern, industrial feel, preserving elements of the old tram depot, which adds a unique architectural element to the dining experience.
+Foodhallen is considered a must-visit for foodies and anyone looking to enjoy a meal in a lively and eclectic environment while in Amsterdam.</t>
+  </si>
+  <si>
+    <t>Odrestaurowany XVII-wieczny dom zdobiony akwafortami Rembrandta, który żył i tworzył tu przez 20 lat.The Rembrandt House Museum, known in Dutch as Museum Het Rembrandthuis, is located in Amsterdam, Netherlands. It is situated in the original house where Rembrandt van Rijn, one of the most famous and influential Dutch artists in history, lived and worked between 1639 and 1658.
+The museum is not only significant for its connection to Rembrandt but also because it houses an extensive collection of his artworks, including etchings, drawings, and personal belongings. The museum's collection extends to almost all of Rembrandt’s prints, along with works by his predecessors, contemporaries, and pupils, providing a comprehensive insight into his life, technique, and the 17th-century art scene.
+The building itself was reconstructed to reflect how it would have looked during Rembrandt’s residence, based on historical documents and research. Visitors to the museum can explore Rembrandt’s studio, his living quarters, and an exhibit explaining his artistic techniques and the materials he used. The museum also hosts demonstrations of etching and paint preparation techniques to help illustrate how Rembrandt created his works.
+In addition to showcasing Rembrandt's own works, the museum also organizes temporary exhibitions related to the period, the artist, his pupils, and his artistic influence, thus offering a deeper and broader context on Rembrandt's impact on the art world.
+The Rembrandt House Museum serves not only as a tribute to Rembrandt’s legacy but also as an educational center, providing workshops, lectures, and guided tours to engage visitors with both the historical and practical aspects of art from Rembrandt’s time.</t>
+  </si>
+  <si>
+    <t>Słynąca z szarlotki kawiarnia z barem serwująca sycące europejskie dania, lunche i kolacje.Winkel 43 is a well-known café located in the picturesque Jordaan district of Amsterdam. Famous primarily for its apple pie, which is highly recommended by both locals and tourists, the café offers a cozy and welcoming atmosphere that makes it a popular spot not only for its desserts but also for its savory menu items.
+The café is situated at Noordermarkt, a square that hosts a popular farmer's market on Saturdays and a vintage market on Mondays, making Winkel 43 a perfect spot for a break while exploring the markets.
+Winkel 43 is not just about apple pie; it serves a variety of dishes, including breakfast and lunch options, and offers a selection of beverages with a particularly good coffee. The service is typically Dutch, friendly and straightforward, enhancing the overall casual and comfortable dining experience.
+The interior is rustic with a charming ambiance, and it usually garners a bustling crowd. There’s also outdoor seating available, which is perfect for people-watching at the Noordermarkt or enjoying the open air during warmer months.
+In summary, Winkel 43 is celebrated for its exceptional apple pie, strategic location at Noordermarkt, and its vibrant, cozy café culture. This makes it a must-visit for anyone traveling to Amsterdam.</t>
+  </si>
+  <si>
+    <t>Wirtualne podróże morskie w interaktywnym muzeum w dawnym magazynie. Można tu też zobaczyć replikę statku towarowego z XVIII wieku.The Scheepvaartmuseum, or the National Maritime Museum, is located in Amsterdam, Netherlands. The coordinates you provided, 52.3715579, 4.9143762, precisely pinpoint its location on the map.
+The museum is housed in the former naval storehouse 's Lands Zeemagazijn, which was constructed in 1656 and designed by the Dutch architect Daniel Stalpaert. This historic building is a significant example of Dutch Golden Age architecture and was originally built to store naval equipment and provisions.
+The Scheepvaartmuseum is dedicated to maritime history and contains a vast collection of artifacts related to shipping and sailing. The collections include paintings, scale models, weapons, and world maps. The museum helps to illustrate how the Dutch maritime history has shaped the country’s cultural and economic landscape.
+One of the museum’s highlights is a replica of the Amsterdam, an 18th-century ship which sailed between the Netherlands and the East Indies. The replica is moored at a jetty outside the museum and adds an interactive element to the museum experience.
+The museum underwent a significant renovation and reopened in 2011, featuring a new glass roof designed by Laurent Ney, which is shaped like a compass on the museum’s courtyard.
+The Scheepvaartmuseum not only serves as a cultural and educational centre but also hosts various public and private events, making it a dynamic part of Amsterdam’s cultural scene. It is accessible by public transportation and popular among tourists and locals alike, who are interested in learning about the Netherlands’ rich maritime history.</t>
+  </si>
+  <si>
+    <t>XIV-wieczny, obecnie protestancki kościół – miejsce wydarzeń religijnych i kulturalnych, w tym koncertów.Oude Kerk, meaning "Old Church," is not primarily a museum of art but rather Amsterdam's oldest building and oldest parish church, originally consecrated in 1306. It is located in the De Wallen area, which is part of the Red Light District. The church was originally built as a Catholic place of worship but became a Calvinist church after the Reformation in 1578.
+Architecturally, Oude Kerk is notable for its large wooden roof, which is one of the oldest in Europe of this scale, and its expansive floor entirely covered with gravestones. The floor consists of approximately 2,500 gravestones, as the church was built on top of a cemetery; among those buried there are many notable Amsterdam citizens including the famous Dutch naval hero Admiral Jacob van Heemskerck.
+Over the years, Oude Kerk has been a venue for not only religious services but also cultural events and exhibitions, often including contemporary art installations. Artists are invited to respond to the rich history and unique architecture of the space, creating a dynamic interaction between the heritage site and modern art practices. This aspect makes it a significant cultural venue in Amsterdam, hosting various exhibitions and performances that blend the church's historical elements with contemporary art.
+The church also features a number of historical organs. The main organ, known as the Vater-Müller organ, is one of the most important Baroque organs in Europe, celebrated for its ornate case and exceptional sound.
+Oude Kerk is thus a landmark of considerable historical, architectural, and cultural importance in Amsterdam, serving a dual role as a place of worship and a venue for contemporary art and cultural activities.</t>
+  </si>
+  <si>
+    <t>Historia słynnej marki browarniczej przedstawiona w formie interaktywnej w byłym browarze oraz degustacja.The Heineken Experience, located in Amsterdam, Netherlands, is a popular tourist attraction housed in the original Heineken brewery. The brewery itself was established in 1867 by Gerard Adriaan Heineken and was fully operational until 1988 when the brewing operations were moved to a more modern facility outside the city due to the need for expansion and modernization.
+The Heineken Experience offers visitors an interactive journey through the history of the Heineken company. This includes exhibits on Heineken's heritage, brewing process, innovations, sponsorships, and what it takes to craft a global brand. The tour typically involves an exploration of the ingredients used in beer making, an introduction to Heineken's brewing process known as "A-Yeast", and insights into the company's branding strategies.
+One of the highlights for many visitors is the tasting room, where they can sample Heineken beer directly from the brewery. The experience also includes a 'Brew U' ride which simulates the brewing process from the perspective of a beer bottle, and other interactive experiences like creating personalized bottles or practicing pouring the perfect draft.
+The venue is not only significant as a historical site but also functions as an event space and a cultural hotspot. The Heineken Experience is located in the De Pijp neighborhood, making it easily accessible for tourists and adding to the vibrant cultural scene of the area.
+For those interested in beer history, brewing technology, or brand marketing, the Heineken Experience provides an educational and engaging perspective on one of the world's most famous beers.</t>
+  </si>
+  <si>
+    <t>Olbrzymie zbiory niderlandzkich i zagranicznych filmów oraz plakatów w nowoczesnym centrum kultury nad wodą.The Eye Film Museum, also known simply as EYE (formerly the Nederlands Filmmuseum), is located in Amsterdam, the Netherlands. Situated on the north bank of the IJ river in the Overhoeks neighborhood, the museum is directly opposite the Central Station, and access is mainly facilitated via a brief ferry ride.
+The museum is dedicated to the preservation and presentation of both Dutch and foreign films screened in the Netherlands. The EYE Film Museum's activities include the conservation and restoration of films, as well as the collection, preservation, and presentation of film-related materials, ranging from classic to contemporary cinema. Its archival and educational efforts make it a critical institution for the study of film in the Netherlands.
+The building that houses the EYE Film Museum is notable for its striking architectural design. Designed by the Austrian firm Delugan Meissl Associated Architects, it was opened in 2012. The building's futuristic white façade makes it a prominent landmark along the Amsterdam waterfront. Its design features organic and dynamic forms intended to reflect cinematic movement, and the interior provides expansive views of the surrounding waterfront through its large windows.
+The museum's facilities include several exhibition spaces, a cinema that screens a variety of films ranging from historical classics to contemporary works, and an interactive basement dedicated to various aspects of film, such as the process of filmmaking and the experience of watching movies. EYE also has a café and a restaurant with views of the river IJ.
+Additionally, EYE conducts regular film-related events, including lectures, screenings, and discussions, making it a dynamic hub for film enthusiasts and professionals alike. The museum also manages an extensive film library that researchers and film lovers can access.
+EYE Film Museum is also known for its significant contributions to international film festivals and collaborations with other cultural organizations, highlighting its role in both national and international cultural landscapes.</t>
+  </si>
+  <si>
+    <t>Symulator lotu 5D z efektami wodnymi i wietrznymi zabierający uczestników na wycieczkę po słynnych miejscach w Holandii."This is Holland" is a popular tourist attraction located in Amsterdam, the Netherlands. It provides a unique flight experience through a 5D flight simulation that allows visitors to experience a bird’s eye view of various landscapes, landmarks, and cities across the Netherlands. The attraction uses advanced technology such as a huge domed screen and special effects including wind, mist, and scents to enhance the immersive experience, making you feel as though you are truly flying over the Dutch countryside and cities.
+The experience not only offers breathtaking aerial views but also educates visitors about the history and cultural significance of the sights they are "flying" over. The whole show includes a pre-show which introduces the geography and important facts about the Netherlands, followed by the main flight experience.
+Located near the central part of Amsterdam, not far from other significant attractions such as the A’DAM Lookout and next to the EYE Film Museum, "This is Holland" is easily accessible for tourists. The attraction is especially popular among families and those interested in experiencing a unique and panoramic perspective of the entire country without leaving Amsterdam.</t>
+  </si>
+  <si>
+    <t>Działająca w dawnym magazynie nad kanałem dwupoziomowa restauracja serwująca obfite naleśniki na słodko i wytrawnie.The Pancake Bakery is a popular restaurant located at Prinsengracht 191, in the heart of Amsterdam, Netherlands. This eatery is best known for its extensive menu of pancakes, offering a variety of both sweet and savory options that cater to diverse tastes and dietary preferences.
+The restaurant's setting in a historic 17th-century building adds to its charm, providing a cozy ambiance that enhances the dining experience. The Pancake Bakery takes pride in its approach to traditional Dutch pancakes but also provides an array of international flavors, making it an appealing spot for tourists and locals alike.
+It is conveniently situated near several major tourist attractions in Amsterdam, including the Anne Frank House and the Amsterdam Canal Ring, making it an ideal stop for visitors exploring the city.
+The Pancake Bakery is regarded for its quality ingredients and generous portions, ensuring value for money. It is a family-friendly restaurant and also provides options for those with specific dietary needs such as gluten-free pancakes.
+Due to its popularity, especially during peak tourist seasons, it might be wise to consider arriving early or booking ahead to avoid long waits.</t>
+  </si>
+  <si>
+    <t>Położony przy wiatraku nowoczesny browar produkujący organiczne piwa jasne i ciemne. Organizowane jest krótkie zwiedzanie obiektu.Brouwerij 't IJ is a brewery founded in 1985 located in Amsterdam, Netherlands. It is known for its unique location in a former bathhouse near the city center, adjacent to a windmill named De Gooyer, which is one of Amsterdam’s most iconic landmarks. This setting makes the brewery a popular destination for both locals and tourists.
+The brewery was started by Kaspar Peterson, a former musician who was inspired by Belgian-style beers. Brouwerij 't IJ quickly became renowned for crafting a range of organic, high-quality beers, and it was one of the pioneers in the craft beer movement within the Netherlands. Their beer selection typically includes a variety of styles, with a strong emphasis on Belgian influences, such as blondes, dubbels, and tripels.
+The name "Brouwerij 't IJ" references both the IJ, a body of water near the brewery, and the Dutch word for egg ("ei"), playing on the similarity in pronunciation, possibly as a nod to the brewery’s distinctive oval logo.
+The brewery also features a taproom where visitors can taste various beers produced on-site, often accompanied by local snacks. Brouwerij 't IJ has expanded its production over the years and now also operates a second location, allowing them to meet the growing demand for their beers.
+In addition to producing a wide range of beers, Brouwerij 't IJ is committed to sustainability, focusing on organic brewing processes and locally sourced ingredients wherever possible. Their unique approach to brewing, combined with their iconic location, continues to make them a notable name in Amsterdam’s beer culture.</t>
+  </si>
+  <si>
+    <t>Unikalne, nowoczesne muzeum z interaktywnymi wystawami edukacyjnymi poświęconymi środowisku mikroorganizmów.Micropia is a unique museum located in Amsterdam, dedicated to the microscopic organisms that make up much of life on Earth. It is part of the Artis complex, which also includes the Amsterdam Zoo. Micropia stands out as the world's first museum to focus exclusively on microbes, aiming to educate the public about the vital role these microorganisms play in our lives and the environment.
+The museum is designed to be highly interactive and educational, featuring state-of-the-art exhibits that allow visitors to explore the world of bacteria, viruses, fungi, and other microorganisms. Through interactive displays, real-time microscopic imaging, and educational games, Micropia provides insights into how these tiny creatures influence our health, the food we eat, and the ecosystem.
+Visitors can witness live microbes through specially designed microscopes, learn about the relationships between different microorganisms, and see how microbes contribute to biotechnological innovations. The museum's goal is to demystify the microscopic world and highlight its importance in a way that is accessible and engaging for all ages.
+Micropia has received several awards for its innovative approach to science education and its contributions to public understanding of microbiology. It serves not only as a tourist attraction but also as a center for microbiological studies and public education, promoting a better understanding of the microbial world around us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Moeders" (Dutch for "mothers") is a well-known restaurant located in Amsterdam, the Netherlands. It is celebrated for its traditional Dutch cuisine, offering a cozy and homey atmosphere that pays homage to mothers and home-cooked meals.
+The interior of Moeders is quaint and charming, known for its walls adorned with countless pictures of mothers, contributed by patrons over the years. This unique decor adds a personal touch and creates a welcoming environment, reflective of the restaurant's concept.
+The menu at Moeders features a variety of classic Dutch dishes. Typical offerings might include stamppot (a traditional Dutch dish made with mashed potatoes mixed with vegetables), suddervlees (a slow-cooked beef stew), and desserts like Dutch apple pie. The restaurant is also known for its generous portions and reasonable prices, making it a popular choice among both locals and tourists.
+The location of Moeders in Amsterdam provides easy access for visitors exploring the city. Its address and geographical coordinates put it within reach of several other attractions in Amsterdam, making it a convenient dining option during a day of sightseeing.
+Moeders has been praised for its friendly service and the quality of its food, maintaining a strong reputation as a place to experience authentic Dutch cooking in a setting that feels like home.</t>
+  </si>
+  <si>
+    <t>Pokryty trawertynem biały pomnik z płaskorzeźbami – miejsce upamiętniające ofiary II wojny światowej.The National Monument in Amsterdam, located at Dam Square, is an important and historic site in the Netherlands. It was erected in 1956 to commemorate the victims of World War II and has since been a site for national remembrance and a symbol of freedom and peace.
+The monument features a large white stone pillar that stands approximately 22 meters high. It is often seen as a prominent feature in the landscape of Dam Square, one of the city's busiest and most historically significant public spaces. The pillar is surrounded by a series of low reliefs and sculptures that represent peace, resistance, and liberation. Additionally, a series of urns are contained within the monument, which hold soil collected from World War II battlefields and cemeteries across the Netherlands.
+Each year on May 4th, the Netherlands observes a National Remembrance Day, and the main ceremonies are held at the National Monument in Amsterdam. During this event, two minutes of silence are observed, and members of the Dutch royal family along with other dignitaries lay wreaths at the monument to honor the dead and reflect on the importance of peace.
+The National Monument not only serves as a focal point for remembrance but also acts as a popular gathering place for various public events and demonstrations, underscoring its role as a living symbol of the nation's history and values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vegan Junk Food Bar is a popular dining establishment in Amsterdam that specializes in vegan cuisine, particularly offering a variety of plant-based junk food options. This concept is designed to cater to both vegans and non-vegans looking for delicious, cruelty-free alternatives to traditional junk food favorites. The menu often includes items such as vegan burgers, fries, nuggets, and other snackable foods, often made from ingredients like plant-based meats and dairy-free cheeses.
+The Vegan Junk Food Bar has made a name for itself not just for its food, but also for its vibrant and Instagram-worthy décor, contributing to its appeal among a younger, social media-savvy demographic. It seeks to challenge the conventional view of vegan food being limited to health-centric dishes by offering indulgent yet still plant-based options.
+The establishment likely provides a lively and casual dining atmosphere, and it may have multiple locations in Amsterdam, reflecting its popularity and the growing trend of veganism in the city and beyond. The exact coordinates you provided (52.36638079999999, 4.891450499999999) would pinpoint its specific location in Amsterdam, which is known for its diverse and innovative culinary scene.
+Please note that for up-to-date details on menu options, specific addresses of different branches, and operating hours, it would be best to check the latest information directly from the establishment's official website or trusted dining guides.</t>
+  </si>
+  <si>
+    <t>Lokal o swobodnej atmosferze serwujący smażone ziemniaki i krokiety oraz domowe dodatki przygotowane z lokalnych składników.Fabel Friet is a fast food restaurant located in De 9 Straatjes, at Runstraat 1, 1016 GJ Amsterdam, Netherlands. They specialize in fried potatoes &amp; croquettes with locally sourced &amp; homemade toppings. Their price range is between €1–10. They are open from 11 AM to 9 PM on most days and from 12 PM to 8 PM on Mondays and Tuesdays. Fabel Friet has been voted as the best fries in Amsterdam, known for their crispy, golden Dutch fries. They have received high ratings from customers and their menu can be found on their website, fabelfriet.nl. Some of their popular dishes include a potato croquette with truffle mayonnaise and parmesan, and fries with parmesan cheese and truffle mayo, which is 100% gluten-free. Their contact number is +31 20 303 1422.</t>
+  </si>
+  <si>
+    <t>Średniowieczny kościół, w którym odbywają się królewskie śluby i ceremonie, wystawy oraz recitale organowe.The Nieuwe Kerk (New Church) in Amsterdam, located at Dam Square near the Royal Palace, is one of the city's most prominent historical and cultural landmarks. Although it is referred to as the "New" Church, it is quite historic, having been consecrated in 1409. The church is no longer used for regular church services but is now primarily used as an exhibition space and for organ concerts.
+Nieuwe Kerk has a rich history as it has been the site for numerous significant events, especially for the Dutch royal family. It is traditionally the church used for royal investiture ceremonies and weddings, most notably the wedding of King Willem-Alexander and Queen Maxima in 2002.
+The architecture of Nieuwe Kerk is predominantly Gothic, and it features a large and ornate organ that is one of the main attractions inside the building. Over the years, the church has undergone various restorations due to damage, including a significant fire in 1645.
+Today, Nieuwe Kerk hosts a variety of exhibitions that often focus on art, photography, and historical themes, making it a popular tourist attraction. It also serves as a venue for the Dutch national Remembrance Day ceremony held annually on May 4. The church is not just a site of historical significance but also a vibrant part of Amsterdam’s cultural scene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Amsterdam Cheese Museum is not just a museum but also a shop located near the Anne Frank House, focusing on the history and production of cheese in the Netherlands. It offers a variety of Dutch cheeses for tasting and purchase, showcasing traditional methods of cheese making as well as modern innovations in the dairy industry.
+The museum provides educational displays about the different regions in the Netherlands known for their specific types of cheese, such as Gouda, Edam, and Maasdam. Visitors can learn about the historical development of cheese making in the country, the importance of dairy farming, and the processes involved in creating various cheeses.
+Additionally, the Amsterdam Cheese Museum features interactive exhibits where visitors can experience the life of a Dutch farmer, understand the cheese-making process, and learn about the significance of cheese in Dutch culture and cuisine.
+The location of the museum, close to other major tourist attractions in Amsterdam, makes it accessible and a popular stop for those interested in Dutch culinary traditions. The museum is not only informative but also offers a sensory experience with its extensive range of cheese samples available for tasting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Old Bell is a pub located in the heart of Amsterdam. It is well regarded for its great service, good beers, and beautiful atmosphere. The pub is rated 4 out of 5 on Tripadvisor and is ranked #382 out of 5772 restaurants in Amsterdam. Known for its old and unique charm, it can get busy but is loved by many. It's easily accessible, being just steps away from the tram.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FEBO Amsterdam - Oudezijds Voorburgwal is a branch of the well-known Dutch fast food chain FEBO, located in Amsterdam, Netherlands. FEBO is famous for its unique vending machine-style service where hot snacks such as croquettes, burgers, and fries are offered in a wall of automated compartments. Customers can easily select and retrieve their choice of snack from these heated compartments.
+The FEBO on Oudezijds Voorburgwal is conveniently situated in a bustling area of Amsterdam, making it a popular spot for both locals and tourists seeking quick and tasty food options. The location is also notable for its proximity to various tourist attractions, shops, and nightlife, contributing to its foot traffic and popularity.
+FEBO's offerings are particularly known for their krokets (croquettes), which come in various flavors like beef and chicken. Other typical Dutch snacks such as kaassoufflé (cheese soufflé) and frikandellen (deep-fried sausage) are also available. The establishment typically ensures food is prepared using high-quality ingredients and maintains consistent taste across its various locations.
+The chain, which originated in Amsterdam in the 1940s, has established a reputation for convenience, efficiency, and distinctive Dutch snack culture. The FEBO in Oudezijds Voorburgwal adheres to the brand’s standards, providing a quick service and clean environment for its customers.
+Apart from its snacks, FEBO also offers a range of soft drinks and sauces to complement the meals. The atmosphere of the place is generally casual, reflecting its fast-food nature and self-service model.</t>
+  </si>
+  <si>
+    <t>Porośnięta bluszczem nietuzinkowa restauracja z tarasem inspirowana tropikami serwująca koktajle i dania na wspólnych talerzach.As of the last update, "De Tulp" is a restaurant and bar located in the vibrant neighborhood of De Pijp in Amsterdam, famously known for its relaxing ambiance and tropical-themed decor. Situated near the popular Albert Cuyp Market, De Tulp offers a lively dining and drinking experience with an indoor space festooned with lush plants and colorful furnishings that evoke a jungle-like feel.
+The venue is often recognized for its spacious outdoor seating area, which becomes a sought-after spot during warmer months, allowing patrons to enjoy their meals and drinks in an open, airy environment. The menu typically features a mix of international cuisine with a focus on shareable plates, ideal for social gatherings. The bar offers a variety of cocktails, beers, and other beverages, making it a popular destination not only for dining but also for nightlife.
+Visitors to De Tulp appreciate its fun, casual atmosphere, which makes it suitable for group outings and casual meetups. The restaurant's location in De Pijp also makes it a convenient spot for tourists exploring the area’s attractions, including the nearby market and the Heineken Experience. 
+Please check current sources for the most recent information regarding De Tulp, as restaurant offerings and operations can change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOCALS All Day Brunch is a trendy restaurant in Amsterdam, located at Eerste Jacob van Campenstraat 27-H, 1072 BC. It offers coffee, smoothies, all-day brunch, and classic Italian fare for dinner. The restaurant is open from 8 AM every day, closing at 4 PM on Wednesday, Thursday, Monday, and Tuesday, and at 6 PM on Friday, Saturday, and Sunday. The phone number is +31 6 24910728. You can check the menu on their website, localscoffee.nl. The restaurant is known for its variety of delicious breakfast and brunch options, as well as lunch dishes. It is conveniently located near the Museum Quarter. While reviews are mostly positive, some customers have mentioned slow service and close tables. The restaurant is currently rated 4.4 stars out of 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loulou Pizzabar is a casual-style restaurant located at Weesperzijde 42A, 1091 EE Amsterdam, Netherlands. It serves Italian-style small plates, pizzas, drinks, and desserts. It offers a variety of unusual pizzas and is popularly known as the best and healthiest pizza in town. Some dishes on the menu include the Margherita pizza, Salame Ventricina Picante, a big mixed salad, and a pesto focaccia. They also offer gluten-free options across their entire menu. The restaurant is open from 5 PM to 10:30 PM, and the average cost for a meal ranges from €20–30. They also offer takeout options. It has a high rating of 4.5 out of 5 on Tripadvisor and is ranked 702 out of 5772 restaurants in Amsterdam. The restaurant is inspired by an American-Italian female. The phone number for the restaurant is +31 20 608 0077.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corner Bakery is a well-regarded restaurant located on Johannes Vermeerstraat in Amsterdam. It is a lunchroom that offers a variety of food items, including sandwiches, cakes, pancakes, salads, and milkshakes, and is a popular spot for breakfast or lunch. It has opened several stores due to its success. The general operating hours are from 8:00 AM to 5:00 PM, although specific locations may vary. The restaurant has received good reviews and is rated 4 out of 5 on Tripadvisor. On special occasions like Ramadan, they extend their operating hours. The restaurant is known for its all-day breakfast and brunch, including over-the-top milkshakes, and it has a trendy atmosphere with quality coffee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Takumi Ramen Kitchen is a ramen restaurant located at Ferdinand Bolstraat 36 H, 1072 LK Amsterdam, Netherlands. The restaurant was started by Mr. Saeki and Mr. Okada in 2007 with a simple ramen shop in Düsseldorf, Germany. They have since expanded throughout Europe. The restaurant's motto is 'No ramen, no life'. Takumi Ramen Kitchen serves vegan dishes and is known for its excellent service and friendly staff. It has a high rating of 4.5 out of 5 on Tripadvisor and is ranked #427 out of 3849 restaurants in Amsterdam. The restaurant's contact number is +31 20 237 1750 and their menu can be found on their website, takumiramennoodles.com. Reviewers have praised the restaurant's excellent food and service, particularly their chicken ramen, but have noted that it can be pricey and there can be a long wait time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Pancake Club is a restaurant located at Leidsebosje 5, 1054 LJ Amsterdam, Netherlands. It serves Dutch, European, and International cuisines, with vegetarian and vegan options available. The restaurant is known for its pancakes and poffertjes (little fluffy pancakes), and it has a terrace next to a canal. It operates from 10 AM to 5:30 PM from Monday to Sunday, and people typically spend around 45 minutes here. The Pancake Club doesn't take reservations and its contact number is +31 6 13600843. The price range varies from $7 to $27 or HK$59 to HK$210.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quartier Putain is a popular cafe located in the heart of Amsterdam's Red Light District, known for its high-quality coffee and its casual, welcoming atmosphere. It is not specifically a breakfast restaurant, but it does serve coffee and pastries that are popular among locals and tourists alike for breakfast.
+The cafe is situated in an area known for its vibrant nightlife and diverse cultural attractions, making it a convenient spot for visitors exploring the city. The name "Quartier Putain" plays on its location in the Red Light District, with "putain" being a French word that can mean "whore" but is also used informally as an expletive similar to "damn."
+The exact coordinates provided, (52.3746117, 4.898705), locate it precisely in Amsterdam, where guests can enjoy a relaxed environment with a view of the bustling urban life of the district.
+Overall, Quartier Putain is known for its quality coffee, relaxed vibe, and prime location, making it a notable spot for coffee enthusiasts and tourists in Amsterdam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monte Pelmo is an ice cream shop (lodziarnia) located in Amsterdam, known for serving a variety of homemade ice creams. It has established itself as a popular spot among locals and tourists alike for its diverse and creative flavors. The shop's offerings range from traditional choices to unique combinations, appealing to a broad spectrum of taste preferences. Situated in the heart of Amsterdam, its location adds to its charm and accessibility for those exploring the city. The specific coordinates provided (52.3775272, 4.881707899999999) pinpoint its exact location, making it easy for visitors to find. Monte Pelmo is celebrated for its quality products and the friendly atmosphere it offers to its patrons.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The National Holocaust Names Monument in Amsterdam is a significant site dedicated to the memory of the victims of the Holocaust. It is located in the Weesperstraat area of the city, close to the Jewish Cultural Quarter. This monument holds a unique and poignant place in the Netherlands' remembrance of the more than 102,000 Jews and 220 Roma and Sinti who were deported and murdered in Nazi concentration and extermination camps during World War II.
+The monument was designed by Polish-Jewish architect Daniel Libeskind, who is also known for his work on the Jewish Museum in Berlin and the master plan for the reconstruction of the World Trade Center site in New York. His design for the Amsterdam Holocaust Monument is symbolically rich and consists of walls formed by bricks, each bearing the name of a Holocaust victim. The structure spells out the Hebrew word "לזכר" (L'Zikaron), which means "In Memory of."
+The walls are arranged in a way that visitors can walk through the monument, reflecting on the enormity of the loss represented by each individual name. It serves not only as a place of remembrance but also as a poignant reminder of the atrocities of the Holocaust, aiming to educate future generations.
+The initiative for the monument came from the Dutch Auschwitz Committee, and its establishment was supported through donations from various organizations, individuals, and the Dutch government. The National Holocaust Names Monument was officially opened to the public in September 2021, providing a dedicated space in the Netherlands for reflection and remembrance of Holocaust victims.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Café Binnen Buiten is a bar located in Amsterdam, known for its cozy and inviting atmosphere, which attracts both locals and tourists. Its geographical coordinates are 52.3547976 latitude and 4.8872165 longitude, situating it in a central part of the city.
+The bar is popular for its terrace, which is particularly enjoyable during the warmer months. Guests can sit outside, enjoying drinks and light meals in a relaxed outdoor setting. The venue is also known for its friendly service and a good selection of drinks.
+While I don't have specific details on their menu or specific events they may host, places like this often offer a range of alcoholic and non-alcoholic beverages, and sometimes snacks or small dishes typical of casual bar settings in Amsterdam. It is advisable to check their social media pages or website for the most current information on offerings and opening hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calf &amp; Bloom is a restaurant located in Amsterdam, known for its contemporary dining experience. Situated ideally in the city center, it offers a convenient spot for both locals and tourists. The restaurant's ambiance is typically described as modern and inviting, making it a popular choice for casual meals, business lunches, or coffee breaks.
+Calf &amp; Bloom is appreciated for its menu that features a mix of international dishes, often with a focus on fresh and seasonal ingredients. It may also be known for its good selection of wines and cocktails, which complements their food offerings.
+Additionally, given its central location, Calf &amp; Bloom is likely close to popular Amsterdam attractions and shopping areas, adding to its appeal for those who are out exploring the city and want a comfortable place to eat. The restaurant might also offer views of a bustling area or a scenic spot, enhancing the dining experience.
+For specific details such as menu offerings, exact prices, and operational hours, visiting the restaurant’s official website or contacting them directly would provide the most accurate and up-to-date information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coffee District Willemsparkweg is a coffee shop located at Willemsparkweg 8h, 1071 HD Amsterdam, Netherlands. Operational hours are from 7.30 AM to 4 PM on weekdays and 8.30 AM to 5 PM on weekends. The café is known for its bright and friendly environment, superb customer service, and a variety of delicious coffees and pastries. It has a unique bohemian/indie vibe with a comfortable seating arrangement. They serve Mediterranean cuisine with a menu that includes breakfast, lunch, dinner, brunch, and drinks. The price range is affordable, between $2 and $10. The shop also offers to-go services. The company began its journey in 2017 as a coffee bar in a fashion store in Amsterdam Zuid and expanded when the fashion store closed in 2019.</t>
   </si>
   <si>
     <t>The Rijksmuseum, located in Amsterdam, Netherlands, is one of the most renowned art museums in the world. It is situated at the address Museumstraat 1, 1071 XX Amsterdam, and the geographical coordinates provided (52.3599976, 4.8852188) place it in the vicinity of the Museumplein (Museum Square) in the heart of Amsterdam.
@@ -721,6 +875,9 @@
 Please note that for up-to-date details on menu options, specific addresses of different branches, and operating hours, it would be best to check the latest information directly from the establishment's official website or trusted dining guides.</t>
   </si>
   <si>
+    <t>Fabel Friet is a fast food restaurant located in De 9 Straatjes, at Runstraat 1, 1016 GJ Amsterdam, Netherlands. They specialize in fried potatoes &amp; croquettes with locally sourced &amp; homemade toppings. Their price range is between €1–10. They are open from 11 AM to 9 PM on most days and from 12 PM to 8 PM on Mondays and Tuesdays. Fabel Friet has been voted as the best fries in Amsterdam, known for their crispy, golden Dutch fries. They have received high ratings from customers and their menu can be found on their website, fabelfriet.nl. Some of their popular dishes include a potato croquette with truffle mayonnaise and parmesan, and fries with parmesan cheese and truffle mayo, which is 100% gluten-free. Their contact number is +31 20 303 1422.</t>
+  </si>
+  <si>
     <t>The Nieuwe Kerk (New Church) in Amsterdam, located at Dam Square near the Royal Palace, is one of the city's most prominent historical and cultural landmarks. Although it is referred to as the "New" Church, it is quite historic, having been consecrated in 1409. The church is no longer used for regular church services but is now primarily used as an exhibition space and for organ concerts.
 Nieuwe Kerk has a rich history as it has been the site for numerous significant events, especially for the Dutch royal family. It is traditionally the church used for royal investiture ceremonies and weddings, most notably the wedding of King Willem-Alexander and Queen Maxima in 2002.
 The architecture of Nieuwe Kerk is predominantly Gothic, and it features a large and ornate organ that is one of the main attractions inside the building. Over the years, the church has undergone various restorations due to damage, including a significant fire in 1645.
@@ -731,6 +888,9 @@
 The museum provides educational displays about the different regions in the Netherlands known for their specific types of cheese, such as Gouda, Edam, and Maasdam. Visitors can learn about the historical development of cheese making in the country, the importance of dairy farming, and the processes involved in creating various cheeses.
 Additionally, the Amsterdam Cheese Museum features interactive exhibits where visitors can experience the life of a Dutch farmer, understand the cheese-making process, and learn about the significance of cheese in Dutch culture and cuisine.
 The location of the museum, close to other major tourist attractions in Amsterdam, makes it accessible and a popular stop for those interested in Dutch culinary traditions. The museum is not only informative but also offers a sensory experience with its extensive range of cheese samples available for tasting.</t>
+  </si>
+  <si>
+    <t>The Old Bell is a pub located in the heart of Amsterdam. It is well regarded for its great service, good beers, and beautiful atmosphere. The pub is rated 4 out of 5 on Tripadvisor and is ranked #382 out of 5772 restaurants in Amsterdam. Known for its old and unique charm, it can get busy but is loved by many. It's easily accessible, being just steps away from the tram.</t>
   </si>
   <si>
     <t>FEBO Amsterdam - Oudezijds Voorburgwal is a branch of the well-known Dutch fast food chain FEBO, located in Amsterdam, Netherlands. FEBO is famous for its unique vending machine-style service where hot snacks such as croquettes, burgers, and fries are offered in a wall of automated compartments. Customers can easily select and retrieve their choice of snack from these heated compartments.
@@ -746,6 +906,21 @@
 Please check current sources for the most recent information regarding De Tulp, as restaurant offerings and operations can change.</t>
   </si>
   <si>
+    <t>LOCALS All Day Brunch is a trendy restaurant in Amsterdam, located at Eerste Jacob van Campenstraat 27-H, 1072 BC. It offers coffee, smoothies, all-day brunch, and classic Italian fare for dinner. The restaurant is open from 8 AM every day, closing at 4 PM on Wednesday, Thursday, Monday, and Tuesday, and at 6 PM on Friday, Saturday, and Sunday. The phone number is +31 6 24910728. You can check the menu on their website, localscoffee.nl. The restaurant is known for its variety of delicious breakfast and brunch options, as well as lunch dishes. It is conveniently located near the Museum Quarter. While reviews are mostly positive, some customers have mentioned slow service and close tables. The restaurant is currently rated 4.4 stars out of 5.</t>
+  </si>
+  <si>
+    <t>Loulou Pizzabar is a casual-style restaurant located at Weesperzijde 42A, 1091 EE Amsterdam, Netherlands. It serves Italian-style small plates, pizzas, drinks, and desserts. It offers a variety of unusual pizzas and is popularly known as the best and healthiest pizza in town. Some dishes on the menu include the Margherita pizza, Salame Ventricina Picante, a big mixed salad, and a pesto focaccia. They also offer gluten-free options across their entire menu. The restaurant is open from 5 PM to 10:30 PM, and the average cost for a meal ranges from €20–30. They also offer takeout options. It has a high rating of 4.5 out of 5 on Tripadvisor and is ranked 702 out of 5772 restaurants in Amsterdam. The restaurant is inspired by an American-Italian female. The phone number for the restaurant is +31 20 608 0077.</t>
+  </si>
+  <si>
+    <t>Corner Bakery is a well-regarded restaurant located on Johannes Vermeerstraat in Amsterdam. It is a lunchroom that offers a variety of food items, including sandwiches, cakes, pancakes, salads, and milkshakes, and is a popular spot for breakfast or lunch. It has opened several stores due to its success. The general operating hours are from 8:00 AM to 5:00 PM, although specific locations may vary. The restaurant has received good reviews and is rated 4 out of 5 on Tripadvisor. On special occasions like Ramadan, they extend their operating hours. The restaurant is known for its all-day breakfast and brunch, including over-the-top milkshakes, and it has a trendy atmosphere with quality coffee.</t>
+  </si>
+  <si>
+    <t>Takumi Ramen Kitchen is a ramen restaurant located at Ferdinand Bolstraat 36 H, 1072 LK Amsterdam, Netherlands. The restaurant was started by Mr. Saeki and Mr. Okada in 2007 with a simple ramen shop in Düsseldorf, Germany. They have since expanded throughout Europe. The restaurant's motto is 'No ramen, no life'. Takumi Ramen Kitchen serves vegan dishes and is known for its excellent service and friendly staff. It has a high rating of 4.5 out of 5 on Tripadvisor and is ranked #427 out of 3849 restaurants in Amsterdam. The restaurant's contact number is +31 20 237 1750 and their menu can be found on their website, takumiramennoodles.com. Reviewers have praised the restaurant's excellent food and service, particularly their chicken ramen, but have noted that it can be pricey and there can be a long wait time.</t>
+  </si>
+  <si>
+    <t>The Pancake Club is a restaurant located at Leidsebosje 5, 1054 LJ Amsterdam, Netherlands. It serves Dutch, European, and International cuisines, with vegetarian and vegan options available. The restaurant is known for its pancakes and poffertjes (little fluffy pancakes), and it has a terrace next to a canal. It operates from 10 AM to 5:30 PM from Monday to Sunday, and people typically spend around 45 minutes here. The Pancake Club doesn't take reservations and its contact number is +31 6 13600843. The price range varies from $7 to $27 or HK$59 to HK$210.</t>
+  </si>
+  <si>
     <t>Quartier Putain is a popular cafe located in the heart of Amsterdam's Red Light District, known for its high-quality coffee and its casual, welcoming atmosphere. It is not specifically a breakfast restaurant, but it does serve coffee and pastries that are popular among locals and tourists alike for breakfast.
 The cafe is situated in an area known for its vibrant nightlife and diverse cultural attractions, making it a convenient spot for visitors exploring the city. The name "Quartier Putain" plays on its location in the Red Light District, with "putain" being a French word that can mean "whore" but is also used informally as an expletive similar to "damn."
 The exact coordinates provided, (52.3746117, 4.898705), locate it precisely in Amsterdam, where guests can enjoy a relaxed environment with a view of the bustling urban life of the district.
@@ -773,14 +948,132 @@
 For specific details such as menu offerings, exact prices, and operational hours, visiting the restaurant’s official website or contacting them directly would provide the most accurate and up-to-date information.</t>
   </si>
   <si>
-    <t>brak</t>
+    <t>Coffee District Willemsparkweg is a coffee shop located at Willemsparkweg 8h, 1071 HD Amsterdam, Netherlands. Operational hours are from 7.30 AM to 4 PM on weekdays and 8.30 AM to 5 PM on weekends. The café is known for its bright and friendly environment, superb customer service, and a variety of delicious coffees and pastries. It has a unique bohemian/indie vibe with a comfortable seating arrangement. They serve Mediterranean cuisine with a menu that includes breakfast, lunch, dinner, brunch, and drinks. The price range is affordable, between $2 and $10. The shop also offers to-go services. The company began its journey in 2017 as a coffee bar in a fashion store in Amsterdam Zuid and expanded when the fashion store closed in 2019.</t>
+  </si>
+  <si>
+    <t>Rijksmuseum w Amsterdamie to skarbnica sztuki, oferująca porywające kolekcje z Złotego Wieku Holandii oraz szeroki zakres dzieł europejskich. Znajdujące się w nim arcydzieła takich mistrzów jak Rembrandt czy Vermeer, wyróżniają się wśród ponad miliona eksponatów. Sam gmach muzeum, zaprojektowany przez Pierre'a Cuypersa i zbudowany w 1885 roku, jest równie imponujący co przechowywane w nim skarby, łącząc elementy gotyku z renesansem.</t>
+  </si>
+  <si>
+    <t>Muzeum Vincenta van Gogha w Amsterdamie jest świątynią sztuki dedykowaną dziełom tego holenderskiego malarza oraz jego współczesnym. Odwiedzający mogą podziwiać tam ponad 200 malowideł i 500 rysunków Van Gogha, w tym słynne "Słoneczniki" i "Pokój w Arles." Architektura muzeum, z nowoczesnym skrzydłem zaprojektowanym przez Kisho Kurokawę, łączy w sobie naturalne światło z modernistycznymi formami, tworząc idealne tło dla mistrzowskich prac.</t>
+  </si>
+  <si>
+    <t>Dom Anny Frank w Amsterdamie to muzeum ulokowane w domu z XVII wieku, znane jako "Skrzydło Tajne", gdzie młoda diarystka wraz z rodziną ukrywali się przed prześladowaniami nazistowskimi. Obecnie, miejsce to nie tylko zachowało autentyczne skrytki, ale także oferuje edukacyjne programy, promujące tolerancję i zrozumienie. Przyciąga ponad milion odwiedzających rocznie, udostępniając poruszającą opowieść Anny Frank i podnosząc świadomość o zagrożeniach wynikających z antysemityzmu oraz dyskryminacji.</t>
+  </si>
+  <si>
+    <t>Vondelpark, serce Amsterdamu, oferuje odwiedzającym szerokie spektrum atrakcji na łonie natury, od piknikowania i joggingu po spektakle w teatrze na świeżym powietrzu. Rozciągający się na około 120 akrach, park zachęca swoimi zielonymi przestrzeniami, różanym ogrodem z ponad 70 gatunkami róż oraz kawiarniami, które kiedyś służyły jako punkty orzeźwienia. Vondelpark to więcej niż tylko miejsce odpoczynku, to dynamiczna przestrzeń kulturalna i historyczna, którą rocznie odwiedza około 10 milionów osób.</t>
+  </si>
+  <si>
+    <t>Natura Artis Magistra, znany również jako Artis, to historyczny ogród zoologiczny w centrum Amsterdamu. Otwarty w 1838 roku jako najstarsze takie miejsce w Holandii, szczyci się różnorodnością gatunków zwierząt i naturalistycznymi siedliskami. Oferuje nie tylko możliwość obserwacji zwierząt, ale również akwarium, planetarium oraz programy edukacyjne i wystawy, akcentując swoje zaangażowanie w ochronę przyrody i dziedzictwa kulturowego.</t>
+  </si>
+  <si>
+    <t>Madame Tussauds Amsterdam zlokalizowane na słynnym Dam Square, to więcej niż tylko muzeum woskowych figurek. Odwiedzający mają szansę na bliskie spotkania z woskowymi replikami znanych osobistości i mogą częściowo doświadczać ich świata dzięki interaktywnym wystawom. Połączenie sztuki, historii i rozrywki sprawia, że jest to kluczowy punkt na mapie Amsterdamu dla turystów.</t>
+  </si>
+  <si>
+    <t>A'DAM Lookout to miejsce, które łączy zaawansowane technologie audiowizualne z widokiem na panoramiczną panoramę Amsterdamu. Znajduje się na 20-piętrowym budynku, oferującym nie tylko zapierające dech w piersiach widoki, ale także niezwykłą atrakcję - huśtawkę Over The Edge, która jest najwyższą huśtawką w Europie. Obiekt ten, oprócz punktu widokowego, gromadzi różnorodne funkcje jak restauracje, bar, hotel oraz nocny klub, przyciągając mieszkańców i turystów poszukujących nowoczesnej kultury miejskiej.</t>
+  </si>
+  <si>
+    <t>Pałac Królewski w Amsterdamie, pierwotnie ratusz, stanowi dzisiaj nie tylko rezydencję monarchiczną, ale i dynamiczne centrum turystyczne. Charakterystyczną cechą tego miejsca są jego marmurowe posadzki i impresjonujące dzieła sztuki, które zdobią wnętrza od czasów, kiedy Amsterdam kwitł jako ośrodek potęgi w Złotym Wieku Holandii. Oprócz funkcji reprezentacyjnych, pałac otwiera swoje drzwi dla zwiedzających, oferując wgląd w bogatą historię i wytworny dekor wnętrz.</t>
+  </si>
+  <si>
+    <t>Foodhallen w Amsterdamie to żywa, multikulturowa przestrzeń kulinarna, mieszcząca się w odnowionym kompleksie De Hallen. Odwiedzający mogą skosztować rozmaitych potraw z całego świata w jednym miejscu, od lokalnych holenderskich przysmaków po egzotyczne azjatyckie dania. Znajdujące się tu bary oferują szeroki wybór piw rzemieślniczych i koktajli, tworząc idealne warunki do socjalizacji w industrialnych wnętrzach starego zajezdnia tramwajowego.</t>
+  </si>
+  <si>
+    <t>Muzeum Domu Rembrandta w Amsterdamie to wyjątkowe miejsce, gdzie artysta mieszkał i tworzył swoje dzieła przez prawie dwie dekady. Odrestaurowany budynek pozwala zobaczyć, jak wyglądało życie i praca Rembrandta, oferując zarówno stałą kolekcję jego rycin, jak i wystawy tymczasowe. Muzeum, będące zarówno hołdem dla dziedzictwa artysty, jak i centrum edukacyjnym, organizuje warsztaty i demonstracje, przybliżające odwiedzającym techniki malarskie i graficzne XVII wieku.</t>
+  </si>
+  <si>
+    <t>Winkel 43, umiejscowiona w sercu malowniczego dzielnicy Jordaan w Amsterdamie, jest kawiarnią, która zdobyła uznanie dzięki swojej legendarnej szarlotce. Lokal oferuje zarówno smaczne dania śniadaniowe, jak i obiadowe, stając się idealnym miejscem na przerwę podczas odwiedzin tamtejszych targów. Oferując zarówno wygodne wnętrze jak i zewnętrzne siedzenia idealne do obserwacji tętniącego życiem Noordermarkt, Winkel 43 przyciąga zarówno mieszkańców, jak i turystów.</t>
+  </si>
+  <si>
+    <t>Scheepvaartmuseum w Amsterdamie to miejsce, gdzie historia morska ożywa w interaktywnej formie. Znany również jako Narodowe Muzeum Morskie, mieści się w zabytkowym magazynie z XVII wieku i oferuje wirtualne podróże morskie oraz możliwość zwiedzenia repliki statku towarowego z XVIII wieku. To dynamiczne centrum kulturalne przyciąga zarówno turystów, jak i mieszkańców, pragnących zgłębić bogatą morską historię Holandii.</t>
+  </si>
+  <si>
+    <t>Oude Kerk, najstarszy budynek Amsterdamu, kryje w sobie nie tylko dziedzictwo religijne, ale również artystyczne. Jego imponujący drewniany dach oraz podłoga pokryta 2500 nagrobkami tworzą niepowtarzalne tło dla wystaw sztuki współczesnej i koncertów. Kościół ten, będący niegdyś katolickim miejscem kultu, dziś łączy w sobie bogatą historię z nowoczesnymi praktykami artystycznymi, stanowiąc jedno z kluczowych centrów kulturalnych w Amsterdamie.</t>
+  </si>
+  <si>
+    <t>Heineken Experience w Amsterdamie oferuje podróż przez historię browaru w oryginalnie zachowanym miejscu produkcji piwa, które działało od 1867 do 1988 roku. Zwiedzający mogą uczestniczyć w interaktywnym zwiedzaniu, poznając składniki, proces warzenia piwa oraz strategie marki. Atrakcją jest możliwość degustacji piwa prosto z browaru oraz symulacja procesu warzenia z perspektywy butelki piwa.</t>
+  </si>
+  <si>
+    <t>EYE Film Museum w Amsterdamie to dynamiczne centrum kultury filmowej. Jego nowoczesna, futurystyczna architektura na brzegu rzeki IJ stanowi tło dla bogatych zbiorów filmów holenderskich i międzynarodowych oraz interaktywnych wystaw poświęconych kinematografii. Regularne wydarzenia kinowe oraz dostęp do obszernej biblioteki filmowej sprawiają, że jest to kluczowe miejsce dla miłośników filmu.</t>
+  </si>
+  <si>
+    <t>"This is Holland" to niezwykła atrakcja turystyczna w Amsterdamie, która oferuje symulację lotu 5D. Wizytujący mogą podziwiać z lotu ptaka krajobrazy, zabytki i miasta Holandii, a dodatkowe efekty takie jak wiatr, mgła czy zapachy zapewniają niezwykle realistyczne doznania. Atrakcja ta łączy edukacyjne wprowadzenie dotyczące geografii i historii Holandii z głównym pokazem symulacji lotu, co czyni ją atrakcyjną dla rodzin i osób pragnących zyskać wszechstronny ogląd kraju bez opuszczania Amsterdamu.</t>
+  </si>
+  <si>
+    <t>The Pancake Bakery, zlokalizowana w zabytkowym budynku z XVII wieku nad kanałem w Amsterdamie, jest znana z różnorodnego menu naleśników. Restauracja łączy tradycyjne holenderskie smaki z międzynarodowymi przysmakami, dostarczając szeroki wybór opcji na słodko i wytrawnie. Bliskość do głównych atrakcji turystycznych miasta jak Dom Anne Frank czyni ją dogodnym miejscem dla odwiedzających.</t>
+  </si>
+  <si>
+    <t>Brouwerij 't IJ w Amsterdamie to nie tylko browar, ale także kulturowy punkt orientacyjny miasta, malowniczo położony przy historycznym wiatraku De Gooyer. Od 1985 roku tworzy piwa organiczne z belgijskim zacięciem, czyniąc z miejsca zarówno atrakcję turystyczną, jak i lokalne ulubione miejsce spotkań. Można tam nie tylko skosztować bogatej oferty piw, ale również zobaczyć, jak funkcjonuje nowoczesne piwowarstwo, podczas krótkich wycieczek po obiekcie.</t>
+  </si>
+  <si>
+    <t>Micropia w Amsterdamie to pierwsze na świecie muzeum poświęcone mikroorganizmom, takim jak bakterie, wirusy i grzyby. To interaktywne i edukacyjne miejsce ukazuje, jak mikroby wpływają na nasze zdrowie, żywność i ekosystem. Odwiedzający mają okazję obserwować żywe mikroby przez specjalne mikroskopy oraz odkrywać ich znaczenie w biotechnologii.</t>
+  </si>
+  <si>
+    <t>Restauracja Moeders w Amsterdamie to miejsce, gdzie każdy zakątek opowiada historię o miłości do kuchni rodzinnej. Wnętrze tego ciepłego zakątka pokryte jest ścianami pełnymi zdjęć matek, przynoszących wspomnienia domowych posiłków. Menu oferuje obfite porcje tradycyjnych holenderskich dań, takich jak stamppot czy suddervlees, które zadowolą zarówno miejscowych, jak i podróżników.</t>
+  </si>
+  <si>
+    <t>National Monument w Amsterdamie jest monumentalną, białą kolumną, która wznosi się na wysokość 22 metrów. Została wzniesiona w 1956 roku, aby upamiętnić ofiary II wojny światowej i pełni rolę centralnego miejsca narodowej pamięci. Obiekt charakteryzuje się niskimi płaskorzeźbami oraz rzeźbami, które symbolizują pokój, opór i wyzwolenie, a także zawiera urny z ziemią z pól bitewnych z całej Holandii. Każdego roku, 4 maja, podczas Dnia Pamięci Narodowej, odbywają się tu główne uroczystości z udziałem rodziny królewskiej.</t>
+  </si>
+  <si>
+    <t>Vegan Junk Food Bar w Amsterdamie przekształca tradycyjne postrzeganie wegańskiej kuchni, serwując pyszne, roślinne odpowiedniki popularnych przekąsek. Od burgerów po frytki, wszystko jest przygotowane bez składników pochodzenia zwierzęcego, prezentując atrakcyjną i kolorową estetykę, która przyciąga młodszych, aktywnych w mediach społecznościowych gości. W tętniącym życiem i swobodnym miejscu, można doświadczyć nowej, ekscytującej odsłony kulinariów w sercu jednego z najbardziej innowacyjnych miast Europy.</t>
+  </si>
+  <si>
+    <t>Fabel Friet w Amsterdamie to lokal specjalizujący się w smażonych ziemniakach i kroketach, który zapewnia gościom potrawy z lokalnych składników w przystępnej cenie. Wyróżnia się wyjątkowymi daniami takimi jak krokiet ziemniaczany z truflowym majonezem czy frytki z parmezanem, przyciągając smakoszy żądnymi chrupiących przekąsek. Otwarty niemalże codziennie, ten niewielki lokal zdobył uznanie za najlepsze frytki w mieście.</t>
+  </si>
+  <si>
+    <t>Nieuwe Kerk, sytuowany na placu Dam w Amsterdamie, łączy w sobie bogatą tradycję królewskich ceremonii z nowoczesnym wykorzystaniem jako przestrzeń wystawiennicza. Jego gotycka architektura i monumentalne organy przyciągają miłośników kultury i historii, oferując ekspozycje sztuki i fotografii oraz koncerty organowe. Miejsce to również jest kluczowym punktem podczas Krajowej Ceremonii Pamięci 4 maja.</t>
+  </si>
+  <si>
+    <t>Amsterdam Cheese Museum to nie tylko muzeum, ale także sklep znajdujący się blisko Domu Anny Frank, który oferuje bogaty wachlarz holenderskich serów do degustacji i zakupu. Obiekt łączy edukację o historii i metodach produkcji sera w Holandii z interaktywnymi wystawami, umożliwiając odwiedzającym zrozumienie roli sera w kulturze i kuchni holenderskiej. Odwiedzający mają okazję doświadczyć życia holenderskiego rolnika i zgłębić procesy tworzenia różnych serów.</t>
+  </si>
+  <si>
+    <t>The Old Bell, położony w sercu Amsterdamu, jest popularnym pubem, który przyciąga zarówno turystów, jak i mieszkańców miasta. Oceniany za staroświecki, unikalny urok oraz doskonałe piwa, lokal oferuje przytulną atmosferę i wysoką jakość obsługi. Jest łatwo dostępny, znajdując się tylko kilka kroków od przystanku tramwajowego.</t>
+  </si>
+  <si>
+    <t>FEBO Amsterdam - Oudezijds Voorburgwal to lokacja znanego holenderskiego łańcucha szybkich przekąsek, oferująca jedzenie w unikalnym stylu automatów vendingowych. Położona w tętniącej życiem części Amsterdamu, FEBO przyciąga zarówno miejscowych, jak i turystów, którzy poszukują szybkich i smacznych opcji jedzenia blisko głównych atrakcji miasta. Klienci mogą w prosty sposób wybierać spośród różnorodnych smaków krokietów, frytek i innych typowo holenderskich snacków, ciesząc się jednocześnie wygodą samodzielnego serwisu.</t>
+  </si>
+  <si>
+    <t>De Tulp w Amsterdamie to prawdziwy raj dla milosników egzotycznych klimatów. To restauracja otoczona zielenią, z tropikalną dekoracją i przestronnym tarasem, doskonała na letnie dni. Serwuje dania międzynarodowe na wspólnych talerzach oraz różnorodne koktajle, tworząc idealne miejsce na spotkania towarzyskie i relaks w sercu tętniącej życiem dzielnicy De Pijp.</t>
+  </si>
+  <si>
+    <t>LOCALS All Day Brunch w Amsterdamie przyciąga gości swoją różnorodnością opcji śniadaniowych i brunchowych serwowanych przez cały dzień. Usytuowane blisko Dzielnicy Muzeów, to miejsce kusi także wieczorami klasycznymi włoskimi daniami. Pomimo drobnych uwag na temat wolnej obsługi, kawiarnia cieszy się dobrą reputacją wśród odwiedzających.</t>
+  </si>
+  <si>
+    <t>Zlokalizowany w sercu Amsterdamu, Loulou Pizzabar oferuje nie tylko standardowe włoskie przysmaki, ale także niezwykłe wariacje pizzy, przyciągając miłośników zdrowej kuchni. W menu znaleźć można opcje bezglutenowe oraz klasyczne dania jak Margherita czy pikantny Salame Ventricina. Restauracja, inspirowana przez amerykańsko-włoską kobietę, zdobywa uznanie zarówno za jakość potraw, jak i przyjazną atmosferę.</t>
+  </si>
+  <si>
+    <t>Corner Bakery w Amsterdamie to modna kawiarnia, która oferuje bogaty wybór śniadań i lunchy, znana z całodziennych śniadań oraz ekstrawaganckich milkshake'ów. Usytuowana przy Johannes Vermeerstraat, przyciąga smakoszy różnorodnością sałatek, kanapek, ciast i naleśników. Lokal cieszy się dobrymi opiniami i ma klimatyczne wnętrze, idealne na rozpoczęcie dnia przy filiżance jakościowej kawy.</t>
+  </si>
+  <si>
+    <t>Takumi Ramen Kitchen to restauracja z ramenem w Amsterdamie, słynąca z różnorodności, włączając dania wegańskie, oraz wysokiej jakości obsługi. Założona w 2007 roku przez entuzjastów kuchni azjatyckiej, z powiedzeniem "No ramen, no life", przyciąga zarówno lokalnych, jak i podróżujących, choć czasem trzeba uzbroić się w cierpliwość, aby móc delektować się ich wyśmienitym kurczakiem ramen. Wysoko oceniana przez odwiedzających za idealnie ugotowane dania, restauracja utrzymuje solidną pozycję wśród licznych opcji gastronomicznych miasta.</t>
+  </si>
+  <si>
+    <t>The Pancake Club w Amsterdamie to lokalny przysmak z widokiem na kanał, gdzie można się delektować zarówno tradycyjnymi holenderskimi nalesnikami jak i międzynarodowymi wariacjami. Bez możliwości rezerwacji, ten przyjazny dla wegetarian i weganków lokal oferuje doświadczenie pełne smaku przy okazji krótkiego wypadu. Ceny wahają się w przystępnym zakresie, a dodatkowym atutem jest malownicza lokalizacja z tarasem nad wodą.</t>
+  </si>
+  <si>
+    <t>Quartier Putain, ulokowane w samym sercu amsterdamskiej Dzielnicy Czerwonych Latarni, oferuje więcej niż tylko kawę najwyższej jakości. Wyróżniające się swobodną atmosferą, kawiarnia ta jest miejscem spotkań zarówno dla miejscowych, jak i zwiedzających, zapewniając przyjemny przystanek wśród tętniącego życiem nocnego miasta. Nazwa „Quartier Putain”, odnosząca się do lokalizacji i francuskiego slangu, dodaje lokalowi charakteru, przyciągając tych, którzy cenią sobie kulturę i niebanalność.</t>
+  </si>
+  <si>
+    <t>Monte Pelmo to lodziarnia w sercu Amsterdamu, gdzie domowej roboty lody w różnorodnych i kreatywnych smakach przyciągają zarówno mieszkańców, jak i turystów. Znajdując się w strategicznej lokalizacji, łatwo dostępna dla odkrywców miasta, uchodzi za miejsce o przyjaznej atmosferze i doskonałej jakości produktach.</t>
+  </si>
+  <si>
+    <t>The National Holocaust Names Monument in Amsterdam serves as a profound space of remembrance for over 102,000 Jews and 220 Roma and Sinti lost during the Holocaust. The design by Daniel Libeskind features walls spelling out "לזכר" (L'Zikaron), Hebrew for "In Memory of," with each brick engraved with a victim's name. Officially inaugurated in 2021, the monument offers a space for reflection and education on the atrocities faced by these communities.</t>
+  </si>
+  <si>
+    <t>Cafe Binnen Buiten, położone w sercu Amsterdamu, jest miejscem, które przyciąga swoim przytulnym klimatem zarówno mieszkańców, jak i turystów. Bar słynie ze swojej urokliwej tarasy, idealnej do spędzenia czasu na świeżym powietrzu, popijając drinki i kosztując lekkie posiłki. Goście chwalą to miejsce za przyjazną obsługę oraz bogaty wybór napojów.</t>
+  </si>
+  <si>
+    <t>Calf &amp; Bloom to restauracja w centrum Amsterdamu, która łączy nowoczesną atmosferę z międzynarodowym menu bazującym na świeżych, sezonowych składnikach. Lokal jest idealnym przystankiem zarówno dla turystów, jak i mieszkańców miasta, szukających miejsca na nieformalny posiłek czy przerwę na kawę. Położenie w sercu miasta umożliwia łatwy dostęp do lokalnych atrakcji i sklepów, co dodatkowo zwiększa jego atrakcyjność.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee District Willemsparkweg w Amsterdamie łączy styl boho z indie tworząc przytulne miejsce, idealne na każdy posiłek dnia. Oferując przestronne wnętrze i różnorodne menu śródziemnomorskie, kawiarnia jest znana z wyśmienitej kawy i wypieków. Rozpoczęcie działalności jako kawałek modowego świata w 2017 roku dodaje miejscu wyjątkowego charakteru z odrobiną historii mody.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,35 +1125,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -898,7 +1180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -932,7 +1214,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -967,10 +1248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1143,16 +1423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,104 +1467,113 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>52.3599976</v>
       </c>
       <c r="F2">
-        <v>4.8852187999999996</v>
+        <v>4.8852188</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H2">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I2">
         <v>92217</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="M2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>52.358075700000001</v>
+        <v>52.3580757</v>
       </c>
       <c r="F3">
-        <v>4.8812053000000004</v>
+        <v>4.8812053</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H3">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I3">
         <v>85484</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="M3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>52.375218199999999</v>
+        <v>52.3752182</v>
       </c>
       <c r="F4">
-        <v>4.8839765000000002</v>
+        <v>4.8839765</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4">
         <v>4.5</v>
@@ -1295,36 +1582,39 @@
         <v>65392</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="M4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>52.357994599999998</v>
+        <v>52.3579946</v>
       </c>
       <c r="F5">
-        <v>4.8686483999999997</v>
+        <v>4.8686484</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H5">
         <v>4.7</v>
@@ -1333,36 +1623,39 @@
         <v>51206</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="M5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>52.366000300000003</v>
+        <v>52.3660003</v>
       </c>
       <c r="F6">
-        <v>4.9165321000000004</v>
+        <v>4.9165321</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H6">
         <v>4.5</v>
@@ -1371,36 +1664,39 @@
         <v>31412</v>
       </c>
       <c r="J6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="M6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>52.3725606</v>
       </c>
       <c r="F7">
-        <v>4.8925584999999998</v>
+        <v>4.8925585</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H7">
         <v>4.3</v>
@@ -1409,112 +1705,121 @@
         <v>25800</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="M7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8">
-        <v>52.383791899999999</v>
+        <v>52.3837919</v>
       </c>
       <c r="F8">
-        <v>4.9020732999999996</v>
+        <v>4.9020733</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H8">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I8">
         <v>22947</v>
       </c>
       <c r="J8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="M8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>52.373183500000003</v>
+        <v>52.3731835</v>
       </c>
       <c r="F9">
-        <v>4.8913757999999996</v>
+        <v>4.8913758</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H9">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I9">
         <v>22705</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="M9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10">
-        <v>52.366789999999988</v>
+        <v>52.36678999999999</v>
       </c>
       <c r="F10">
         <v>4.8679147</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H10">
         <v>4.5</v>
@@ -1523,36 +1828,39 @@
         <v>19194</v>
       </c>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="M10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E11">
-        <v>52.369368999999999</v>
+        <v>52.369369</v>
       </c>
       <c r="F11">
-        <v>4.9012349000000004</v>
+        <v>4.9012349</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H11">
         <v>4.5</v>
@@ -1561,74 +1869,80 @@
         <v>12039</v>
       </c>
       <c r="J11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="M11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>52.3790944</v>
       </c>
       <c r="F12">
-        <v>4.8862844000000001</v>
+        <v>4.8862844</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H12">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I12">
         <v>11208</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="M12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13">
-        <v>52.371557899999999</v>
+        <v>52.3715579</v>
       </c>
       <c r="F13">
-        <v>4.9143762000000004</v>
+        <v>4.9143762</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H13">
         <v>4.5</v>
@@ -1637,74 +1951,80 @@
         <v>10766</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="M13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E14">
         <v>52.3741202</v>
       </c>
       <c r="F14">
-        <v>4.8980195999999996</v>
+        <v>4.8980196</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H14">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I14">
         <v>10330</v>
       </c>
       <c r="J14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="M14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E15">
-        <v>52.357831300000001</v>
+        <v>52.3578313</v>
       </c>
       <c r="F15">
-        <v>4.8918248999999996</v>
+        <v>4.8918249</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H15">
         <v>4.2</v>
@@ -1713,74 +2033,80 @@
         <v>10253</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="M15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16">
-        <v>52.384348000000003</v>
+        <v>52.384348</v>
       </c>
       <c r="F16">
-        <v>4.9012760000000002</v>
+        <v>4.901276</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H16">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I16">
         <v>9882</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="M16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17">
-        <v>52.384186499999998</v>
+        <v>52.3841865</v>
       </c>
       <c r="F17">
-        <v>4.9021958999999997</v>
+        <v>4.9021959</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H17">
         <v>4.7</v>
@@ -1789,36 +2115,39 @@
         <v>9459</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="M17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18">
-        <v>52.377623399999997</v>
+        <v>52.3776234</v>
       </c>
       <c r="F18">
-        <v>4.8861631000000001</v>
+        <v>4.8861631</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H18">
         <v>4.3</v>
@@ -1827,74 +2156,80 @@
         <v>8674</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="M18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19">
-        <v>52.366690800000001</v>
+        <v>52.3666908</v>
       </c>
       <c r="F19">
         <v>4.9264253</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H19">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I19">
         <v>7769</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="M19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E20">
         <v>52.3669735</v>
       </c>
       <c r="F20">
-        <v>4.9128242000000002</v>
+        <v>4.9128242</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H20">
         <v>4.7</v>
@@ -1903,36 +2238,39 @@
         <v>5059</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="M20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E21">
         <v>52.3717696</v>
       </c>
       <c r="F21">
-        <v>4.8750293999999998</v>
+        <v>4.8750294</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H21">
         <v>4.5</v>
@@ -1940,145 +2278,163 @@
       <c r="I21">
         <v>4552</v>
       </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="M21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22">
-        <v>52.372858200000003</v>
+        <v>52.3728582</v>
       </c>
       <c r="F22">
-        <v>4.8937001000000002</v>
+        <v>4.8937001</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I22">
         <v>4373</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23">
-        <v>52.366380799999988</v>
+        <v>52.36638079999999</v>
       </c>
       <c r="F23">
-        <v>4.8914504999999986</v>
+        <v>4.891450499999999</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H23">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I23">
         <v>3569</v>
       </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="M23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24">
-        <v>52.368842800000003</v>
+        <v>52.3688428</v>
       </c>
       <c r="F24">
         <v>4.884061</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H24">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I24">
         <v>3367</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="M24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E25">
-        <v>52.373905200000003</v>
+        <v>52.3739052</v>
       </c>
       <c r="F25">
-        <v>4.8918093999999996</v>
+        <v>4.8918094</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H25">
         <v>4.3</v>
@@ -2087,36 +2443,39 @@
         <v>3366</v>
       </c>
       <c r="J25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="M25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26">
-        <v>52.376389000000003</v>
+        <v>52.376389</v>
       </c>
       <c r="F26">
-        <v>4.8842509999999999</v>
+        <v>4.884251</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H26">
         <v>4.5</v>
@@ -2124,69 +2483,81 @@
       <c r="I26">
         <v>3220</v>
       </c>
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="M26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27">
-        <v>52.365769899999997</v>
+        <v>52.3657699</v>
       </c>
       <c r="F27">
-        <v>4.8974253999999986</v>
+        <v>4.897425399999999</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H27">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I27">
         <v>2029</v>
       </c>
+      <c r="J27" t="s">
+        <v>186</v>
+      </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="M27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28">
-        <v>52.374548900000001</v>
+        <v>52.3745489</v>
       </c>
       <c r="F28">
-        <v>4.8997421999999986</v>
+        <v>4.899742199999999</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H28">
         <v>4.3</v>
@@ -2194,72 +2565,81 @@
       <c r="I28">
         <v>1855</v>
       </c>
+      <c r="J28" t="s">
+        <v>187</v>
+      </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="M28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E29">
-        <v>52.356841000000003</v>
+        <v>52.356841</v>
       </c>
       <c r="F29">
-        <v>4.8916512000000001</v>
+        <v>4.8916512</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H29">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="I29">
         <v>1598</v>
       </c>
       <c r="J29" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="M29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E30">
-        <v>52.357547399999987</v>
+        <v>52.35754739999999</v>
       </c>
       <c r="F30">
-        <v>4.8891125999999998</v>
+        <v>4.8891126</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H30">
         <v>4.3</v>
@@ -2267,34 +2647,40 @@
       <c r="I30">
         <v>1563</v>
       </c>
+      <c r="J30" t="s">
+        <v>189</v>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="M30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31">
-        <v>52.355804900000003</v>
+        <v>52.3558049</v>
       </c>
       <c r="F31">
-        <v>4.9074458999999999</v>
+        <v>4.9074459</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H31">
         <v>4.5</v>
@@ -2302,34 +2688,40 @@
       <c r="I31">
         <v>1388</v>
       </c>
+      <c r="J31" t="s">
+        <v>190</v>
+      </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="M31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E32">
-        <v>52.354719099999997</v>
+        <v>52.3547191</v>
       </c>
       <c r="F32">
-        <v>4.8840307999999997</v>
+        <v>4.8840308</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H32">
         <v>4.3</v>
@@ -2337,139 +2729,163 @@
       <c r="I32">
         <v>1309</v>
       </c>
+      <c r="J32" t="s">
+        <v>191</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="M32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E33">
-        <v>52.356350799999987</v>
+        <v>52.35635079999999</v>
       </c>
       <c r="F33">
-        <v>4.8904576000000004</v>
+        <v>4.8904576</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H33">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I33">
         <v>1090</v>
       </c>
+      <c r="J33" t="s">
+        <v>192</v>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="M33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34">
-        <v>52.362637499999998</v>
+        <v>52.3626375</v>
       </c>
       <c r="F34">
         <v>4.8812726</v>
       </c>
       <c r="G34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H34">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I34">
         <v>1049</v>
       </c>
+      <c r="J34" t="s">
+        <v>193</v>
+      </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="M34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E35">
-        <v>52.374611700000003</v>
+        <v>52.3746117</v>
       </c>
       <c r="F35">
-        <v>4.8987049999999996</v>
+        <v>4.898705</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H35">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I35">
         <v>985</v>
       </c>
+      <c r="J35" t="s">
+        <v>194</v>
+      </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="M35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36">
-        <v>52.377527200000003</v>
+        <v>52.3775272</v>
       </c>
       <c r="F36">
-        <v>4.8817078999999994</v>
+        <v>4.881707899999999</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H36">
         <v>4.7</v>
@@ -2477,34 +2893,40 @@
       <c r="I36">
         <v>838</v>
       </c>
+      <c r="J36" t="s">
+        <v>195</v>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="M36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E37">
-        <v>52.365724299999997</v>
+        <v>52.3657243</v>
       </c>
       <c r="F37">
-        <v>4.9049236000000001</v>
+        <v>4.9049236</v>
       </c>
       <c r="G37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H37">
         <v>4.8</v>
@@ -2512,34 +2934,40 @@
       <c r="I37">
         <v>667</v>
       </c>
+      <c r="J37" t="s">
+        <v>196</v>
+      </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="M37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E38">
-        <v>52.354797599999998</v>
+        <v>52.3547976</v>
       </c>
       <c r="F38">
-        <v>4.8872165000000001</v>
+        <v>4.8872165</v>
       </c>
       <c r="G38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H38">
         <v>4.3</v>
@@ -2547,34 +2975,40 @@
       <c r="I38">
         <v>659</v>
       </c>
+      <c r="J38" t="s">
+        <v>197</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="M38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E39">
-        <v>52.367182399999997</v>
+        <v>52.3671824</v>
       </c>
       <c r="F39">
-        <v>4.8915376999999998</v>
+        <v>4.8915377</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H39">
         <v>4.3</v>
@@ -2582,34 +3016,40 @@
       <c r="I39">
         <v>618</v>
       </c>
+      <c r="J39" t="s">
+        <v>198</v>
+      </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="M39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E40">
-        <v>52.358021399999998</v>
+        <v>52.3580214</v>
       </c>
       <c r="F40">
         <v>4.8776462</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H40">
         <v>4.7</v>
@@ -2617,11 +3057,17 @@
       <c r="I40">
         <v>560</v>
       </c>
+      <c r="J40" t="s">
+        <v>199</v>
+      </c>
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>214</v>
+      <c r="L40" t="s">
+        <v>238</v>
+      </c>
+      <c r="M40" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Amsterdam_miejsca_odnosniki.xlsx
+++ b/Amsterdam_miejsca_odnosniki.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2CBA3F-40D7-4CA5-99CB-FDCD5DBDC7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="251">
   <si>
     <t>Miejsce</t>
   </si>
@@ -133,9 +139,6 @@
     <t>Old Cook</t>
   </si>
   <si>
-    <t>Faybo</t>
-  </si>
-  <si>
     <t>De Puyp</t>
   </si>
   <si>
@@ -160,18 +163,9 @@
     <t>Monte Pelmo</t>
   </si>
   <si>
-    <t>Holocaust Monument</t>
-  </si>
-  <si>
-    <t>Café Binnenbuiten</t>
-  </si>
-  <si>
     <t>Bloom and Cafe</t>
   </si>
   <si>
-    <t>Coffee District</t>
-  </si>
-  <si>
     <t>['https://www.youtube.com/watch?v=QEAQ8N6SK6w']</t>
   </si>
   <si>
@@ -274,9 +268,6 @@
     <t>The Old Bell</t>
   </si>
   <si>
-    <t>FEBO Amsterdam - Oudezijds Voorburgwal</t>
-  </si>
-  <si>
     <t>de Tulp</t>
   </si>
   <si>
@@ -298,18 +289,9 @@
     <t>Quartier Putain</t>
   </si>
   <si>
-    <t>National Holocaust Names Monument</t>
-  </si>
-  <si>
-    <t>Cafe Binnen Buiten</t>
-  </si>
-  <si>
     <t>Calf &amp; Bloom</t>
   </si>
   <si>
-    <t>Coffee District Willemsparkweg</t>
-  </si>
-  <si>
     <t>Museumstraat 1, 1071 XX Amsterdam, Holandia</t>
   </si>
   <si>
@@ -385,9 +367,6 @@
     <t>Rembrandtplein 46, 1017 CV Amsterdam, Holandia</t>
   </si>
   <si>
-    <t>Oudezijds Voorburgwal 33, 1012 EJ Amsterdam, Holandia</t>
-  </si>
-  <si>
     <t>Marie Heinekenplein 33, 1072 MH Amsterdam, Holandia</t>
   </si>
   <si>
@@ -412,18 +391,9 @@
     <t>Tweede Anjeliersdwarsstraat 17, 1015 NS Amsterdam, Holandia</t>
   </si>
   <si>
-    <t>1018 DN Amsterdam, Holandia</t>
-  </si>
-  <si>
-    <t>Ruysdaelkade 115, 1072 AN Amsterdam, Holandia</t>
-  </si>
-  <si>
     <t>Singel 461, 1012 WP Amsterdam, Holandia</t>
   </si>
   <si>
-    <t>Willemsparkweg 8h, 1071 HD Amsterdam, Holandia</t>
-  </si>
-  <si>
     <t>Muzeum sztuki</t>
   </si>
   <si>
@@ -488,15 +458,6 @@
   </si>
   <si>
     <t>Lodziarnia</t>
-  </si>
-  <si>
-    <t>Park pamięci</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Sklep z kawą</t>
   </si>
   <si>
     <t>XIX-wieczny budynek: malowidła z epoki Złotego wieku Holandii i obszerna kolekcja europejskich dzieł sztuki.The Rijksmuseum, located in Amsterdam, Netherlands, is one of the most renowned art museums in the world. It is situated at the address Museumstraat 1, 1071 XX Amsterdam, and the geographical coordinates provided (52.3599976, 4.8852188) place it in the vicinity of the Museumplein (Museum Square) in the heart of Amsterdam.
@@ -667,13 +628,6 @@
     <t xml:space="preserve"> The Old Bell is a pub located in the heart of Amsterdam. It is well regarded for its great service, good beers, and beautiful atmosphere. The pub is rated 4 out of 5 on Tripadvisor and is ranked #382 out of 5772 restaurants in Amsterdam. Known for its old and unique charm, it can get busy but is loved by many. It's easily accessible, being just steps away from the tram.</t>
   </si>
   <si>
-    <t xml:space="preserve"> FEBO Amsterdam - Oudezijds Voorburgwal is a branch of the well-known Dutch fast food chain FEBO, located in Amsterdam, Netherlands. FEBO is famous for its unique vending machine-style service where hot snacks such as croquettes, burgers, and fries are offered in a wall of automated compartments. Customers can easily select and retrieve their choice of snack from these heated compartments.
-The FEBO on Oudezijds Voorburgwal is conveniently situated in a bustling area of Amsterdam, making it a popular spot for both locals and tourists seeking quick and tasty food options. The location is also notable for its proximity to various tourist attractions, shops, and nightlife, contributing to its foot traffic and popularity.
-FEBO's offerings are particularly known for their krokets (croquettes), which come in various flavors like beef and chicken. Other typical Dutch snacks such as kaassoufflé (cheese soufflé) and frikandellen (deep-fried sausage) are also available. The establishment typically ensures food is prepared using high-quality ingredients and maintains consistent taste across its various locations.
-The chain, which originated in Amsterdam in the 1940s, has established a reputation for convenience, efficiency, and distinctive Dutch snack culture. The FEBO in Oudezijds Voorburgwal adheres to the brand’s standards, providing a quick service and clean environment for its customers.
-Apart from its snacks, FEBO also offers a range of soft drinks and sauces to complement the meals. The atmosphere of the place is generally casual, reflecting its fast-food nature and self-service model.</t>
-  </si>
-  <si>
     <t>Porośnięta bluszczem nietuzinkowa restauracja z tarasem inspirowana tropikami serwująca koktajle i dania na wspólnych talerzach.As of the last update, "De Tulp" is a restaurant and bar located in the vibrant neighborhood of De Pijp in Amsterdam, famously known for its relaxing ambiance and tropical-themed decor. Situated near the popular Albert Cuyp Market, De Tulp offers a lively dining and drinking experience with an indoor space festooned with lush plants and colorful furnishings that evoke a jungle-like feel.
 The venue is often recognized for its spacious outdoor seating area, which becomes a sought-after spot during warmer months, allowing patrons to enjoy their meals and drinks in an open, airy environment. The menu typically features a mix of international cuisine with a focus on shareable plates, ideal for social gatherings. The bar offers a variety of cocktails, beers, and other beverages, making it a popular destination not only for dining but also for nightlife.
 Visitors to De Tulp appreciate its fun, casual atmosphere, which makes it suitable for group outings and casual meetups. The restaurant's location in De Pijp also makes it a convenient spot for tourists exploring the area’s attractions, including the nearby market and the Heineken Experience. 
@@ -705,24 +659,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> The National Holocaust Names Monument in Amsterdam is a significant site dedicated to the memory of the victims of the Holocaust. It is located in the Weesperstraat area of the city, close to the Jewish Cultural Quarter. This monument holds a unique and poignant place in the Netherlands' remembrance of the more than 102,000 Jews and 220 Roma and Sinti who were deported and murdered in Nazi concentration and extermination camps during World War II.
-The monument was designed by Polish-Jewish architect Daniel Libeskind, who is also known for his work on the Jewish Museum in Berlin and the master plan for the reconstruction of the World Trade Center site in New York. His design for the Amsterdam Holocaust Monument is symbolically rich and consists of walls formed by bricks, each bearing the name of a Holocaust victim. The structure spells out the Hebrew word "לזכר" (L'Zikaron), which means "In Memory of."
-The walls are arranged in a way that visitors can walk through the monument, reflecting on the enormity of the loss represented by each individual name. It serves not only as a place of remembrance but also as a poignant reminder of the atrocities of the Holocaust, aiming to educate future generations.
-The initiative for the monument came from the Dutch Auschwitz Committee, and its establishment was supported through donations from various organizations, individuals, and the Dutch government. The National Holocaust Names Monument was officially opened to the public in September 2021, providing a dedicated space in the Netherlands for reflection and remembrance of Holocaust victims.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Café Binnen Buiten is a bar located in Amsterdam, known for its cozy and inviting atmosphere, which attracts both locals and tourists. Its geographical coordinates are 52.3547976 latitude and 4.8872165 longitude, situating it in a central part of the city.
-The bar is popular for its terrace, which is particularly enjoyable during the warmer months. Guests can sit outside, enjoying drinks and light meals in a relaxed outdoor setting. The venue is also known for its friendly service and a good selection of drinks.
-While I don't have specific details on their menu or specific events they may host, places like this often offer a range of alcoholic and non-alcoholic beverages, and sometimes snacks or small dishes typical of casual bar settings in Amsterdam. It is advisable to check their social media pages or website for the most current information on offerings and opening hours.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Calf &amp; Bloom is a restaurant located in Amsterdam, known for its contemporary dining experience. Situated ideally in the city center, it offers a convenient spot for both locals and tourists. The restaurant's ambiance is typically described as modern and inviting, making it a popular choice for casual meals, business lunches, or coffee breaks.
 Calf &amp; Bloom is appreciated for its menu that features a mix of international dishes, often with a focus on fresh and seasonal ingredients. It may also be known for its good selection of wines and cocktails, which complements their food offerings.
 Additionally, given its central location, Calf &amp; Bloom is likely close to popular Amsterdam attractions and shopping areas, adding to its appeal for those who are out exploring the city and want a comfortable place to eat. The restaurant might also offer views of a bustling area or a scenic spot, enhancing the dining experience.
 For specific details such as menu offerings, exact prices, and operational hours, visiting the restaurant’s official website or contacting them directly would provide the most accurate and up-to-date information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coffee District Willemsparkweg is a coffee shop located at Willemsparkweg 8h, 1071 HD Amsterdam, Netherlands. Operational hours are from 7.30 AM to 4 PM on weekdays and 8.30 AM to 5 PM on weekends. The café is known for its bright and friendly environment, superb customer service, and a variety of delicious coffees and pastries. It has a unique bohemian/indie vibe with a comfortable seating arrangement. They serve Mediterranean cuisine with a menu that includes breakfast, lunch, dinner, brunch, and drinks. The price range is affordable, between $2 and $10. The shop also offers to-go services. The company began its journey in 2017 as a coffee bar in a fashion store in Amsterdam Zuid and expanded when the fashion store closed in 2019.</t>
   </si>
   <si>
     <t>The Rijksmuseum, located in Amsterdam, Netherlands, is one of the most renowned art museums in the world. It is situated at the address Museumstraat 1, 1071 XX Amsterdam, and the geographical coordinates provided (52.3599976, 4.8852188) place it in the vicinity of the Museumplein (Museum Square) in the heart of Amsterdam.
@@ -893,13 +833,6 @@
     <t>The Old Bell is a pub located in the heart of Amsterdam. It is well regarded for its great service, good beers, and beautiful atmosphere. The pub is rated 4 out of 5 on Tripadvisor and is ranked #382 out of 5772 restaurants in Amsterdam. Known for its old and unique charm, it can get busy but is loved by many. It's easily accessible, being just steps away from the tram.</t>
   </si>
   <si>
-    <t>FEBO Amsterdam - Oudezijds Voorburgwal is a branch of the well-known Dutch fast food chain FEBO, located in Amsterdam, Netherlands. FEBO is famous for its unique vending machine-style service where hot snacks such as croquettes, burgers, and fries are offered in a wall of automated compartments. Customers can easily select and retrieve their choice of snack from these heated compartments.
-The FEBO on Oudezijds Voorburgwal is conveniently situated in a bustling area of Amsterdam, making it a popular spot for both locals and tourists seeking quick and tasty food options. The location is also notable for its proximity to various tourist attractions, shops, and nightlife, contributing to its foot traffic and popularity.
-FEBO's offerings are particularly known for their krokets (croquettes), which come in various flavors like beef and chicken. Other typical Dutch snacks such as kaassoufflé (cheese soufflé) and frikandellen (deep-fried sausage) are also available. The establishment typically ensures food is prepared using high-quality ingredients and maintains consistent taste across its various locations.
-The chain, which originated in Amsterdam in the 1940s, has established a reputation for convenience, efficiency, and distinctive Dutch snack culture. The FEBO in Oudezijds Voorburgwal adheres to the brand’s standards, providing a quick service and clean environment for its customers.
-Apart from its snacks, FEBO also offers a range of soft drinks and sauces to complement the meals. The atmosphere of the place is generally casual, reflecting its fast-food nature and self-service model.</t>
-  </si>
-  <si>
     <t>As of the last update, "De Tulp" is a restaurant and bar located in the vibrant neighborhood of De Pijp in Amsterdam, famously known for its relaxing ambiance and tropical-themed decor. Situated near the popular Albert Cuyp Market, De Tulp offers a lively dining and drinking experience with an indoor space festooned with lush plants and colorful furnishings that evoke a jungle-like feel.
 The venue is often recognized for its spacious outdoor seating area, which becomes a sought-after spot during warmer months, allowing patrons to enjoy their meals and drinks in an open, airy environment. The menu typically features a mix of international cuisine with a focus on shareable plates, ideal for social gatherings. The bar offers a variety of cocktails, beers, and other beverages, making it a popular destination not only for dining but also for nightlife.
 Visitors to De Tulp appreciate its fun, casual atmosphere, which makes it suitable for group outings and casual meetups. The restaurant's location in De Pijp also makes it a convenient spot for tourists exploring the area’s attractions, including the nearby market and the Heineken Experience. 
@@ -931,149 +864,122 @@
 </t>
   </si>
   <si>
-    <t>The National Holocaust Names Monument in Amsterdam is a significant site dedicated to the memory of the victims of the Holocaust. It is located in the Weesperstraat area of the city, close to the Jewish Cultural Quarter. This monument holds a unique and poignant place in the Netherlands' remembrance of the more than 102,000 Jews and 220 Roma and Sinti who were deported and murdered in Nazi concentration and extermination camps during World War II.
-The monument was designed by Polish-Jewish architect Daniel Libeskind, who is also known for his work on the Jewish Museum in Berlin and the master plan for the reconstruction of the World Trade Center site in New York. His design for the Amsterdam Holocaust Monument is symbolically rich and consists of walls formed by bricks, each bearing the name of a Holocaust victim. The structure spells out the Hebrew word "לזכר" (L'Zikaron), which means "In Memory of."
-The walls are arranged in a way that visitors can walk through the monument, reflecting on the enormity of the loss represented by each individual name. It serves not only as a place of remembrance but also as a poignant reminder of the atrocities of the Holocaust, aiming to educate future generations.
-The initiative for the monument came from the Dutch Auschwitz Committee, and its establishment was supported through donations from various organizations, individuals, and the Dutch government. The National Holocaust Names Monument was officially opened to the public in September 2021, providing a dedicated space in the Netherlands for reflection and remembrance of Holocaust victims.</t>
-  </si>
-  <si>
-    <t>Café Binnen Buiten is a bar located in Amsterdam, known for its cozy and inviting atmosphere, which attracts both locals and tourists. Its geographical coordinates are 52.3547976 latitude and 4.8872165 longitude, situating it in a central part of the city.
-The bar is popular for its terrace, which is particularly enjoyable during the warmer months. Guests can sit outside, enjoying drinks and light meals in a relaxed outdoor setting. The venue is also known for its friendly service and a good selection of drinks.
-While I don't have specific details on their menu or specific events they may host, places like this often offer a range of alcoholic and non-alcoholic beverages, and sometimes snacks or small dishes typical of casual bar settings in Amsterdam. It is advisable to check their social media pages or website for the most current information on offerings and opening hours.</t>
-  </si>
-  <si>
     <t>Calf &amp; Bloom is a restaurant located in Amsterdam, known for its contemporary dining experience. Situated ideally in the city center, it offers a convenient spot for both locals and tourists. The restaurant's ambiance is typically described as modern and inviting, making it a popular choice for casual meals, business lunches, or coffee breaks.
 Calf &amp; Bloom is appreciated for its menu that features a mix of international dishes, often with a focus on fresh and seasonal ingredients. It may also be known for its good selection of wines and cocktails, which complements their food offerings.
 Additionally, given its central location, Calf &amp; Bloom is likely close to popular Amsterdam attractions and shopping areas, adding to its appeal for those who are out exploring the city and want a comfortable place to eat. The restaurant might also offer views of a bustling area or a scenic spot, enhancing the dining experience.
 For specific details such as menu offerings, exact prices, and operational hours, visiting the restaurant’s official website or contacting them directly would provide the most accurate and up-to-date information.</t>
   </si>
   <si>
-    <t>Coffee District Willemsparkweg is a coffee shop located at Willemsparkweg 8h, 1071 HD Amsterdam, Netherlands. Operational hours are from 7.30 AM to 4 PM on weekdays and 8.30 AM to 5 PM on weekends. The café is known for its bright and friendly environment, superb customer service, and a variety of delicious coffees and pastries. It has a unique bohemian/indie vibe with a comfortable seating arrangement. They serve Mediterranean cuisine with a menu that includes breakfast, lunch, dinner, brunch, and drinks. The price range is affordable, between $2 and $10. The shop also offers to-go services. The company began its journey in 2017 as a coffee bar in a fashion store in Amsterdam Zuid and expanded when the fashion store closed in 2019.</t>
-  </si>
-  <si>
-    <t>Rijksmuseum w Amsterdamie to skarbnica sztuki, oferująca porywające kolekcje z Złotego Wieku Holandii oraz szeroki zakres dzieł europejskich. Znajdujące się w nim arcydzieła takich mistrzów jak Rembrandt czy Vermeer, wyróżniają się wśród ponad miliona eksponatów. Sam gmach muzeum, zaprojektowany przez Pierre'a Cuypersa i zbudowany w 1885 roku, jest równie imponujący co przechowywane w nim skarby, łącząc elementy gotyku z renesansem.</t>
-  </si>
-  <si>
-    <t>Muzeum Vincenta van Gogha w Amsterdamie jest świątynią sztuki dedykowaną dziełom tego holenderskiego malarza oraz jego współczesnym. Odwiedzający mogą podziwiać tam ponad 200 malowideł i 500 rysunków Van Gogha, w tym słynne "Słoneczniki" i "Pokój w Arles." Architektura muzeum, z nowoczesnym skrzydłem zaprojektowanym przez Kisho Kurokawę, łączy w sobie naturalne światło z modernistycznymi formami, tworząc idealne tło dla mistrzowskich prac.</t>
-  </si>
-  <si>
-    <t>Dom Anny Frank w Amsterdamie to muzeum ulokowane w domu z XVII wieku, znane jako "Skrzydło Tajne", gdzie młoda diarystka wraz z rodziną ukrywali się przed prześladowaniami nazistowskimi. Obecnie, miejsce to nie tylko zachowało autentyczne skrytki, ale także oferuje edukacyjne programy, promujące tolerancję i zrozumienie. Przyciąga ponad milion odwiedzających rocznie, udostępniając poruszającą opowieść Anny Frank i podnosząc świadomość o zagrożeniach wynikających z antysemityzmu oraz dyskryminacji.</t>
-  </si>
-  <si>
-    <t>Vondelpark, serce Amsterdamu, oferuje odwiedzającym szerokie spektrum atrakcji na łonie natury, od piknikowania i joggingu po spektakle w teatrze na świeżym powietrzu. Rozciągający się na około 120 akrach, park zachęca swoimi zielonymi przestrzeniami, różanym ogrodem z ponad 70 gatunkami róż oraz kawiarniami, które kiedyś służyły jako punkty orzeźwienia. Vondelpark to więcej niż tylko miejsce odpoczynku, to dynamiczna przestrzeń kulturalna i historyczna, którą rocznie odwiedza około 10 milionów osób.</t>
-  </si>
-  <si>
-    <t>Natura Artis Magistra, znany również jako Artis, to historyczny ogród zoologiczny w centrum Amsterdamu. Otwarty w 1838 roku jako najstarsze takie miejsce w Holandii, szczyci się różnorodnością gatunków zwierząt i naturalistycznymi siedliskami. Oferuje nie tylko możliwość obserwacji zwierząt, ale również akwarium, planetarium oraz programy edukacyjne i wystawy, akcentując swoje zaangażowanie w ochronę przyrody i dziedzictwa kulturowego.</t>
-  </si>
-  <si>
-    <t>Madame Tussauds Amsterdam zlokalizowane na słynnym Dam Square, to więcej niż tylko muzeum woskowych figurek. Odwiedzający mają szansę na bliskie spotkania z woskowymi replikami znanych osobistości i mogą częściowo doświadczać ich świata dzięki interaktywnym wystawom. Połączenie sztuki, historii i rozrywki sprawia, że jest to kluczowy punkt na mapie Amsterdamu dla turystów.</t>
-  </si>
-  <si>
-    <t>A'DAM Lookout to miejsce, które łączy zaawansowane technologie audiowizualne z widokiem na panoramiczną panoramę Amsterdamu. Znajduje się na 20-piętrowym budynku, oferującym nie tylko zapierające dech w piersiach widoki, ale także niezwykłą atrakcję - huśtawkę Over The Edge, która jest najwyższą huśtawką w Europie. Obiekt ten, oprócz punktu widokowego, gromadzi różnorodne funkcje jak restauracje, bar, hotel oraz nocny klub, przyciągając mieszkańców i turystów poszukujących nowoczesnej kultury miejskiej.</t>
-  </si>
-  <si>
-    <t>Pałac Królewski w Amsterdamie, pierwotnie ratusz, stanowi dzisiaj nie tylko rezydencję monarchiczną, ale i dynamiczne centrum turystyczne. Charakterystyczną cechą tego miejsca są jego marmurowe posadzki i impresjonujące dzieła sztuki, które zdobią wnętrza od czasów, kiedy Amsterdam kwitł jako ośrodek potęgi w Złotym Wieku Holandii. Oprócz funkcji reprezentacyjnych, pałac otwiera swoje drzwi dla zwiedzających, oferując wgląd w bogatą historię i wytworny dekor wnętrz.</t>
-  </si>
-  <si>
-    <t>Foodhallen w Amsterdamie to żywa, multikulturowa przestrzeń kulinarna, mieszcząca się w odnowionym kompleksie De Hallen. Odwiedzający mogą skosztować rozmaitych potraw z całego świata w jednym miejscu, od lokalnych holenderskich przysmaków po egzotyczne azjatyckie dania. Znajdujące się tu bary oferują szeroki wybór piw rzemieślniczych i koktajli, tworząc idealne warunki do socjalizacji w industrialnych wnętrzach starego zajezdnia tramwajowego.</t>
-  </si>
-  <si>
-    <t>Muzeum Domu Rembrandta w Amsterdamie to wyjątkowe miejsce, gdzie artysta mieszkał i tworzył swoje dzieła przez prawie dwie dekady. Odrestaurowany budynek pozwala zobaczyć, jak wyglądało życie i praca Rembrandta, oferując zarówno stałą kolekcję jego rycin, jak i wystawy tymczasowe. Muzeum, będące zarówno hołdem dla dziedzictwa artysty, jak i centrum edukacyjnym, organizuje warsztaty i demonstracje, przybliżające odwiedzającym techniki malarskie i graficzne XVII wieku.</t>
-  </si>
-  <si>
-    <t>Winkel 43, umiejscowiona w sercu malowniczego dzielnicy Jordaan w Amsterdamie, jest kawiarnią, która zdobyła uznanie dzięki swojej legendarnej szarlotce. Lokal oferuje zarówno smaczne dania śniadaniowe, jak i obiadowe, stając się idealnym miejscem na przerwę podczas odwiedzin tamtejszych targów. Oferując zarówno wygodne wnętrze jak i zewnętrzne siedzenia idealne do obserwacji tętniącego życiem Noordermarkt, Winkel 43 przyciąga zarówno mieszkańców, jak i turystów.</t>
-  </si>
-  <si>
-    <t>Scheepvaartmuseum w Amsterdamie to miejsce, gdzie historia morska ożywa w interaktywnej formie. Znany również jako Narodowe Muzeum Morskie, mieści się w zabytkowym magazynie z XVII wieku i oferuje wirtualne podróże morskie oraz możliwość zwiedzenia repliki statku towarowego z XVIII wieku. To dynamiczne centrum kulturalne przyciąga zarówno turystów, jak i mieszkańców, pragnących zgłębić bogatą morską historię Holandii.</t>
-  </si>
-  <si>
-    <t>Oude Kerk, najstarszy budynek Amsterdamu, kryje w sobie nie tylko dziedzictwo religijne, ale również artystyczne. Jego imponujący drewniany dach oraz podłoga pokryta 2500 nagrobkami tworzą niepowtarzalne tło dla wystaw sztuki współczesnej i koncertów. Kościół ten, będący niegdyś katolickim miejscem kultu, dziś łączy w sobie bogatą historię z nowoczesnymi praktykami artystycznymi, stanowiąc jedno z kluczowych centrów kulturalnych w Amsterdamie.</t>
-  </si>
-  <si>
-    <t>Heineken Experience w Amsterdamie oferuje podróż przez historię browaru w oryginalnie zachowanym miejscu produkcji piwa, które działało od 1867 do 1988 roku. Zwiedzający mogą uczestniczyć w interaktywnym zwiedzaniu, poznając składniki, proces warzenia piwa oraz strategie marki. Atrakcją jest możliwość degustacji piwa prosto z browaru oraz symulacja procesu warzenia z perspektywy butelki piwa.</t>
-  </si>
-  <si>
-    <t>EYE Film Museum w Amsterdamie to dynamiczne centrum kultury filmowej. Jego nowoczesna, futurystyczna architektura na brzegu rzeki IJ stanowi tło dla bogatych zbiorów filmów holenderskich i międzynarodowych oraz interaktywnych wystaw poświęconych kinematografii. Regularne wydarzenia kinowe oraz dostęp do obszernej biblioteki filmowej sprawiają, że jest to kluczowe miejsce dla miłośników filmu.</t>
-  </si>
-  <si>
-    <t>"This is Holland" to niezwykła atrakcja turystyczna w Amsterdamie, która oferuje symulację lotu 5D. Wizytujący mogą podziwiać z lotu ptaka krajobrazy, zabytki i miasta Holandii, a dodatkowe efekty takie jak wiatr, mgła czy zapachy zapewniają niezwykle realistyczne doznania. Atrakcja ta łączy edukacyjne wprowadzenie dotyczące geografii i historii Holandii z głównym pokazem symulacji lotu, co czyni ją atrakcyjną dla rodzin i osób pragnących zyskać wszechstronny ogląd kraju bez opuszczania Amsterdamu.</t>
-  </si>
-  <si>
-    <t>The Pancake Bakery, zlokalizowana w zabytkowym budynku z XVII wieku nad kanałem w Amsterdamie, jest znana z różnorodnego menu naleśników. Restauracja łączy tradycyjne holenderskie smaki z międzynarodowymi przysmakami, dostarczając szeroki wybór opcji na słodko i wytrawnie. Bliskość do głównych atrakcji turystycznych miasta jak Dom Anne Frank czyni ją dogodnym miejscem dla odwiedzających.</t>
-  </si>
-  <si>
-    <t>Brouwerij 't IJ w Amsterdamie to nie tylko browar, ale także kulturowy punkt orientacyjny miasta, malowniczo położony przy historycznym wiatraku De Gooyer. Od 1985 roku tworzy piwa organiczne z belgijskim zacięciem, czyniąc z miejsca zarówno atrakcję turystyczną, jak i lokalne ulubione miejsce spotkań. Można tam nie tylko skosztować bogatej oferty piw, ale również zobaczyć, jak funkcjonuje nowoczesne piwowarstwo, podczas krótkich wycieczek po obiekcie.</t>
-  </si>
-  <si>
-    <t>Micropia w Amsterdamie to pierwsze na świecie muzeum poświęcone mikroorganizmom, takim jak bakterie, wirusy i grzyby. To interaktywne i edukacyjne miejsce ukazuje, jak mikroby wpływają na nasze zdrowie, żywność i ekosystem. Odwiedzający mają okazję obserwować żywe mikroby przez specjalne mikroskopy oraz odkrywać ich znaczenie w biotechnologii.</t>
-  </si>
-  <si>
-    <t>Restauracja Moeders w Amsterdamie to miejsce, gdzie każdy zakątek opowiada historię o miłości do kuchni rodzinnej. Wnętrze tego ciepłego zakątka pokryte jest ścianami pełnymi zdjęć matek, przynoszących wspomnienia domowych posiłków. Menu oferuje obfite porcje tradycyjnych holenderskich dań, takich jak stamppot czy suddervlees, które zadowolą zarówno miejscowych, jak i podróżników.</t>
-  </si>
-  <si>
-    <t>National Monument w Amsterdamie jest monumentalną, białą kolumną, która wznosi się na wysokość 22 metrów. Została wzniesiona w 1956 roku, aby upamiętnić ofiary II wojny światowej i pełni rolę centralnego miejsca narodowej pamięci. Obiekt charakteryzuje się niskimi płaskorzeźbami oraz rzeźbami, które symbolizują pokój, opór i wyzwolenie, a także zawiera urny z ziemią z pól bitewnych z całej Holandii. Każdego roku, 4 maja, podczas Dnia Pamięci Narodowej, odbywają się tu główne uroczystości z udziałem rodziny królewskiej.</t>
-  </si>
-  <si>
-    <t>Vegan Junk Food Bar w Amsterdamie przekształca tradycyjne postrzeganie wegańskiej kuchni, serwując pyszne, roślinne odpowiedniki popularnych przekąsek. Od burgerów po frytki, wszystko jest przygotowane bez składników pochodzenia zwierzęcego, prezentując atrakcyjną i kolorową estetykę, która przyciąga młodszych, aktywnych w mediach społecznościowych gości. W tętniącym życiem i swobodnym miejscu, można doświadczyć nowej, ekscytującej odsłony kulinariów w sercu jednego z najbardziej innowacyjnych miast Europy.</t>
-  </si>
-  <si>
-    <t>Fabel Friet w Amsterdamie to lokal specjalizujący się w smażonych ziemniakach i kroketach, który zapewnia gościom potrawy z lokalnych składników w przystępnej cenie. Wyróżnia się wyjątkowymi daniami takimi jak krokiet ziemniaczany z truflowym majonezem czy frytki z parmezanem, przyciągając smakoszy żądnymi chrupiących przekąsek. Otwarty niemalże codziennie, ten niewielki lokal zdobył uznanie za najlepsze frytki w mieście.</t>
-  </si>
-  <si>
-    <t>Nieuwe Kerk, sytuowany na placu Dam w Amsterdamie, łączy w sobie bogatą tradycję królewskich ceremonii z nowoczesnym wykorzystaniem jako przestrzeń wystawiennicza. Jego gotycka architektura i monumentalne organy przyciągają miłośników kultury i historii, oferując ekspozycje sztuki i fotografii oraz koncerty organowe. Miejsce to również jest kluczowym punktem podczas Krajowej Ceremonii Pamięci 4 maja.</t>
-  </si>
-  <si>
-    <t>Amsterdam Cheese Museum to nie tylko muzeum, ale także sklep znajdujący się blisko Domu Anny Frank, który oferuje bogaty wachlarz holenderskich serów do degustacji i zakupu. Obiekt łączy edukację o historii i metodach produkcji sera w Holandii z interaktywnymi wystawami, umożliwiając odwiedzającym zrozumienie roli sera w kulturze i kuchni holenderskiej. Odwiedzający mają okazję doświadczyć życia holenderskiego rolnika i zgłębić procesy tworzenia różnych serów.</t>
-  </si>
-  <si>
-    <t>The Old Bell, położony w sercu Amsterdamu, jest popularnym pubem, który przyciąga zarówno turystów, jak i mieszkańców miasta. Oceniany za staroświecki, unikalny urok oraz doskonałe piwa, lokal oferuje przytulną atmosferę i wysoką jakość obsługi. Jest łatwo dostępny, znajdując się tylko kilka kroków od przystanku tramwajowego.</t>
-  </si>
-  <si>
-    <t>FEBO Amsterdam - Oudezijds Voorburgwal to lokacja znanego holenderskiego łańcucha szybkich przekąsek, oferująca jedzenie w unikalnym stylu automatów vendingowych. Położona w tętniącej życiem części Amsterdamu, FEBO przyciąga zarówno miejscowych, jak i turystów, którzy poszukują szybkich i smacznych opcji jedzenia blisko głównych atrakcji miasta. Klienci mogą w prosty sposób wybierać spośród różnorodnych smaków krokietów, frytek i innych typowo holenderskich snacków, ciesząc się jednocześnie wygodą samodzielnego serwisu.</t>
-  </si>
-  <si>
-    <t>De Tulp w Amsterdamie to prawdziwy raj dla milosników egzotycznych klimatów. To restauracja otoczona zielenią, z tropikalną dekoracją i przestronnym tarasem, doskonała na letnie dni. Serwuje dania międzynarodowe na wspólnych talerzach oraz różnorodne koktajle, tworząc idealne miejsce na spotkania towarzyskie i relaks w sercu tętniącej życiem dzielnicy De Pijp.</t>
-  </si>
-  <si>
-    <t>LOCALS All Day Brunch w Amsterdamie przyciąga gości swoją różnorodnością opcji śniadaniowych i brunchowych serwowanych przez cały dzień. Usytuowane blisko Dzielnicy Muzeów, to miejsce kusi także wieczorami klasycznymi włoskimi daniami. Pomimo drobnych uwag na temat wolnej obsługi, kawiarnia cieszy się dobrą reputacją wśród odwiedzających.</t>
-  </si>
-  <si>
-    <t>Zlokalizowany w sercu Amsterdamu, Loulou Pizzabar oferuje nie tylko standardowe włoskie przysmaki, ale także niezwykłe wariacje pizzy, przyciągając miłośników zdrowej kuchni. W menu znaleźć można opcje bezglutenowe oraz klasyczne dania jak Margherita czy pikantny Salame Ventricina. Restauracja, inspirowana przez amerykańsko-włoską kobietę, zdobywa uznanie zarówno za jakość potraw, jak i przyjazną atmosferę.</t>
-  </si>
-  <si>
-    <t>Corner Bakery w Amsterdamie to modna kawiarnia, która oferuje bogaty wybór śniadań i lunchy, znana z całodziennych śniadań oraz ekstrawaganckich milkshake'ów. Usytuowana przy Johannes Vermeerstraat, przyciąga smakoszy różnorodnością sałatek, kanapek, ciast i naleśników. Lokal cieszy się dobrymi opiniami i ma klimatyczne wnętrze, idealne na rozpoczęcie dnia przy filiżance jakościowej kawy.</t>
-  </si>
-  <si>
-    <t>Takumi Ramen Kitchen to restauracja z ramenem w Amsterdamie, słynąca z różnorodności, włączając dania wegańskie, oraz wysokiej jakości obsługi. Założona w 2007 roku przez entuzjastów kuchni azjatyckiej, z powiedzeniem "No ramen, no life", przyciąga zarówno lokalnych, jak i podróżujących, choć czasem trzeba uzbroić się w cierpliwość, aby móc delektować się ich wyśmienitym kurczakiem ramen. Wysoko oceniana przez odwiedzających za idealnie ugotowane dania, restauracja utrzymuje solidną pozycję wśród licznych opcji gastronomicznych miasta.</t>
-  </si>
-  <si>
-    <t>The Pancake Club w Amsterdamie to lokalny przysmak z widokiem na kanał, gdzie można się delektować zarówno tradycyjnymi holenderskimi nalesnikami jak i międzynarodowymi wariacjami. Bez możliwości rezerwacji, ten przyjazny dla wegetarian i weganków lokal oferuje doświadczenie pełne smaku przy okazji krótkiego wypadu. Ceny wahają się w przystępnym zakresie, a dodatkowym atutem jest malownicza lokalizacja z tarasem nad wodą.</t>
-  </si>
-  <si>
-    <t>Quartier Putain, ulokowane w samym sercu amsterdamskiej Dzielnicy Czerwonych Latarni, oferuje więcej niż tylko kawę najwyższej jakości. Wyróżniające się swobodną atmosferą, kawiarnia ta jest miejscem spotkań zarówno dla miejscowych, jak i zwiedzających, zapewniając przyjemny przystanek wśród tętniącego życiem nocnego miasta. Nazwa „Quartier Putain”, odnosząca się do lokalizacji i francuskiego slangu, dodaje lokalowi charakteru, przyciągając tych, którzy cenią sobie kulturę i niebanalność.</t>
-  </si>
-  <si>
     <t>Monte Pelmo to lodziarnia w sercu Amsterdamu, gdzie domowej roboty lody w różnorodnych i kreatywnych smakach przyciągają zarówno mieszkańców, jak i turystów. Znajdując się w strategicznej lokalizacji, łatwo dostępna dla odkrywców miasta, uchodzi za miejsce o przyjaznej atmosferze i doskonałej jakości produktach.</t>
   </si>
   <si>
-    <t>The National Holocaust Names Monument in Amsterdam serves as a profound space of remembrance for over 102,000 Jews and 220 Roma and Sinti lost during the Holocaust. The design by Daniel Libeskind features walls spelling out "לזכר" (L'Zikaron), Hebrew for "In Memory of," with each brick engraved with a victim's name. Officially inaugurated in 2021, the monument offers a space for reflection and education on the atrocities faced by these communities.</t>
-  </si>
-  <si>
-    <t>Cafe Binnen Buiten, położone w sercu Amsterdamu, jest miejscem, które przyciąga swoim przytulnym klimatem zarówno mieszkańców, jak i turystów. Bar słynie ze swojej urokliwej tarasy, idealnej do spędzenia czasu na świeżym powietrzu, popijając drinki i kosztując lekkie posiłki. Goście chwalą to miejsce za przyjazną obsługę oraz bogaty wybór napojów.</t>
-  </si>
-  <si>
-    <t>Calf &amp; Bloom to restauracja w centrum Amsterdamu, która łączy nowoczesną atmosferę z międzynarodowym menu bazującym na świeżych, sezonowych składnikach. Lokal jest idealnym przystankiem zarówno dla turystów, jak i mieszkańców miasta, szukających miejsca na nieformalny posiłek czy przerwę na kawę. Położenie w sercu miasta umożliwia łatwy dostęp do lokalnych atrakcji i sklepów, co dodatkowo zwiększa jego atrakcyjność.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee District Willemsparkweg w Amsterdamie łączy styl boho z indie tworząc przytulne miejsce, idealne na każdy posiłek dnia. Oferując przestronne wnętrze i różnorodne menu śródziemnomorskie, kawiarnia jest znana z wyśmienitej kawy i wypieków. Rozpoczęcie działalności jako kawałek modowego świata w 2017 roku dodaje miejscu wyjątkowego charakteru z odrobiną historii mody.
-</t>
+    <t>Rijksmuseum to skarbnica sztuki, oferująca porywające kolekcje z Złotego Wieku Holandii oraz szeroki zakres dzieł europejskich. Znajdujące się w nim arcydzieła takich mistrzów jak Rembrandt czy Vermeer, wyróżniają się wśród ponad miliona eksponatów. Sam gmach muzeum, zaprojektowany przez Pierre'a Cuypersa i zbudowany w 1885 roku, jest równie imponujący co przechowywane w nim skarby, łącząc elementy gotyku z renesansem.</t>
+  </si>
+  <si>
+    <t>Muzeum Vincenta van Gogha jest świątynią sztuki dedykowaną dziełom tego holenderskiego malarza oraz jego współczesnym. Odwiedzający mogą podziwiać tam ponad 200 malowideł i 500 rysunków Van Gogha, w tym słynne "Słoneczniki" i "Pokój w Arles." Architektura muzeum, z nowoczesnym skrzydłem zaprojektowanym przez Kisho Kurokawę, łączy w sobie naturalne światło z modernistycznymi formami, tworząc idealne tło dla mistrzowskich prac.</t>
+  </si>
+  <si>
+    <t>Dom Anny Frank to muzeum ulokowane w domu z XVII wieku, znane jako "Skrzydło Tajne", gdzie młoda diarystka wraz z rodziną ukrywali się przed prześladowaniami nazistowskimi. Przyciąga ponad milion odwiedzających rocznie, udostępniając poruszającą opowieść Anny Frank i podnosząc świadomość o zagrożeniach wynikających z antysemityzmu oraz dyskryminacji.</t>
+  </si>
+  <si>
+    <t>Vondelpark oferuje odwiedzającym szerokie spektrum atrakcji na łonie natury, od piknikowania i joggingu po spektakle w teatrze na świeżym powietrzu. Rozciągający się na około 120 akrach, park zachęca swoimi zielonymi przestrzeniami, różanym ogrodem z ponad 70 gatunkami róż oraz kawiarniami. Vondelpark to więcej niż tylko miejsce odpoczynku, to dynamiczna przestrzeń kulturalna i historyczna, którą rocznie odwiedza około 10 milionów osób.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natura Artis Magistra, znany również jako Artis, to historyczny ogród zoologiczny w centrum miasta. Otwarty w 1838 roku jako najstarsze takie miejsce w Holandii, szczyci się różnorodnością gatunków zwierząt i naturalistycznymi siedliskami. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madame Tussauds Amsterdam zlokalizowane na słynnym Dam Square, to więcej niż tylko muzeum woskowych figurek. Odwiedzający mają szansę na bliskie spotkania z woskowymi replikami znanych osobistości i mogą częściowo doświadczać ich świata dzięki interaktywnym wystawom. </t>
+  </si>
+  <si>
+    <t>A'DAM Lookout to miejsce, które łączy zaawansowane technologie audiowizualne z widokiem na miasto. Znajduje się na 20-piętrowym budynku, oferującym nie tylko zapierające dech w piersiach widoki, ale także niezwykłą atrakcję - huśtawkę Over The Edge, która jest najwyższą huśtawką w Europie. Obiekt ten, oprócz punktu widokowego, gromadzi różnorodne funkcje jak restauracje, bar, hotel oraz nocny klub, przyciągając mieszkańców i turystów poszukujących nowoczesnej kultury miejskiej.</t>
+  </si>
+  <si>
+    <t>Pałac Królewski, pierwotnie ratusz, stanowi dzisiaj nie tylko rezydencję monarchiczną, ale i dynamiczne centrum turystyczne. Charakterystyczną cechą tego miejsca są jego marmurowe posadzki i impresjonujące dzieła sztuki, które zdobią wnętrza od czasów, kiedy Amsterdam kwitł jako ośrodek potęgi w Złotym Wieku Holandii.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodhallen to żywa, multikulturowa przestrzeń kulinarna, mieszcząca się w odnowionym kompleksie De Hallen. Odwiedzający mogą skosztować rozmaitych potraw z całego świata w jednym miejscu, od lokalnych holenderskich przysmaków po egzotyczne azjatyckie dania. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muzeum Domu Rembrandta to wyjątkowe miejsce, gdzie artysta mieszkał i tworzył swoje dzieła przez prawie dwie dekady. Odrestaurowany budynek pozwala zobaczyć, jak wyglądało życie i praca Rembrandta, oferując zarówno stałą kolekcję jego rycin, jak i wystawy tymczasowe. </t>
+  </si>
+  <si>
+    <t>Winkel 43, umiejscowiona w sercu malowniczego dzielnicy Jordaan, jest kawiarnią, która zdobyła uznanie dzięki swojej legendarnej szarlotce. Lokal oferuje zarówno smaczne dania śniadaniowe, jak i obiadowe, stając się idealnym miejscem na przerwę podczas odwiedzin tamtejszych targów.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheepvaartmuseum to miejsce, gdzie historia morska ożywa w interaktywnej formie. Znany również jako Narodowe Muzeum Morskie, mieści się w zabytkowym magazynie z XVII wieku i oferuje wirtualne podróże morskie oraz możliwość zwiedzenia repliki statku towarowego z XVIII wieku. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oude Kerk, najstarszy budynek Amsterdamu, kryje w sobie nie tylko dziedzictwo religijne, ale również artystyczne. Jego imponujący drewniany dach oraz podłoga pokryta 2500 nagrobkami tworzą niepowtarzalne tło dla wystaw sztuki współczesnej i koncertów. </t>
+  </si>
+  <si>
+    <t>Heineken Experience oferuje podróż przez historię browaru w oryginalnie zachowanym miejscu produkcji piwa, które działało od 1867 do 1988 roku. Zwiedzający mogą uczestniczyć w interaktywnym zwiedzaniu, poznając składniki, proces warzenia piwa oraz strategie marki. Atrakcją jest możliwość degustacji piwa prosto z browaru oraz symulacja procesu warzenia z perspektywy butelki piwa.</t>
+  </si>
+  <si>
+    <t>EYE Film Museum to dynamiczne centrum kultury filmowej. Jego nowoczesna, futurystyczna architektura na brzegu rzeki IJ stanowi tło dla bogatych zbiorów filmów holenderskich i międzynarodowych oraz interaktywnych wystaw poświęconych kinematografii. Regularne wydarzenia kinowe oraz dostęp do obszernej biblioteki filmowej sprawiają, że jest to kluczowe miejsce dla miłośników filmu.</t>
+  </si>
+  <si>
+    <t>"This is Holland" to niezwykła atrakcja turystyczna, która oferuje symulację lotu 5D. Wizytujący mogą podziwiać z lotu ptaka krajobrazy, zabytki i miasta Holandii, a dodatkowe efekty takie jak wiatr, mgła czy zapachy zapewniają niezwykle realistyczne doznania. Atrakcja ta łączy edukacyjne wprowadzenie dotyczące geografii i historii Holandii z głównym pokazem symulacji lotu, co czyni ją atrakcyjną dla rodzin i osób pragnących zyskać wszechstronny ogląd kraju bez opuszczania Amsterdamu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pancake Bakery, zlokalizowana w zabytkowym budynku z XVII wieku nad kanałem w Amsterdamie, jest znana z różnorodnego menu naleśników. Restauracja łączy tradycyjne holenderskie smaki z międzynarodowymi przysmakami, dostarczając szeroki wybór opcji na słodko i wytrawnie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brouwerij 't IJ to nie tylko browar, ale także kulturowy punkt orientacyjny miasta, malowniczo położony przy historycznym wiatraku De Gooyer. Od 1985 roku tworzy piwa organiczne z belgijskim zacięciem, czyniąc z miejsca zarówno atrakcję turystyczną, jak i lokalne ulubione miejsce spotkań. </t>
+  </si>
+  <si>
+    <t>Micropia to pierwsze na świecie muzeum poświęcone mikroorganizmom, takim jak bakterie, wirusy i grzyby. To interaktywne i edukacyjne miejsce ukazuje, jak mikroby wpływają na nasze zdrowie, żywność i ekosystem. Odwiedzający mają okazję obserwować żywe mikroby przez specjalne mikroskopy oraz odkrywać ich znaczenie w biotechnologii.</t>
+  </si>
+  <si>
+    <t>Restauracja Moeders to miejsce, gdzie każdy zakątek opowiada historię o miłości do kuchni rodzinnej. Wnętrze tego ciepłego zakątka pokryte jest ścianami pełnymi zdjęć matek, przynoszących wspomnienia domowych posiłków. Menu oferuje obfite porcje tradycyjnych holenderskich dań, takich jak stamppot czy suddervlees, które zadowolą zarówno miejscowych, jak i podróżników.</t>
+  </si>
+  <si>
+    <t>National Monument jest monumentalną, białą kolumną, która wznosi się na wysokość 22 metrów. Została wzniesiona w 1956 roku, aby upamiętnić ofiary II wojny światowej i pełni rolę centralnego miejsca narodowej pamięci. Obiekt charakteryzuje się niskimi płaskorzeźbami oraz rzeźbami, które symbolizują pokój, opór i wyzwolenie, a także zawiera urny z ziemią z pól bitewnych z całej Holandii. Każdego roku, 4 maja, podczas Dnia Pamięci Narodowej, odbywają się tu główne uroczystości z udziałem rodziny królewskiej.</t>
+  </si>
+  <si>
+    <t>Vegan Junk Food Bar przekształca tradycyjne postrzeganie wegańskiej kuchni, serwując pyszne, roślinne odpowiedniki popularnych przekąsek. Od burgerów po frytki, wszystko jest przygotowane bez składników pochodzenia zwierzęcego, prezentując atrakcyjną i kolorową estetykę, która przyciąga młodszych, aktywnych w mediach społecznościowych gości. W tętniącym życiem i swobodnym miejscu, można doświadczyć nowej, ekscytującej odsłony kulinariów w sercu jednego z najbardziej innowacyjnych miast Europy.</t>
+  </si>
+  <si>
+    <t>Fabel Friet to lokal specjalizujący się w smażonych ziemniakach i kroketach, który zapewnia gościom potrawy z lokalnych składników w przystępnej cenie. Wyróżnia się wyjątkowymi daniami takimi jak krokiet ziemniaczany z truflowym majonezem czy frytki z parmezanem, przyciągając smakoszy żądnymi chrupiących przekąsek.</t>
+  </si>
+  <si>
+    <t>Nieuwe Kerk, sytuowany na placu Dam, łączy w sobie bogatą tradycję królewskich ceremonii z nowoczesnym wykorzystaniem jako przestrzeń wystawiennicza. Jego gotycka architektura i monumentalne organy przyciągają miłośników kultury i historii, oferując ekspozycje sztuki i fotografii oraz koncerty organowe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amsterdam Cheese Museum to nie tylko muzeum, ale także sklep znajdujący się blisko Domu Anny Frank, który oferuje bogaty wachlarz holenderskich serów do degustacji i zakupu. Obiekt łączy edukację o historii i metodach produkcji sera w Holandii z interaktywnymi wystawami, umożliwiając odwiedzającym zrozumienie roli sera w kulturze i kuchni holenderskiej. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Old Bell, położony w sercu Amsterdamu, jest popularnym pubem, który przyciąga zarówno turystów, jak i mieszkańców. Oceniany za staroświecki, unikalny urok oraz doskonałe piwa, lokal oferuje przytulną atmosferę i wysoką jakość obsługi. </t>
+  </si>
+  <si>
+    <t>De Tulp to prawdziwy raj dla milosników egzotycznych klimatów. To restauracja otoczona zielenią, z tropikalną dekoracją i przestronnym tarasem, doskonała na letnie dni. Serwuje dania międzynarodowe na wspólnych talerzach oraz różnorodne koktajle, tworząc idealne miejsce na spotkania towarzyskie i relaks w sercu tętniącej życiem dzielnicy De Pijp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCALS All Day Brunch przyciąga gości swoją różnorodnością opcji śniadaniowych i brunchowych serwowanych przez cały dzień. Usytuowane blisko Dzielnicy Muzeów, to miejsce kusi także wieczorami klasycznymi włoskimi daniami. </t>
+  </si>
+  <si>
+    <t>Zlokalizowany w sercu Amsterdamu, Loulou Pizzabar oferuje nie tylko standardowe włoskie przysmaki, ale także niezwykłe wariacje pizzy, przyciągając miłośników zdrowej kuchni. W menu znaleźć można opcje bezglutenowe oraz klasyczne dania jak Margherita czy pikantny Salame Ventricina.</t>
+  </si>
+  <si>
+    <t>Corner Bakery to modna kawiarnia, która oferuje bogaty wybór śniadań i lunchy, znana z całodziennych śniadań oraz ekstrawaganckich milkshake'ów. Usytuowana przy Johannes Vermeerstraat, przyciąga smakoszy różnorodnością sałatek, kanapek, ciast i naleśników.</t>
+  </si>
+  <si>
+    <t>Takumi Ramen Kitchen to restauracja z ramenem w Amsterdamie, słynąca z różnorodności, włączając dania wegańskie, oraz wysokiej jakości obsługi. Założona w 2007 roku przez entuzjastów kuchni azjatyckiej, z powiedzeniem "No ramen, no life", przyciąga zarówno lokalnych, jak i podróżujących.</t>
+  </si>
+  <si>
+    <t>The Pancake Club to lokalny przysmak z widokiem na kanał, gdzie można się delektować zarówno tradycyjnymi holenderskimi nalesnikami jak i międzynarodowymi wariacjami. Ceny wahają się w przystępnym zakresie, a dodatkowym atutem jest malownicza lokalizacja z tarasem nad wodą.</t>
+  </si>
+  <si>
+    <t>Quartier Putain, ulokowane w samym sercu Dzielnicy Czerwonych Latarni, oferuje więcej niż tylko kawę najwyższej jakości. Nazwa „Quartier Putain”, odnosząca się do lokalizacji i francuskiego slangu, dodaje lokalowi charakteru, przyciągając tych, którzy cenią sobie kulturę i niebanalność.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calf &amp; Bloom to restauracja w centrum Amsterdamu, która łączy nowoczesną atmosferę z międzynarodowym menu bazującym na świeżych, sezonowych składnikach. Lokal jest idealnym przystankiem zarówno dla turystów, jak i mieszkańców miasta, szukających miejsca na nieformalny posiłek czy przerwę na kawę. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1132,17 +1038,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1180,7 +1094,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1214,6 +1128,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1248,9 +1163,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1423,14 +1339,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,109 +1389,109 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>52.3599976</v>
       </c>
       <c r="F2">
-        <v>4.8852188</v>
+        <v>4.8852187999999996</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I2">
         <v>92217</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="M2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>52.3580757</v>
+        <v>52.358075700000001</v>
       </c>
       <c r="F3">
-        <v>4.8812053</v>
+        <v>4.8812053000000004</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I3">
         <v>85484</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>52.3752182</v>
+        <v>52.375218199999999</v>
       </c>
       <c r="F4">
-        <v>4.8839765</v>
+        <v>4.8839765000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H4">
         <v>4.5</v>
@@ -1582,39 +1500,39 @@
         <v>65392</v>
       </c>
       <c r="J4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="M4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>52.3579946</v>
+        <v>52.357994599999998</v>
       </c>
       <c r="F5">
-        <v>4.8686484</v>
+        <v>4.8686483999999997</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H5">
         <v>4.7</v>
@@ -1623,39 +1541,39 @@
         <v>51206</v>
       </c>
       <c r="J5" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>52.3660003</v>
+        <v>52.366000300000003</v>
       </c>
       <c r="F6">
-        <v>4.9165321</v>
+        <v>4.9165321000000004</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>4.5</v>
@@ -1664,39 +1582,39 @@
         <v>31412</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="M6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>52.3725606</v>
       </c>
       <c r="F7">
-        <v>4.8925585</v>
+        <v>4.8925584999999998</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H7">
         <v>4.3</v>
@@ -1705,121 +1623,121 @@
         <v>25800</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E8">
-        <v>52.3837919</v>
+        <v>52.383791899999999</v>
       </c>
       <c r="F8">
-        <v>4.9020733</v>
+        <v>4.9020732999999996</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H8">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I8">
         <v>22947</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="M8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E9">
-        <v>52.3731835</v>
+        <v>52.373183500000003</v>
       </c>
       <c r="F9">
-        <v>4.8913758</v>
+        <v>4.8913757999999996</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H9">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I9">
         <v>22705</v>
       </c>
       <c r="J9" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="M9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E10">
-        <v>52.36678999999999</v>
+        <v>52.366789999999988</v>
       </c>
       <c r="F10">
         <v>4.8679147</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H10">
         <v>4.5</v>
@@ -1828,39 +1746,39 @@
         <v>19194</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="M10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E11">
-        <v>52.369369</v>
+        <v>52.369368999999999</v>
       </c>
       <c r="F11">
-        <v>4.9012349</v>
+        <v>4.9012349000000004</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H11">
         <v>4.5</v>
@@ -1869,80 +1787,80 @@
         <v>12039</v>
       </c>
       <c r="J11" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="M11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>52.3790944</v>
       </c>
       <c r="F12">
-        <v>4.8862844</v>
+        <v>4.8862844000000001</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H12">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I12">
         <v>11208</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="M12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E13">
-        <v>52.3715579</v>
+        <v>52.371557899999999</v>
       </c>
       <c r="F13">
-        <v>4.9143762</v>
+        <v>4.9143762000000004</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H13">
         <v>4.5</v>
@@ -1951,80 +1869,80 @@
         <v>10766</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="M13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>52.3741202</v>
       </c>
       <c r="F14">
-        <v>4.8980196</v>
+        <v>4.8980195999999996</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H14">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I14">
         <v>10330</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="M14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E15">
-        <v>52.3578313</v>
+        <v>52.357831300000001</v>
       </c>
       <c r="F15">
-        <v>4.8918249</v>
+        <v>4.8918248999999996</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H15">
         <v>4.2</v>
@@ -2033,80 +1951,80 @@
         <v>10253</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E16">
-        <v>52.384348</v>
+        <v>52.384348000000003</v>
       </c>
       <c r="F16">
-        <v>4.901276</v>
+        <v>4.9012760000000002</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H16">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I16">
         <v>9882</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E17">
-        <v>52.3841865</v>
+        <v>52.384186499999998</v>
       </c>
       <c r="F17">
-        <v>4.9021959</v>
+        <v>4.9021958999999997</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H17">
         <v>4.7</v>
@@ -2115,39 +2033,39 @@
         <v>9459</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E18">
-        <v>52.3776234</v>
+        <v>52.377623399999997</v>
       </c>
       <c r="F18">
-        <v>4.8861631</v>
+        <v>4.8861631000000001</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H18">
         <v>4.3</v>
@@ -2156,80 +2074,80 @@
         <v>8674</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E19">
-        <v>52.3666908</v>
+        <v>52.366690800000001</v>
       </c>
       <c r="F19">
         <v>4.9264253</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H19">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I19">
         <v>7769</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E20">
         <v>52.3669735</v>
       </c>
       <c r="F20">
-        <v>4.9128242</v>
+        <v>4.9128242000000002</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="H20">
         <v>4.7</v>
@@ -2238,39 +2156,39 @@
         <v>5059</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>52.3717696</v>
       </c>
       <c r="F21">
-        <v>4.8750294</v>
+        <v>4.8750293999999998</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H21">
         <v>4.5</v>
@@ -2279,162 +2197,162 @@
         <v>4552</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E22">
-        <v>52.3728582</v>
+        <v>52.372858200000003</v>
       </c>
       <c r="F22">
-        <v>4.8937001</v>
+        <v>4.8937001000000002</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H22">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I22">
         <v>4373</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E23">
-        <v>52.36638079999999</v>
+        <v>52.366380799999988</v>
       </c>
       <c r="F23">
-        <v>4.891450499999999</v>
+        <v>4.8914504999999986</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H23">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I23">
         <v>3569</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E24">
-        <v>52.3688428</v>
+        <v>52.368842800000003</v>
       </c>
       <c r="F24">
         <v>4.884061</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="H24">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I24">
         <v>3367</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="M24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E25">
-        <v>52.3739052</v>
+        <v>52.373905200000003</v>
       </c>
       <c r="F25">
-        <v>4.8918094</v>
+        <v>4.8918093999999996</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H25">
         <v>4.3</v>
@@ -2443,39 +2361,39 @@
         <v>3366</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E26">
-        <v>52.376389</v>
+        <v>52.376389000000003</v>
       </c>
       <c r="F26">
-        <v>4.884251</v>
+        <v>4.8842509999999999</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H26">
         <v>4.5</v>
@@ -2484,590 +2402,426 @@
         <v>3220</v>
       </c>
       <c r="J26" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="M26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E27">
-        <v>52.3657699</v>
+        <v>52.365769899999997</v>
       </c>
       <c r="F27">
-        <v>4.897425399999999</v>
+        <v>4.8974253999999986</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H27">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I27">
         <v>2029</v>
       </c>
       <c r="J27" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E28">
-        <v>52.3745489</v>
+        <v>52.356841000000003</v>
       </c>
       <c r="F28">
-        <v>4.899742199999999</v>
+        <v>4.8916512000000001</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H28">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I28">
-        <v>1855</v>
+        <v>1598</v>
       </c>
       <c r="J28" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="M28" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E29">
-        <v>52.356841</v>
+        <v>52.357547399999987</v>
       </c>
       <c r="F29">
-        <v>4.8916512</v>
+        <v>4.8891125999999998</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H29">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I29">
-        <v>1598</v>
+        <v>1563</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="M29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E30">
-        <v>52.35754739999999</v>
+        <v>52.355804900000003</v>
       </c>
       <c r="F30">
-        <v>4.8891126</v>
+        <v>4.9074458999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H30">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I30">
-        <v>1563</v>
+        <v>1388</v>
       </c>
       <c r="J30" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E31">
-        <v>52.3558049</v>
+        <v>52.354719099999997</v>
       </c>
       <c r="F31">
-        <v>4.9074459</v>
+        <v>4.8840307999999997</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H31">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I31">
-        <v>1388</v>
+        <v>1309</v>
       </c>
       <c r="J31" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="M31" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E32">
-        <v>52.3547191</v>
+        <v>52.356350799999987</v>
       </c>
       <c r="F32">
-        <v>4.8840308</v>
+        <v>4.8904576000000004</v>
       </c>
       <c r="G32" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H32">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I32">
-        <v>1309</v>
+        <v>1090</v>
       </c>
       <c r="J32" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="M32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E33">
-        <v>52.35635079999999</v>
+        <v>52.362637499999998</v>
       </c>
       <c r="F33">
-        <v>4.8904576</v>
+        <v>4.8812726</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H33">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I33">
-        <v>1090</v>
+        <v>1049</v>
       </c>
       <c r="J33" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="M33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E34">
-        <v>52.3626375</v>
+        <v>52.374611700000003</v>
       </c>
       <c r="F34">
-        <v>4.8812726</v>
+        <v>4.8987049999999996</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H34">
-        <v>4.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I34">
-        <v>1049</v>
+        <v>985</v>
       </c>
       <c r="J34" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="M34" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E35">
-        <v>52.3746117</v>
+        <v>52.377527200000003</v>
       </c>
       <c r="F35">
-        <v>4.898705</v>
+        <v>4.8817078999999994</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H35">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I35">
-        <v>985</v>
+        <v>838</v>
       </c>
       <c r="J35" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="M35" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E36">
-        <v>52.3775272</v>
+        <v>52.367182399999997</v>
       </c>
       <c r="F36">
-        <v>4.881707899999999</v>
+        <v>4.8915376999999998</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="H36">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I36">
-        <v>838</v>
+        <v>618</v>
       </c>
       <c r="J36" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="M36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37">
-        <v>52.3657243</v>
-      </c>
-      <c r="F37">
-        <v>4.9049236</v>
-      </c>
-      <c r="G37" t="s">
-        <v>158</v>
-      </c>
-      <c r="H37">
-        <v>4.8</v>
-      </c>
-      <c r="I37">
-        <v>667</v>
-      </c>
-      <c r="J37" t="s">
-        <v>196</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>235</v>
-      </c>
-      <c r="M37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38">
-        <v>52.3547976</v>
-      </c>
-      <c r="F38">
-        <v>4.8872165</v>
-      </c>
-      <c r="G38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H38">
-        <v>4.3</v>
-      </c>
-      <c r="I38">
-        <v>659</v>
-      </c>
-      <c r="J38" t="s">
-        <v>197</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>236</v>
-      </c>
-      <c r="M38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39">
-        <v>52.3671824</v>
-      </c>
-      <c r="F39">
-        <v>4.8915377</v>
-      </c>
-      <c r="G39" t="s">
-        <v>153</v>
-      </c>
-      <c r="H39">
-        <v>4.3</v>
-      </c>
-      <c r="I39">
-        <v>618</v>
-      </c>
-      <c r="J39" t="s">
-        <v>198</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>237</v>
-      </c>
-      <c r="M39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40">
-        <v>52.3580214</v>
-      </c>
-      <c r="F40">
-        <v>4.8776462</v>
-      </c>
-      <c r="G40" t="s">
-        <v>160</v>
-      </c>
-      <c r="H40">
-        <v>4.7</v>
-      </c>
-      <c r="I40">
-        <v>560</v>
-      </c>
-      <c r="J40" t="s">
-        <v>199</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>238</v>
-      </c>
-      <c r="M40" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Amsterdam_miejsca_odnosniki.xlsx
+++ b/Amsterdam_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2CBA3F-40D7-4CA5-99CB-FDCD5DBDC7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C16F5B5-F170-4F3F-AC8E-2AF0B096C761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="287">
   <si>
     <t>Miejsce</t>
   </si>
@@ -166,48 +166,99 @@
     <t>Bloom and Cafe</t>
   </si>
   <si>
+    <t>Muzeum Sztuki Współczesnej Stedelijk</t>
+  </si>
+  <si>
+    <t>Myth Fries</t>
+  </si>
+  <si>
+    <t>Excalibur Bar</t>
+  </si>
+  <si>
+    <t>The Red Light Bar</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=GRrXVAFh_XU', 'https://www.youtube.com/watch?v=97r67cnVpms', 'https://www.youtube.com/watch?v=w0i0-fumEXE', 'https://www.youtube.com/watch?v=7HBAyT9CH98', 'https://www.youtube.com/watch?v=MOJQ-a-ZWag', 'https://www.youtube.com/watch?v=QEAQ8N6SK6w', 'https://www.youtube.com/watch?v=rRFsyg7VJ9Y', 'https://www.youtube.com/watch?v=svSA_WUruUI&amp;t=7s', 'https://www.youtube.com/watch?v=I3YhiJJNO5Q']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=GRrXVAFh_XU', 'https://www.youtube.com/watch?v=97r67cnVpms', 'https://www.youtube.com/watch?v=w0i0-fumEXE', 'https://www.youtube.com/watch?v=7HBAyT9CH98', 'https://www.youtube.com/watch?v=MOJQ-a-ZWag', 'https://www.youtube.com/watch?v=QEAQ8N6SK6w', 'https://www.youtube.com/watch?v=svSA_WUruUI&amp;t=7s', 'https://www.youtube.com/watch?v=I3YhiJJNO5Q']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=noL95Qm2Xv0', 'https://www.youtube.com/watch?v=97r67cnVpms', 'https://www.youtube.com/watch?v=w0i0-fumEXE', 'https://www.youtube.com/watch?v=MOJQ-a-ZWag', 'https://www.youtube.com/watch?v=QEAQ8N6SK6w', 'https://www.youtube.com/watch?v=rRFsyg7VJ9Y', 'https://www.youtube.com/watch?v=bgC93E5RLMY', 'https://www.youtube.com/watch?v=82aq6wX56es']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=noL95Qm2Xv0', 'https://www.youtube.com/watch?v=GRrXVAFh_XU', 'https://www.youtube.com/watch?v=97r67cnVpms', 'https://www.youtube.com/watch?v=w0i0-fumEXE', 'https://www.youtube.com/watch?v=7HBAyT9CH98', 'https://www.youtube.com/watch?v=L_tzn5X8-Aw', 'https://www.youtube.com/watch?v=QEAQ8N6SK6w']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=I3YhiJJNO5Q']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=svSA_WUruUI&amp;t=7s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=7HBAyT9CH98', 'https://www.youtube.com/watch?v=GRrXVAFh_XU', 'https://www.youtube.com/watch?v=I3YhiJJNO5Q', 'https://www.youtube.com/watch?v=rRFsyg7VJ9Y']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=97r67cnVpms', 'https://www.youtube.com/watch?v=MOJQ-a-ZWag', 'https://www.youtube.com/watch?v=w0i0-fumEXE']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=7HBAyT9CH98', 'https://www.youtube.com/watch?v=8P7birY62es&amp;t=4s', 'https://www.youtube.com/watch?v=xS5vDwQW3uY&amp;t=584s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=MOJQ-a-ZWag', 'https://www.youtube.com/watch?v=w0i0-fumEXE']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=NXgBrr58-Ng&amp;t=9s', 'https://www.youtube.com/watch?v=7HBAyT9CH98', 'https://www.youtube.com/watch?v=Mge-EcM1t8A', 'https://www.youtube.com/watch?v=QEAQ8N6SK6w']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=rRFsyg7VJ9Y', 'https://www.youtube.com/watch?v=97r67cnVpms', 'https://www.youtube.com/watch?v=svSA_WUruUI&amp;t=7s', 'https://www.youtube.com/watch?v=w0i0-fumEXE']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=noL95Qm2Xv0', 'https://www.youtube.com/watch?v=97r67cnVpms', 'https://www.youtube.com/watch?v=w0i0-fumEXE']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=rRFsyg7VJ9Y']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=7HBAyT9CH98', 'https://www.youtube.com/watch?v=MOJQ-a-ZWag']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=rRFsyg7VJ9Y', 'https://www.youtube.com/watch?v=xS5vDwQW3uY&amp;t=584s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=imcThNiBz98']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=MOJQ-a-ZWag', 'https://www.youtube.com/watch?v=rRFsyg7VJ9Y']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=noL95Qm2Xv0']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=NXgBrr58-Ng&amp;t=9s', 'https://www.youtube.com/watch?v=xS5vDwQW3uY&amp;t=584s', 'https://www.youtube.com/watch?v=82aq6wX56es']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=L_tzn5X8-Aw']</t>
+  </si>
+  <si>
     <t>['https://www.youtube.com/watch?v=QEAQ8N6SK6w']</t>
   </si>
   <si>
-    <t>['https://www.youtube.com/watch?v=svSA_WUruUI&amp;t=7s']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=noL95Qm2Xv0', 'https://www.youtube.com/watch?v=MOJQ-a-ZWag']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=noL95Qm2Xv0', 'https://www.youtube.com/watch?v=QEAQ8N6SK6w', 'https://www.youtube.com/watch?v=L_tzn5X8-Aw']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=I3YhiJJNO5Q']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=I3YhiJJNO5Q', 'https://www.youtube.com/watch?v=rRFsyg7VJ9Y']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=MOJQ-a-ZWag', 'https://www.youtube.com/watch?v=rRFsyg7VJ9Y']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=rRFsyg7VJ9Y']</t>
-  </si>
-  <si>
     <t>['https://www.youtube.com/watch?v=MOJQ-a-ZWag']</t>
   </si>
   <si>
-    <t>['https://www.youtube.com/watch?v=Mge-EcM1t8A']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=noL95Qm2Xv0']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=imcThNiBz98']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=L_tzn5X8-Aw']</t>
-  </si>
-  <si>
     <t>['https://www.youtube.com/watch?v=Z2LJrYCBdZw']</t>
   </si>
   <si>
+    <t>['https://www.youtube.com/watch?v=GRrXVAFh_XU', 'https://www.youtube.com/watch?v=97r67cnVpms', 'https://www.youtube.com/watch?v=w0i0-fumEXE', 'https://www.youtube.com/watch?v=7HBAyT9CH98', 'https://www.youtube.com/watch?v=QEAQ8N6SK6w']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=NXgBrr58-Ng&amp;t=9s', 'https://www.youtube.com/watch?v=rRFsyg7VJ9Y', 'https://www.youtube.com/watch?v=xS5vDwQW3uY&amp;t=584s']</t>
+  </si>
+  <si>
+    <t>['https://www.youtube.com/watch?v=xS5vDwQW3uY&amp;t=584s']</t>
+  </si>
+  <si>
     <t>Rijksmuseum</t>
   </si>
   <si>
@@ -292,6 +343,18 @@
     <t>Calf &amp; Bloom</t>
   </si>
   <si>
+    <t>Stedelijk Museum</t>
+  </si>
+  <si>
+    <t>Manneken Pis Damrak</t>
+  </si>
+  <si>
+    <t>Excalibur Café</t>
+  </si>
+  <si>
+    <t>Red Light Bar</t>
+  </si>
+  <si>
     <t>Museumstraat 1, 1071 XX Amsterdam, Holandia</t>
   </si>
   <si>
@@ -394,6 +457,18 @@
     <t>Singel 461, 1012 WP Amsterdam, Holandia</t>
   </si>
   <si>
+    <t>Museumplein 10, 1071 DJ Amsterdam, Holandia</t>
+  </si>
+  <si>
+    <t>Damrak 41, 1012 LK Amsterdam, Holandia</t>
+  </si>
+  <si>
+    <t>Oudezijds Achterburgwal 48, 1012 DP Amsterdam, Holandia</t>
+  </si>
+  <si>
+    <t>Oudezijds Achterburgwal 61, 1012 DB Amsterdam, Holandia</t>
+  </si>
+  <si>
     <t>Muzeum sztuki</t>
   </si>
   <si>
@@ -458,6 +533,9 @@
   </si>
   <si>
     <t>Lodziarnia</t>
+  </si>
+  <si>
+    <t>Bar</t>
   </si>
   <si>
     <t>XIX-wieczny budynek: malowidła z epoki Złotego wieku Holandii i obszerna kolekcja europejskich dzieł sztuki.The Rijksmuseum, located in Amsterdam, Netherlands, is one of the most renowned art museums in the world. It is situated at the address Museumstraat 1, 1071 XX Amsterdam, and the geographical coordinates provided (52.3599976, 4.8852188) place it in the vicinity of the Museumplein (Museum Square) in the heart of Amsterdam.
@@ -665,6 +743,12 @@
 For specific details such as menu offerings, exact prices, and operational hours, visiting the restaurant’s official website or contacting them directly would provide the most accurate and up-to-date information.</t>
   </si>
   <si>
+    <t>Współczesne muzeum w budynku przypominającym wielką wannę prezentujące dzieła sztuki i designu z całego świata.</t>
+  </si>
+  <si>
+    <t>Wykończony w drewnie bar sportowy z piwem, koktajlami, dużymi ekranami i stołami bilardowymi oraz zmieniającymi się DJ-ami.</t>
+  </si>
+  <si>
     <t>The Rijksmuseum, located in Amsterdam, Netherlands, is one of the most renowned art museums in the world. It is situated at the address Museumstraat 1, 1071 XX Amsterdam, and the geographical coordinates provided (52.3599976, 4.8852188) place it in the vicinity of the Museumplein (Museum Square) in the heart of Amsterdam.
 This museum is especially famous for its collection of Dutch Golden Age paintings. The masterpieces by Rembrandt, including "The Night Watch," and works by Vermeer, Frans Hals, and Jan Steen are highlights of the collection. The total collection spans from the year 1200 to the present, including more than 1 million objects, of which around 8,000 are on display in the museum.
 The building that houses the museum is a masterpiece in itself, designed by Pierre Cuypers and completed in 1885. It is notable for its mix of Gothic and Renaissance design elements. The museum underwent a major renovation which started in 2003 and was completed in 2013, enhancing its facilities and the visitor experience.
@@ -870,109 +954,138 @@
 For specific details such as menu offerings, exact prices, and operational hours, visiting the restaurant’s official website or contacting them directly would provide the most accurate and up-to-date information.</t>
   </si>
   <si>
+    <t>The Stedelijk Museum in Amsterdam is one of the most renowned modern and contemporary art museums in the world. Located at Museumplein, alongside other prominent institutions such as the Rijksmuseum and the Van Gogh Museum, the Stedelijk serves as the Netherlands’ main venue for modern and contemporary art.
+Founded in 1874, the original building was designed by architect Adriaan Willem Weissman and opened its doors in 1895. The museum has experienced several renovations and expansions over the years, the most significant being the addition completed in 2012. This new addition was designed by Benthem Crouwel Architects and features a striking modern design characterized by its bold, white façade, earning it the nickname "The Bathtub" due to its unique shape.
+The Stedelijk Museum's collection spans a wide range of media, including painting, sculpture, film, photography, graphic design, and industrial design. It holds an impressive array of artworks from early 20th-century movements such as Bauhaus, De Stijl, and Dutch modernism. The museum also highlights works by many major 20th and 21st-century artists, including Vincent van Gogh, Wassily Kandinsky, Jackson</t>
+  </si>
+  <si>
+    <t>"Manneken Pis Damrak" is likely referencing a fast food spot in Amsterdam known for serving Belgian-style fries. While specific details about this particular establishment are not available, the Manneken Pis brand is famous for its fries and is named after the famous Manneken Pis statue in Brussels, Belgium, which depicts a little boy urinating.
+The location you provided with the coordinates (52.3757589, 4.896192) is situated on or near Damrak, a major street in Amsterdam that leads north from Amsterdam Central Station to Dam Square — a busy area known for its shops, restaurants, and tourist attractions.
+Manneken Pis outlets are popular among locals and tourists alike for their thick-cut fries served in paper cones, with a variety of sauces to choose from. They are known for their high-quality, freshly cut fries made from Dutch potatoes.
+If you're looking for specifics like opening hours, menu options, or customer reviews for the Manneken Pis at Damrak, I recommend checking local business directories, review sites like TripAdvisor or Google Maps for the most accurate and up-to-date information.</t>
+  </si>
+  <si>
+    <t>Excalibur Café is a boisterous pub in Amsterdam, located in the heart of the Red Light District at Oudezijds Achterburgwal 48, 1012 DP. Known for its unique décor of bikes and suits of armor, it caters to bikers and heavy metal fans. The pub is appreciated for its good music, particularly hard rock and metal, and its pleasant staff. It has been rated 4.5 out of 5 on Tripadvisor and is ranked 240 out of 5772 restaurants in Amsterdam. The café stays open until 1 AM from Sunday to Thursday and extends its hours until 3 AM on Fridays and Saturdays. The contact number is +31 6 11928793.</t>
+  </si>
+  <si>
+    <t>The Red Light Bar in Amsterdam is an energetic sports bar located in the Red Light District known as "De Wallen." It offers beers, cocktails, and features big screens and pool tables. DJs also rotate to provide music. The bar is open until either 1 AM or 3 AM, depending on the day. The Red Light District is famous for its dense concentration of window prostitution. It consists of a network of alleys containing approximately 300 one-room cabins. It includes more than 200 window brothels, making it one of the most talked-about neighborhoods in Amsterdam. The bar's address is Oudezijds Achterburgwal 61, 1012 DB Amsterdam, Netherlands.</t>
+  </si>
+  <si>
+    <t>Rijksmuseum to skarbnica sztuki, oferująca porywające kolekcje z Złotego Wieku Holandii oraz szeroki zakres dzieł europejskich. Znajdujące się w nim arcydzieła takich mistrzów jak Rembrandt czy Vermeer, wyróżniają się wśród ponad miliona eksponatów. Sam gmach muzeum, zaprojektowany przez Pierre'a Cuypersa i zbudowany w 1885 roku, jest równie imponujący co przechowywane w nim skarby, łącząc elementy gotyku z renesansem.</t>
+  </si>
+  <si>
+    <t>Muzeum Vincenta van Gogha jest świątynią sztuki dedykowaną dziełom tego holenderskiego malarza oraz jego współczesnym. Odwiedzający mogą podziwiać tam ponad 200 malowideł i 500 rysunków Van Gogha, w tym słynne "Słoneczniki" i "Pokój w Arles." Architektura muzeum, z nowoczesnym skrzydłem zaprojektowanym przez Kisho Kurokawę, łączy w sobie naturalne światło z modernistycznymi formami, tworząc idealne tło dla mistrzowskich prac.</t>
+  </si>
+  <si>
+    <t>Dom Anny Frank to muzeum ulokowane w domu z XVII wieku, znane jako "Skrzydło Tajne", gdzie młoda diarystka wraz z rodziną ukrywali się przed prześladowaniami nazistowskimi. Przyciąga ponad milion odwiedzających rocznie, udostępniając poruszającą opowieść Anny Frank i podnosząc świadomość o zagrożeniach wynikających z antysemityzmu oraz dyskryminacji.</t>
+  </si>
+  <si>
+    <t>Vondelpark oferuje odwiedzającym szerokie spektrum atrakcji na łonie natury, od piknikowania i joggingu po spektakle w teatrze na świeżym powietrzu. Rozciągający się na około 120 akrach, park zachęca swoimi zielonymi przestrzeniami, różanym ogrodem z ponad 70 gatunkami róż oraz kawiarniami. Vondelpark to więcej niż tylko miejsce odpoczynku, to dynamiczna przestrzeń kulturalna i historyczna, którą rocznie odwiedza około 10 milionów osób.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natura Artis Magistra, znany również jako Artis, to historyczny ogród zoologiczny w centrum miasta. Otwarty w 1838 roku jako najstarsze takie miejsce w Holandii, szczyci się różnorodnością gatunków zwierząt i naturalistycznymi siedliskami. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madame Tussauds Amsterdam zlokalizowane na słynnym Dam Square, to więcej niż tylko muzeum woskowych figurek. Odwiedzający mają szansę na bliskie spotkania z woskowymi replikami znanych osobistości i mogą częściowo doświadczać ich świata dzięki interaktywnym wystawom. </t>
+  </si>
+  <si>
+    <t>A'DAM Lookout to miejsce, które łączy zaawansowane technologie audiowizualne z widokiem na miasto. Znajduje się na 20-piętrowym budynku, oferującym nie tylko zapierające dech w piersiach widoki, ale także niezwykłą atrakcję - huśtawkę Over The Edge, która jest najwyższą huśtawką w Europie. Obiekt ten, oprócz punktu widokowego, gromadzi różnorodne funkcje jak restauracje, bar, hotel oraz nocny klub, przyciągając mieszkańców i turystów poszukujących nowoczesnej kultury miejskiej.</t>
+  </si>
+  <si>
+    <t>Pałac Królewski, pierwotnie ratusz, stanowi dzisiaj nie tylko rezydencję monarchiczną, ale i dynamiczne centrum turystyczne. Charakterystyczną cechą tego miejsca są jego marmurowe posadzki i impresjonujące dzieła sztuki, które zdobią wnętrza od czasów, kiedy Amsterdam kwitł jako ośrodek potęgi w Złotym Wieku Holandii.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodhallen to żywa, multikulturowa przestrzeń kulinarna, mieszcząca się w odnowionym kompleksie De Hallen. Odwiedzający mogą skosztować rozmaitych potraw z całego świata w jednym miejscu, od lokalnych holenderskich przysmaków po egzotyczne azjatyckie dania. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muzeum Domu Rembrandta to wyjątkowe miejsce, gdzie artysta mieszkał i tworzył swoje dzieła przez prawie dwie dekady. Odrestaurowany budynek pozwala zobaczyć, jak wyglądało życie i praca Rembrandta, oferując zarówno stałą kolekcję jego rycin, jak i wystawy tymczasowe. </t>
+  </si>
+  <si>
+    <t>Winkel 43, umiejscowiona w sercu malowniczego dzielnicy Jordaan, jest kawiarnią, która zdobyła uznanie dzięki swojej legendarnej szarlotce. Lokal oferuje zarówno smaczne dania śniadaniowe, jak i obiadowe, stając się idealnym miejscem na przerwę podczas odwiedzin tamtejszych targów.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheepvaartmuseum to miejsce, gdzie historia morska ożywa w interaktywnej formie. Znany również jako Narodowe Muzeum Morskie, mieści się w zabytkowym magazynie z XVII wieku i oferuje wirtualne podróże morskie oraz możliwość zwiedzenia repliki statku towarowego z XVIII wieku. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oude Kerk, najstarszy budynek Amsterdamu, kryje w sobie nie tylko dziedzictwo religijne, ale również artystyczne. Jego imponujący drewniany dach oraz podłoga pokryta 2500 nagrobkami tworzą niepowtarzalne tło dla wystaw sztuki współczesnej i koncertów. </t>
+  </si>
+  <si>
+    <t>Heineken Experience oferuje podróż przez historię browaru w oryginalnie zachowanym miejscu produkcji piwa, które działało od 1867 do 1988 roku. Zwiedzający mogą uczestniczyć w interaktywnym zwiedzaniu, poznając składniki, proces warzenia piwa oraz strategie marki. Atrakcją jest możliwość degustacji piwa prosto z browaru oraz symulacja procesu warzenia z perspektywy butelki piwa.</t>
+  </si>
+  <si>
+    <t>EYE Film Museum to dynamiczne centrum kultury filmowej. Jego nowoczesna, futurystyczna architektura na brzegu rzeki IJ stanowi tło dla bogatych zbiorów filmów holenderskich i międzynarodowych oraz interaktywnych wystaw poświęconych kinematografii. Regularne wydarzenia kinowe oraz dostęp do obszernej biblioteki filmowej sprawiają, że jest to kluczowe miejsce dla miłośników filmu.</t>
+  </si>
+  <si>
+    <t>"This is Holland" to niezwykła atrakcja turystyczna, która oferuje symulację lotu 5D. Wizytujący mogą podziwiać z lotu ptaka krajobrazy, zabytki i miasta Holandii, a dodatkowe efekty takie jak wiatr, mgła czy zapachy zapewniają niezwykle realistyczne doznania. Atrakcja ta łączy edukacyjne wprowadzenie dotyczące geografii i historii Holandii z głównym pokazem symulacji lotu, co czyni ją atrakcyjną dla rodzin i osób pragnących zyskać wszechstronny ogląd kraju bez opuszczania Amsterdamu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pancake Bakery, zlokalizowana w zabytkowym budynku z XVII wieku nad kanałem w Amsterdamie, jest znana z różnorodnego menu naleśników. Restauracja łączy tradycyjne holenderskie smaki z międzynarodowymi przysmakami, dostarczając szeroki wybór opcji na słodko i wytrawnie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brouwerij 't IJ to nie tylko browar, ale także kulturowy punkt orientacyjny miasta, malowniczo położony przy historycznym wiatraku De Gooyer. Od 1985 roku tworzy piwa organiczne z belgijskim zacięciem, czyniąc z miejsca zarówno atrakcję turystyczną, jak i lokalne ulubione miejsce spotkań. </t>
+  </si>
+  <si>
+    <t>Micropia to pierwsze na świecie muzeum poświęcone mikroorganizmom, takim jak bakterie, wirusy i grzyby. To interaktywne i edukacyjne miejsce ukazuje, jak mikroby wpływają na nasze zdrowie, żywność i ekosystem. Odwiedzający mają okazję obserwować żywe mikroby przez specjalne mikroskopy oraz odkrywać ich znaczenie w biotechnologii.</t>
+  </si>
+  <si>
+    <t>Restauracja Moeders to miejsce, gdzie każdy zakątek opowiada historię o miłości do kuchni rodzinnej. Wnętrze tego ciepłego zakątka pokryte jest ścianami pełnymi zdjęć matek, przynoszących wspomnienia domowych posiłków. Menu oferuje obfite porcje tradycyjnych holenderskich dań, takich jak stamppot czy suddervlees, które zadowolą zarówno miejscowych, jak i podróżników.</t>
+  </si>
+  <si>
+    <t>National Monument jest monumentalną, białą kolumną, która wznosi się na wysokość 22 metrów. Została wzniesiona w 1956 roku, aby upamiętnić ofiary II wojny światowej i pełni rolę centralnego miejsca narodowej pamięci. Obiekt charakteryzuje się niskimi płaskorzeźbami oraz rzeźbami, które symbolizują pokój, opór i wyzwolenie, a także zawiera urny z ziemią z pól bitewnych z całej Holandii. Każdego roku, 4 maja, podczas Dnia Pamięci Narodowej, odbywają się tu główne uroczystości z udziałem rodziny królewskiej.</t>
+  </si>
+  <si>
+    <t>Vegan Junk Food Bar przekształca tradycyjne postrzeganie wegańskiej kuchni, serwując pyszne, roślinne odpowiedniki popularnych przekąsek. Od burgerów po frytki, wszystko jest przygotowane bez składników pochodzenia zwierzęcego, prezentując atrakcyjną i kolorową estetykę, która przyciąga młodszych, aktywnych w mediach społecznościowych gości. W tętniącym życiem i swobodnym miejscu, można doświadczyć nowej, ekscytującej odsłony kulinariów w sercu jednego z najbardziej innowacyjnych miast Europy.</t>
+  </si>
+  <si>
+    <t>Fabel Friet to lokal specjalizujący się w smażonych ziemniakach i kroketach, który zapewnia gościom potrawy z lokalnych składników w przystępnej cenie. Wyróżnia się wyjątkowymi daniami takimi jak krokiet ziemniaczany z truflowym majonezem czy frytki z parmezanem, przyciągając smakoszy żądnymi chrupiących przekąsek.</t>
+  </si>
+  <si>
+    <t>Nieuwe Kerk, sytuowany na placu Dam, łączy w sobie bogatą tradycję królewskich ceremonii z nowoczesnym wykorzystaniem jako przestrzeń wystawiennicza. Jego gotycka architektura i monumentalne organy przyciągają miłośników kultury i historii, oferując ekspozycje sztuki i fotografii oraz koncerty organowe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amsterdam Cheese Museum to nie tylko muzeum, ale także sklep znajdujący się blisko Domu Anny Frank, który oferuje bogaty wachlarz holenderskich serów do degustacji i zakupu. Obiekt łączy edukację o historii i metodach produkcji sera w Holandii z interaktywnymi wystawami, umożliwiając odwiedzającym zrozumienie roli sera w kulturze i kuchni holenderskiej. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Old Bell, położony w sercu Amsterdamu, jest popularnym pubem, który przyciąga zarówno turystów, jak i mieszkańców. Oceniany za staroświecki, unikalny urok oraz doskonałe piwa, lokal oferuje przytulną atmosferę i wysoką jakość obsługi. </t>
+  </si>
+  <si>
+    <t>De Tulp to prawdziwy raj dla milosników egzotycznych klimatów. To restauracja otoczona zielenią, z tropikalną dekoracją i przestronnym tarasem, doskonała na letnie dni. Serwuje dania międzynarodowe na wspólnych talerzach oraz różnorodne koktajle, tworząc idealne miejsce na spotkania towarzyskie i relaks w sercu tętniącej życiem dzielnicy De Pijp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCALS All Day Brunch przyciąga gości swoją różnorodnością opcji śniadaniowych i brunchowych serwowanych przez cały dzień. Usytuowane blisko Dzielnicy Muzeów, to miejsce kusi także wieczorami klasycznymi włoskimi daniami. </t>
+  </si>
+  <si>
+    <t>Zlokalizowany w sercu Amsterdamu, Loulou Pizzabar oferuje nie tylko standardowe włoskie przysmaki, ale także niezwykłe wariacje pizzy, przyciągając miłośników zdrowej kuchni. W menu znaleźć można opcje bezglutenowe oraz klasyczne dania jak Margherita czy pikantny Salame Ventricina.</t>
+  </si>
+  <si>
+    <t>Corner Bakery to modna kawiarnia, która oferuje bogaty wybór śniadań i lunchy, znana z całodziennych śniadań oraz ekstrawaganckich milkshake'ów. Usytuowana przy Johannes Vermeerstraat, przyciąga smakoszy różnorodnością sałatek, kanapek, ciast i naleśników.</t>
+  </si>
+  <si>
+    <t>Takumi Ramen Kitchen to restauracja z ramenem w Amsterdamie, słynąca z różnorodności, włączając dania wegańskie, oraz wysokiej jakości obsługi. Założona w 2007 roku przez entuzjastów kuchni azjatyckiej, z powiedzeniem "No ramen, no life", przyciąga zarówno lokalnych, jak i podróżujących.</t>
+  </si>
+  <si>
+    <t>The Pancake Club to lokalny przysmak z widokiem na kanał, gdzie można się delektować zarówno tradycyjnymi holenderskimi nalesnikami jak i międzynarodowymi wariacjami. Ceny wahają się w przystępnym zakresie, a dodatkowym atutem jest malownicza lokalizacja z tarasem nad wodą.</t>
+  </si>
+  <si>
+    <t>Quartier Putain, ulokowane w samym sercu Dzielnicy Czerwonych Latarni, oferuje więcej niż tylko kawę najwyższej jakości. Nazwa „Quartier Putain”, odnosząca się do lokalizacji i francuskiego slangu, dodaje lokalowi charakteru, przyciągając tych, którzy cenią sobie kulturę i niebanalność.</t>
+  </si>
+  <si>
     <t>Monte Pelmo to lodziarnia w sercu Amsterdamu, gdzie domowej roboty lody w różnorodnych i kreatywnych smakach przyciągają zarówno mieszkańców, jak i turystów. Znajdując się w strategicznej lokalizacji, łatwo dostępna dla odkrywców miasta, uchodzi za miejsce o przyjaznej atmosferze i doskonałej jakości produktach.</t>
   </si>
   <si>
-    <t>Rijksmuseum to skarbnica sztuki, oferująca porywające kolekcje z Złotego Wieku Holandii oraz szeroki zakres dzieł europejskich. Znajdujące się w nim arcydzieła takich mistrzów jak Rembrandt czy Vermeer, wyróżniają się wśród ponad miliona eksponatów. Sam gmach muzeum, zaprojektowany przez Pierre'a Cuypersa i zbudowany w 1885 roku, jest równie imponujący co przechowywane w nim skarby, łącząc elementy gotyku z renesansem.</t>
-  </si>
-  <si>
-    <t>Muzeum Vincenta van Gogha jest świątynią sztuki dedykowaną dziełom tego holenderskiego malarza oraz jego współczesnym. Odwiedzający mogą podziwiać tam ponad 200 malowideł i 500 rysunków Van Gogha, w tym słynne "Słoneczniki" i "Pokój w Arles." Architektura muzeum, z nowoczesnym skrzydłem zaprojektowanym przez Kisho Kurokawę, łączy w sobie naturalne światło z modernistycznymi formami, tworząc idealne tło dla mistrzowskich prac.</t>
-  </si>
-  <si>
-    <t>Dom Anny Frank to muzeum ulokowane w domu z XVII wieku, znane jako "Skrzydło Tajne", gdzie młoda diarystka wraz z rodziną ukrywali się przed prześladowaniami nazistowskimi. Przyciąga ponad milion odwiedzających rocznie, udostępniając poruszającą opowieść Anny Frank i podnosząc świadomość o zagrożeniach wynikających z antysemityzmu oraz dyskryminacji.</t>
-  </si>
-  <si>
-    <t>Vondelpark oferuje odwiedzającym szerokie spektrum atrakcji na łonie natury, od piknikowania i joggingu po spektakle w teatrze na świeżym powietrzu. Rozciągający się na około 120 akrach, park zachęca swoimi zielonymi przestrzeniami, różanym ogrodem z ponad 70 gatunkami róż oraz kawiarniami. Vondelpark to więcej niż tylko miejsce odpoczynku, to dynamiczna przestrzeń kulturalna i historyczna, którą rocznie odwiedza około 10 milionów osób.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natura Artis Magistra, znany również jako Artis, to historyczny ogród zoologiczny w centrum miasta. Otwarty w 1838 roku jako najstarsze takie miejsce w Holandii, szczyci się różnorodnością gatunków zwierząt i naturalistycznymi siedliskami. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madame Tussauds Amsterdam zlokalizowane na słynnym Dam Square, to więcej niż tylko muzeum woskowych figurek. Odwiedzający mają szansę na bliskie spotkania z woskowymi replikami znanych osobistości i mogą częściowo doświadczać ich świata dzięki interaktywnym wystawom. </t>
-  </si>
-  <si>
-    <t>A'DAM Lookout to miejsce, które łączy zaawansowane technologie audiowizualne z widokiem na miasto. Znajduje się na 20-piętrowym budynku, oferującym nie tylko zapierające dech w piersiach widoki, ale także niezwykłą atrakcję - huśtawkę Over The Edge, która jest najwyższą huśtawką w Europie. Obiekt ten, oprócz punktu widokowego, gromadzi różnorodne funkcje jak restauracje, bar, hotel oraz nocny klub, przyciągając mieszkańców i turystów poszukujących nowoczesnej kultury miejskiej.</t>
-  </si>
-  <si>
-    <t>Pałac Królewski, pierwotnie ratusz, stanowi dzisiaj nie tylko rezydencję monarchiczną, ale i dynamiczne centrum turystyczne. Charakterystyczną cechą tego miejsca są jego marmurowe posadzki i impresjonujące dzieła sztuki, które zdobią wnętrza od czasów, kiedy Amsterdam kwitł jako ośrodek potęgi w Złotym Wieku Holandii.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foodhallen to żywa, multikulturowa przestrzeń kulinarna, mieszcząca się w odnowionym kompleksie De Hallen. Odwiedzający mogą skosztować rozmaitych potraw z całego świata w jednym miejscu, od lokalnych holenderskich przysmaków po egzotyczne azjatyckie dania. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muzeum Domu Rembrandta to wyjątkowe miejsce, gdzie artysta mieszkał i tworzył swoje dzieła przez prawie dwie dekady. Odrestaurowany budynek pozwala zobaczyć, jak wyglądało życie i praca Rembrandta, oferując zarówno stałą kolekcję jego rycin, jak i wystawy tymczasowe. </t>
-  </si>
-  <si>
-    <t>Winkel 43, umiejscowiona w sercu malowniczego dzielnicy Jordaan, jest kawiarnią, która zdobyła uznanie dzięki swojej legendarnej szarlotce. Lokal oferuje zarówno smaczne dania śniadaniowe, jak i obiadowe, stając się idealnym miejscem na przerwę podczas odwiedzin tamtejszych targów.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scheepvaartmuseum to miejsce, gdzie historia morska ożywa w interaktywnej formie. Znany również jako Narodowe Muzeum Morskie, mieści się w zabytkowym magazynie z XVII wieku i oferuje wirtualne podróże morskie oraz możliwość zwiedzenia repliki statku towarowego z XVIII wieku. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oude Kerk, najstarszy budynek Amsterdamu, kryje w sobie nie tylko dziedzictwo religijne, ale również artystyczne. Jego imponujący drewniany dach oraz podłoga pokryta 2500 nagrobkami tworzą niepowtarzalne tło dla wystaw sztuki współczesnej i koncertów. </t>
-  </si>
-  <si>
-    <t>Heineken Experience oferuje podróż przez historię browaru w oryginalnie zachowanym miejscu produkcji piwa, które działało od 1867 do 1988 roku. Zwiedzający mogą uczestniczyć w interaktywnym zwiedzaniu, poznając składniki, proces warzenia piwa oraz strategie marki. Atrakcją jest możliwość degustacji piwa prosto z browaru oraz symulacja procesu warzenia z perspektywy butelki piwa.</t>
-  </si>
-  <si>
-    <t>EYE Film Museum to dynamiczne centrum kultury filmowej. Jego nowoczesna, futurystyczna architektura na brzegu rzeki IJ stanowi tło dla bogatych zbiorów filmów holenderskich i międzynarodowych oraz interaktywnych wystaw poświęconych kinematografii. Regularne wydarzenia kinowe oraz dostęp do obszernej biblioteki filmowej sprawiają, że jest to kluczowe miejsce dla miłośników filmu.</t>
-  </si>
-  <si>
-    <t>"This is Holland" to niezwykła atrakcja turystyczna, która oferuje symulację lotu 5D. Wizytujący mogą podziwiać z lotu ptaka krajobrazy, zabytki i miasta Holandii, a dodatkowe efekty takie jak wiatr, mgła czy zapachy zapewniają niezwykle realistyczne doznania. Atrakcja ta łączy edukacyjne wprowadzenie dotyczące geografii i historii Holandii z głównym pokazem symulacji lotu, co czyni ją atrakcyjną dla rodzin i osób pragnących zyskać wszechstronny ogląd kraju bez opuszczania Amsterdamu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pancake Bakery, zlokalizowana w zabytkowym budynku z XVII wieku nad kanałem w Amsterdamie, jest znana z różnorodnego menu naleśników. Restauracja łączy tradycyjne holenderskie smaki z międzynarodowymi przysmakami, dostarczając szeroki wybór opcji na słodko i wytrawnie. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brouwerij 't IJ to nie tylko browar, ale także kulturowy punkt orientacyjny miasta, malowniczo położony przy historycznym wiatraku De Gooyer. Od 1985 roku tworzy piwa organiczne z belgijskim zacięciem, czyniąc z miejsca zarówno atrakcję turystyczną, jak i lokalne ulubione miejsce spotkań. </t>
-  </si>
-  <si>
-    <t>Micropia to pierwsze na świecie muzeum poświęcone mikroorganizmom, takim jak bakterie, wirusy i grzyby. To interaktywne i edukacyjne miejsce ukazuje, jak mikroby wpływają na nasze zdrowie, żywność i ekosystem. Odwiedzający mają okazję obserwować żywe mikroby przez specjalne mikroskopy oraz odkrywać ich znaczenie w biotechnologii.</t>
-  </si>
-  <si>
-    <t>Restauracja Moeders to miejsce, gdzie każdy zakątek opowiada historię o miłości do kuchni rodzinnej. Wnętrze tego ciepłego zakątka pokryte jest ścianami pełnymi zdjęć matek, przynoszących wspomnienia domowych posiłków. Menu oferuje obfite porcje tradycyjnych holenderskich dań, takich jak stamppot czy suddervlees, które zadowolą zarówno miejscowych, jak i podróżników.</t>
-  </si>
-  <si>
-    <t>National Monument jest monumentalną, białą kolumną, która wznosi się na wysokość 22 metrów. Została wzniesiona w 1956 roku, aby upamiętnić ofiary II wojny światowej i pełni rolę centralnego miejsca narodowej pamięci. Obiekt charakteryzuje się niskimi płaskorzeźbami oraz rzeźbami, które symbolizują pokój, opór i wyzwolenie, a także zawiera urny z ziemią z pól bitewnych z całej Holandii. Każdego roku, 4 maja, podczas Dnia Pamięci Narodowej, odbywają się tu główne uroczystości z udziałem rodziny królewskiej.</t>
-  </si>
-  <si>
-    <t>Vegan Junk Food Bar przekształca tradycyjne postrzeganie wegańskiej kuchni, serwując pyszne, roślinne odpowiedniki popularnych przekąsek. Od burgerów po frytki, wszystko jest przygotowane bez składników pochodzenia zwierzęcego, prezentując atrakcyjną i kolorową estetykę, która przyciąga młodszych, aktywnych w mediach społecznościowych gości. W tętniącym życiem i swobodnym miejscu, można doświadczyć nowej, ekscytującej odsłony kulinariów w sercu jednego z najbardziej innowacyjnych miast Europy.</t>
-  </si>
-  <si>
-    <t>Fabel Friet to lokal specjalizujący się w smażonych ziemniakach i kroketach, który zapewnia gościom potrawy z lokalnych składników w przystępnej cenie. Wyróżnia się wyjątkowymi daniami takimi jak krokiet ziemniaczany z truflowym majonezem czy frytki z parmezanem, przyciągając smakoszy żądnymi chrupiących przekąsek.</t>
-  </si>
-  <si>
-    <t>Nieuwe Kerk, sytuowany na placu Dam, łączy w sobie bogatą tradycję królewskich ceremonii z nowoczesnym wykorzystaniem jako przestrzeń wystawiennicza. Jego gotycka architektura i monumentalne organy przyciągają miłośników kultury i historii, oferując ekspozycje sztuki i fotografii oraz koncerty organowe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amsterdam Cheese Museum to nie tylko muzeum, ale także sklep znajdujący się blisko Domu Anny Frank, który oferuje bogaty wachlarz holenderskich serów do degustacji i zakupu. Obiekt łączy edukację o historii i metodach produkcji sera w Holandii z interaktywnymi wystawami, umożliwiając odwiedzającym zrozumienie roli sera w kulturze i kuchni holenderskiej. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Old Bell, położony w sercu Amsterdamu, jest popularnym pubem, który przyciąga zarówno turystów, jak i mieszkańców. Oceniany za staroświecki, unikalny urok oraz doskonałe piwa, lokal oferuje przytulną atmosferę i wysoką jakość obsługi. </t>
-  </si>
-  <si>
-    <t>De Tulp to prawdziwy raj dla milosników egzotycznych klimatów. To restauracja otoczona zielenią, z tropikalną dekoracją i przestronnym tarasem, doskonała na letnie dni. Serwuje dania międzynarodowe na wspólnych talerzach oraz różnorodne koktajle, tworząc idealne miejsce na spotkania towarzyskie i relaks w sercu tętniącej życiem dzielnicy De Pijp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCALS All Day Brunch przyciąga gości swoją różnorodnością opcji śniadaniowych i brunchowych serwowanych przez cały dzień. Usytuowane blisko Dzielnicy Muzeów, to miejsce kusi także wieczorami klasycznymi włoskimi daniami. </t>
-  </si>
-  <si>
-    <t>Zlokalizowany w sercu Amsterdamu, Loulou Pizzabar oferuje nie tylko standardowe włoskie przysmaki, ale także niezwykłe wariacje pizzy, przyciągając miłośników zdrowej kuchni. W menu znaleźć można opcje bezglutenowe oraz klasyczne dania jak Margherita czy pikantny Salame Ventricina.</t>
-  </si>
-  <si>
-    <t>Corner Bakery to modna kawiarnia, która oferuje bogaty wybór śniadań i lunchy, znana z całodziennych śniadań oraz ekstrawaganckich milkshake'ów. Usytuowana przy Johannes Vermeerstraat, przyciąga smakoszy różnorodnością sałatek, kanapek, ciast i naleśników.</t>
-  </si>
-  <si>
-    <t>Takumi Ramen Kitchen to restauracja z ramenem w Amsterdamie, słynąca z różnorodności, włączając dania wegańskie, oraz wysokiej jakości obsługi. Założona w 2007 roku przez entuzjastów kuchni azjatyckiej, z powiedzeniem "No ramen, no life", przyciąga zarówno lokalnych, jak i podróżujących.</t>
-  </si>
-  <si>
-    <t>The Pancake Club to lokalny przysmak z widokiem na kanał, gdzie można się delektować zarówno tradycyjnymi holenderskimi nalesnikami jak i międzynarodowymi wariacjami. Ceny wahają się w przystępnym zakresie, a dodatkowym atutem jest malownicza lokalizacja z tarasem nad wodą.</t>
-  </si>
-  <si>
-    <t>Quartier Putain, ulokowane w samym sercu Dzielnicy Czerwonych Latarni, oferuje więcej niż tylko kawę najwyższej jakości. Nazwa „Quartier Putain”, odnosząca się do lokalizacji i francuskiego slangu, dodaje lokalowi charakteru, przyciągając tych, którzy cenią sobie kulturę i niebanalność.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calf &amp; Bloom to restauracja w centrum Amsterdamu, która łączy nowoczesną atmosferę z międzynarodowym menu bazującym na świeżych, sezonowych składnikach. Lokal jest idealnym przystankiem zarówno dla turystów, jak i mieszkańców miasta, szukających miejsca na nieformalny posiłek czy przerwę na kawę. </t>
+  </si>
+  <si>
+    <t>Muzeum Stedelijk, zwane "Wanną" ze względu na swoją unikalną, nowoczesną architekturę, stanowi kluczowe miejsce dla sztuki współczesnej i designu. Eksponuje dzieła od ruchów takich jak Bauhaus czy De Stijl, aż po nowoczesne media takie jak film czy fotografia. Odwiedzający mogą podziwiać zróżnicowane kolekcje obejmujące zasięgiem zarówno europejską, jak i światową sztukę.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manneken Pis Damrak to punkt gastronomiczny, zyskujący uznanie dzięki belgijskim frytkom serwowanym na tradycyjny sposób w papierowych stożkach. Usytuowany na ruchliwym Damraku, blisko głównego dworca i placu Dam, przyciąga zarówno mieszkańców, jak i turystów. </t>
+  </si>
+  <si>
+    <t>Excalibur Café to nietuzinkowy pub, który przyciąga zarówno miłośników ciężkiego brzmienia, jak i motocyklistów. Wystrój lokalu, pełen zbroi rycerskich i rowerów, tworzy niepowtarzalną atmosferę. Goście chwalą zarówno wybór muzyki rockowej i metalowej, jak i sympatyczny personel, co czyni to miejsce popularnym punktem spotkań aż do wczesnych godzin porannych.</t>
+  </si>
+  <si>
+    <t>Red Light Bar to dynamiczna przystań dla miłośników sportu i nocnego życia, mieszcząca się w sercu dzielnicy De Wallen. Oferuje nie tylko różnorodne piwa i koktajle, ale również wielkie ekrany do oglądania sportu i stoły bilardowe. Klimat miejsca urozmaicają rotujący DJ-e, którzy grają muzykę aż do zamknięcia, które następuje między 1 a 3 nad ranem.</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M41" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,13 +1507,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E2">
         <v>52.3599976</v>
@@ -1409,7 +1522,7 @@
         <v>4.8852187999999996</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="H2">
         <v>4.5999999999999996</v>
@@ -1418,16 +1531,16 @@
         <v>92217</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="M2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1435,13 +1548,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E3">
         <v>52.358075700000001</v>
@@ -1450,7 +1563,7 @@
         <v>4.8812053000000004</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="H3">
         <v>4.5999999999999996</v>
@@ -1459,16 +1572,16 @@
         <v>85484</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="M3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1476,13 +1589,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E4">
         <v>52.375218199999999</v>
@@ -1491,7 +1604,7 @@
         <v>4.8839765000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H4">
         <v>4.5</v>
@@ -1500,16 +1613,16 @@
         <v>65392</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M4" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1517,13 +1630,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E5">
         <v>52.357994599999998</v>
@@ -1532,7 +1645,7 @@
         <v>4.8686483999999997</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H5">
         <v>4.7</v>
@@ -1541,16 +1654,16 @@
         <v>51206</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1558,13 +1671,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>52.366000300000003</v>
@@ -1573,7 +1686,7 @@
         <v>4.9165321000000004</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="H6">
         <v>4.5</v>
@@ -1582,16 +1695,16 @@
         <v>31412</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="M6" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1599,13 +1712,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E7">
         <v>52.3725606</v>
@@ -1614,7 +1727,7 @@
         <v>4.8925584999999998</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="H7">
         <v>4.3</v>
@@ -1623,16 +1736,16 @@
         <v>25800</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="M7" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1640,13 +1753,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E8">
         <v>52.383791899999999</v>
@@ -1655,7 +1768,7 @@
         <v>4.9020732999999996</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H8">
         <v>4.5999999999999996</v>
@@ -1664,16 +1777,16 @@
         <v>22947</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="M8" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1681,13 +1794,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>52.373183500000003</v>
@@ -1696,7 +1809,7 @@
         <v>4.8913757999999996</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="H9">
         <v>4.5999999999999996</v>
@@ -1705,16 +1818,16 @@
         <v>22705</v>
       </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="M9" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1722,13 +1835,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>52.366789999999988</v>
@@ -1737,7 +1850,7 @@
         <v>4.8679147</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="H10">
         <v>4.5</v>
@@ -1746,1085 +1859,1246 @@
         <v>19194</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="M10" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="E11">
-        <v>52.369368999999999</v>
+        <v>52.358011099999999</v>
       </c>
       <c r="F11">
-        <v>4.9012349000000004</v>
+        <v>4.8797553999999996</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="H11">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I11">
-        <v>12039</v>
+        <v>13462</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="M11" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <v>52.3790944</v>
+        <v>52.369368999999999</v>
       </c>
       <c r="F12">
-        <v>4.8862844000000001</v>
+        <v>4.9012349000000004</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="H12">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
-        <v>11208</v>
+        <v>12039</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="M12" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E13">
-        <v>52.371557899999999</v>
+        <v>52.3790944</v>
       </c>
       <c r="F13">
-        <v>4.9143762000000004</v>
+        <v>4.8862844000000001</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="H13">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I13">
-        <v>10766</v>
+        <v>11208</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="M13" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E14">
-        <v>52.3741202</v>
+        <v>52.371557899999999</v>
       </c>
       <c r="F14">
-        <v>4.8980195999999996</v>
+        <v>4.9143762000000004</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="H14">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="I14">
-        <v>10330</v>
+        <v>10766</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="M14" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E15">
-        <v>52.357831300000001</v>
+        <v>52.3741202</v>
       </c>
       <c r="F15">
-        <v>4.8918248999999996</v>
+        <v>4.8980195999999996</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="H15">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I15">
-        <v>10253</v>
+        <v>10330</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="M15" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E16">
-        <v>52.384348000000003</v>
+        <v>52.357831300000001</v>
       </c>
       <c r="F16">
-        <v>4.9012760000000002</v>
+        <v>4.8918248999999996</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="H16">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="I16">
-        <v>9882</v>
+        <v>10253</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="M16" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E17">
-        <v>52.384186499999998</v>
+        <v>52.384348000000003</v>
       </c>
       <c r="F17">
-        <v>4.9021958999999997</v>
+        <v>4.9012760000000002</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="H17">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I17">
-        <v>9459</v>
+        <v>9882</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="M17" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E18">
-        <v>52.377623399999997</v>
+        <v>52.384186499999998</v>
       </c>
       <c r="F18">
-        <v>4.8861631000000001</v>
+        <v>4.9021958999999997</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="H18">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I18">
-        <v>8674</v>
+        <v>9459</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="M18" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="E19">
-        <v>52.366690800000001</v>
+        <v>52.375758900000001</v>
       </c>
       <c r="F19">
-        <v>4.9264253</v>
+        <v>4.8961920000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="H19">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="I19">
-        <v>7769</v>
-      </c>
-      <c r="J19" t="s">
-        <v>163</v>
+        <v>9322</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="M19" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="E20">
-        <v>52.3669735</v>
+        <v>52.377623399999997</v>
       </c>
       <c r="F20">
-        <v>4.9128242000000002</v>
+        <v>4.8861631000000001</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="H20">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I20">
-        <v>5059</v>
+        <v>8674</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E21">
-        <v>52.3717696</v>
+        <v>52.366690800000001</v>
       </c>
       <c r="F21">
-        <v>4.8750293999999998</v>
+        <v>4.9264253</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="H21">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I21">
-        <v>4552</v>
+        <v>7769</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E22">
-        <v>52.372858200000003</v>
+        <v>52.3669735</v>
       </c>
       <c r="F22">
-        <v>4.8937001000000002</v>
+        <v>4.9128242000000002</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="H22">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="I22">
-        <v>4373</v>
+        <v>5059</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E23">
-        <v>52.366380799999988</v>
+        <v>52.3717696</v>
       </c>
       <c r="F23">
-        <v>4.8914504999999986</v>
+        <v>4.8750293999999998</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="H23">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="I23">
-        <v>3569</v>
+        <v>4552</v>
       </c>
       <c r="J23" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E24">
-        <v>52.368842800000003</v>
+        <v>52.372858200000003</v>
       </c>
       <c r="F24">
-        <v>4.884061</v>
+        <v>4.8937001000000002</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="H24">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I24">
-        <v>3367</v>
+        <v>4373</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="E25">
-        <v>52.373905200000003</v>
+        <v>52.374029699999987</v>
       </c>
       <c r="F25">
-        <v>4.8918093999999996</v>
+        <v>4.8993658999999994</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="H25">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I25">
-        <v>3366</v>
-      </c>
-      <c r="J25" t="s">
-        <v>169</v>
+        <v>3644</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E26">
-        <v>52.376389000000003</v>
+        <v>52.366380799999988</v>
       </c>
       <c r="F26">
-        <v>4.8842509999999999</v>
+        <v>4.8914504999999986</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="H26">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I26">
-        <v>3220</v>
+        <v>3569</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E27">
-        <v>52.365769899999997</v>
+        <v>52.368842800000003</v>
       </c>
       <c r="F27">
-        <v>4.8974253999999986</v>
+        <v>4.884061</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="H27">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I27">
-        <v>2029</v>
+        <v>3367</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E28">
-        <v>52.356841000000003</v>
+        <v>52.373905200000003</v>
       </c>
       <c r="F28">
-        <v>4.8916512000000001</v>
+        <v>4.8918093999999996</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H28">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="I28">
-        <v>1598</v>
+        <v>3366</v>
       </c>
       <c r="J28" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E29">
-        <v>52.357547399999987</v>
+        <v>52.376389000000003</v>
       </c>
       <c r="F29">
-        <v>4.8891125999999998</v>
+        <v>4.8842509999999999</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H29">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I29">
-        <v>1563</v>
+        <v>3220</v>
       </c>
       <c r="J29" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E30">
-        <v>52.355804900000003</v>
+        <v>52.373201999999999</v>
       </c>
       <c r="F30">
-        <v>4.9074458999999999</v>
+        <v>4.8989989999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="H30">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I30">
-        <v>1388</v>
+        <v>2886</v>
       </c>
       <c r="J30" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E31">
-        <v>52.354719099999997</v>
+        <v>52.365769899999997</v>
       </c>
       <c r="F31">
-        <v>4.8840307999999997</v>
+        <v>4.8974253999999986</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="H31">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I31">
-        <v>1309</v>
+        <v>2029</v>
       </c>
       <c r="J31" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E32">
-        <v>52.356350799999987</v>
+        <v>52.356841000000003</v>
       </c>
       <c r="F32">
-        <v>4.8904576000000004</v>
+        <v>4.8916512000000001</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="H32">
-        <v>4.5999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I32">
-        <v>1090</v>
+        <v>1598</v>
       </c>
       <c r="J32" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="M32" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E33">
-        <v>52.362637499999998</v>
+        <v>52.357547399999987</v>
       </c>
       <c r="F33">
-        <v>4.8812726</v>
+        <v>4.8891125999999998</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H33">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="I33">
-        <v>1049</v>
+        <v>1563</v>
       </c>
       <c r="J33" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M33" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E34">
-        <v>52.374611700000003</v>
+        <v>52.355804900000003</v>
       </c>
       <c r="F34">
-        <v>4.8987049999999996</v>
+        <v>4.9074458999999999</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="H34">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="I34">
-        <v>985</v>
+        <v>1388</v>
       </c>
       <c r="J34" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E35">
-        <v>52.377527200000003</v>
+        <v>52.354719099999997</v>
       </c>
       <c r="F35">
-        <v>4.8817078999999994</v>
+        <v>4.8840307999999997</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="H35">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I35">
-        <v>838</v>
+        <v>1309</v>
       </c>
       <c r="J35" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="M35" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E36">
-        <v>52.367182399999997</v>
+        <v>52.356350799999987</v>
       </c>
       <c r="F36">
-        <v>4.8915376999999998</v>
+        <v>4.8904576000000004</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="H36">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I36">
-        <v>618</v>
+        <v>1090</v>
       </c>
       <c r="J36" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s">
-        <v>250</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37">
+        <v>52.362637499999998</v>
+      </c>
+      <c r="F37">
+        <v>4.8812726</v>
+      </c>
+      <c r="G37" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I37">
+        <v>1049</v>
+      </c>
+      <c r="J37" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>240</v>
+      </c>
+      <c r="M37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38">
+        <v>52.374611700000003</v>
+      </c>
+      <c r="F38">
+        <v>4.8987049999999996</v>
+      </c>
+      <c r="G38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I38">
+        <v>985</v>
+      </c>
+      <c r="J38" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>241</v>
+      </c>
+      <c r="M38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39">
+        <v>52.377527200000003</v>
+      </c>
+      <c r="F39">
+        <v>4.8817078999999994</v>
+      </c>
+      <c r="G39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39">
+        <v>4.7</v>
+      </c>
+      <c r="I39">
+        <v>838</v>
+      </c>
+      <c r="J39" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>242</v>
+      </c>
+      <c r="M39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40">
+        <v>52.367182399999997</v>
+      </c>
+      <c r="F40">
+        <v>4.8915376999999998</v>
+      </c>
+      <c r="G40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40">
+        <v>4.3</v>
+      </c>
+      <c r="I40">
+        <v>618</v>
+      </c>
+      <c r="J40" t="s">
+        <v>206</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>243</v>
+      </c>
+      <c r="M40" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M41">
+    <sortCondition descending="1" ref="I2:I41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Amsterdam_miejsca_odnosniki.xlsx
+++ b/Amsterdam_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C16F5B5-F170-4F3F-AC8E-2AF0B096C761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3F8C16-F507-4E1C-BB43-68945F1820A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,9 +971,6 @@
     <t>The Red Light Bar in Amsterdam is an energetic sports bar located in the Red Light District known as "De Wallen." It offers beers, cocktails, and features big screens and pool tables. DJs also rotate to provide music. The bar is open until either 1 AM or 3 AM, depending on the day. The Red Light District is famous for its dense concentration of window prostitution. It consists of a network of alleys containing approximately 300 one-room cabins. It includes more than 200 window brothels, making it one of the most talked-about neighborhoods in Amsterdam. The bar's address is Oudezijds Achterburgwal 61, 1012 DB Amsterdam, Netherlands.</t>
   </si>
   <si>
-    <t>Rijksmuseum to skarbnica sztuki, oferująca porywające kolekcje z Złotego Wieku Holandii oraz szeroki zakres dzieł europejskich. Znajdujące się w nim arcydzieła takich mistrzów jak Rembrandt czy Vermeer, wyróżniają się wśród ponad miliona eksponatów. Sam gmach muzeum, zaprojektowany przez Pierre'a Cuypersa i zbudowany w 1885 roku, jest równie imponujący co przechowywane w nim skarby, łącząc elementy gotyku z renesansem.</t>
-  </si>
-  <si>
     <t>Muzeum Vincenta van Gogha jest świątynią sztuki dedykowaną dziełom tego holenderskiego malarza oraz jego współczesnym. Odwiedzający mogą podziwiać tam ponad 200 malowideł i 500 rysunków Van Gogha, w tym słynne "Słoneczniki" i "Pokój w Arles." Architektura muzeum, z nowoczesnym skrzydłem zaprojektowanym przez Kisho Kurokawę, łączy w sobie naturalne światło z modernistycznymi formami, tworząc idealne tło dla mistrzowskich prac.</t>
   </si>
   <si>
@@ -1086,6 +1083,9 @@
   </si>
   <si>
     <t>Red Light Bar to dynamiczna przystań dla miłośników sportu i nocnego życia, mieszcząca się w sercu dzielnicy De Wallen. Oferuje nie tylko różnorodne piwa i koktajle, ale również wielkie ekrany do oglądania sportu i stoły bilardowe. Klimat miejsca urozmaicają rotujący DJ-e, którzy grają muzykę aż do zamknięcia, które następuje między 1 a 3 nad ranem.</t>
+  </si>
+  <si>
+    <t>Rijksmuseum to skarbnica sztuki, oferująca porywające kolekcje ze Złotego Wieku Holandii oraz szeroki zakres dzieł europejskich. Znajdujące się w nim arcydzieła takich mistrzów jak Rembrandt czy Vermeer, wyróżniają się wśród ponad miliona eksponatów. Sam gmach muzeum, zaprojektowany przez Pierre'a Cuypersa i zbudowany w 1885 roku, jest równie imponujący co przechowywane w nim skarby, łącząc elementy gotyku z renesansem.</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M41" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,7 +1540,7 @@
         <v>209</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
         <v>210</v>
       </c>
       <c r="M3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1622,7 +1622,7 @@
         <v>211</v>
       </c>
       <c r="M4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1663,7 +1663,7 @@
         <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1704,7 +1704,7 @@
         <v>213</v>
       </c>
       <c r="M6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1745,7 +1745,7 @@
         <v>214</v>
       </c>
       <c r="M7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1786,7 +1786,7 @@
         <v>215</v>
       </c>
       <c r="M8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1827,7 +1827,7 @@
         <v>216</v>
       </c>
       <c r="M9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1868,7 +1868,7 @@
         <v>217</v>
       </c>
       <c r="M10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
         <v>244</v>
       </c>
       <c r="M11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1950,7 +1950,7 @@
         <v>218</v>
       </c>
       <c r="M12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
         <v>219</v>
       </c>
       <c r="M13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
         <v>220</v>
       </c>
       <c r="M14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2073,7 +2073,7 @@
         <v>221</v>
       </c>
       <c r="M15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2114,7 +2114,7 @@
         <v>222</v>
       </c>
       <c r="M16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2155,7 +2155,7 @@
         <v>223</v>
       </c>
       <c r="M17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2196,7 +2196,7 @@
         <v>224</v>
       </c>
       <c r="M18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2234,7 +2234,7 @@
         <v>245</v>
       </c>
       <c r="M19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2275,7 +2275,7 @@
         <v>225</v>
       </c>
       <c r="M20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2316,7 +2316,7 @@
         <v>226</v>
       </c>
       <c r="M21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2357,7 +2357,7 @@
         <v>227</v>
       </c>
       <c r="M22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2398,7 +2398,7 @@
         <v>228</v>
       </c>
       <c r="M23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2439,7 +2439,7 @@
         <v>229</v>
       </c>
       <c r="M24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2477,7 +2477,7 @@
         <v>246</v>
       </c>
       <c r="M25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2518,7 +2518,7 @@
         <v>230</v>
       </c>
       <c r="M26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2559,7 +2559,7 @@
         <v>231</v>
       </c>
       <c r="M27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2600,7 +2600,7 @@
         <v>232</v>
       </c>
       <c r="M28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2641,7 +2641,7 @@
         <v>233</v>
       </c>
       <c r="M29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2682,7 +2682,7 @@
         <v>247</v>
       </c>
       <c r="M30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2723,7 +2723,7 @@
         <v>234</v>
       </c>
       <c r="M31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2764,7 +2764,7 @@
         <v>235</v>
       </c>
       <c r="M32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2805,7 +2805,7 @@
         <v>236</v>
       </c>
       <c r="M33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2846,7 +2846,7 @@
         <v>237</v>
       </c>
       <c r="M34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2887,7 +2887,7 @@
         <v>238</v>
       </c>
       <c r="M35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2928,7 +2928,7 @@
         <v>239</v>
       </c>
       <c r="M36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2969,7 +2969,7 @@
         <v>240</v>
       </c>
       <c r="M37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -3010,7 +3010,7 @@
         <v>241</v>
       </c>
       <c r="M38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -3051,7 +3051,7 @@
         <v>242</v>
       </c>
       <c r="M39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -3092,7 +3092,7 @@
         <v>243</v>
       </c>
       <c r="M40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
